--- a/instance/zyjk/zentao/禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/禅道每日审查_测试.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="742">
   <si>
     <t>姓名</t>
   </si>
@@ -2119,6 +2119,15 @@
     <t>质控规则测试环境搭建</t>
   </si>
   <si>
+    <t xml:space="preserve">_x000D_
+	1.代码拉取到本地idea_x000D_
+_x000D_
+	2.测试数据库数据维护（规则准备）_x000D_
+_x000D_
+	3.与产品沟通规则问题，规则有疑义。_x000D_
+</t>
+  </si>
+  <si>
     <t>2020-06-08 17:59:07</t>
   </si>
   <si>
@@ -2177,545 +2186,21 @@
     <t xml:space="preserve"> bi-现场环境--住院分析-床位分析/住院收入-页面指标进行功能测试/sql编写/修改/页面信息展示比对/问题反馈</t>
   </si>
   <si>
+    <t xml:space="preserve">_x000D_
+	bi_x000D_
+_x000D_
+	1.床位分析-页面指标功能测试/sql统计/数据比对/问题收集_x000D_
+_x000D_
+	2.住院收入-页面指标功能测试/sql统计/数据统计/问题反馈_x000D_
+_x000D_
+	3问题反馈-整理问题清单发给曲经理_x000D_
+</t>
+  </si>
+  <si>
     <t>2020-06-08 17:53:09</t>
   </si>
   <si>
     <t>bi-现场环境--药品分析-基本用药分析/抗菌药物使用分析-页面指标进行功能测试/sql编写/修改/页面信息展示比对/问题反馈</t>
-  </si>
-  <si>
-    <t>2020-06-08 17:59:09</t>
-  </si>
-  <si>
-    <t>upv-现场环境-配合项目经理对upv系统进行验收测试</t>
-  </si>
-  <si>
-    <t>2020-06-08 18:01:42</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>每日一核</t>
-  </si>
-  <si>
-    <t>2020.5.18</t>
-  </si>
-  <si>
-    <t>金浩</t>
-  </si>
-  <si>
-    <t>新思维</t>
-  </si>
-  <si>
-    <t>善用新思维、多角度去思考与发现</t>
-  </si>
-  <si>
-    <t>脚踏实地</t>
-  </si>
-  <si>
-    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
-  </si>
-  <si>
-    <t>团队精神</t>
-  </si>
-  <si>
-    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>有价值的事，才是值得你做的事</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>把握重点多做有用功</t>
-  </si>
-  <si>
-    <t>2020.5.19</t>
-  </si>
-  <si>
-    <t>创造意义</t>
-  </si>
-  <si>
-    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
-  </si>
-  <si>
-    <t>要事优先</t>
-  </si>
-  <si>
-    <t>工作时，要分清主次，优先处理重要的事情</t>
-  </si>
-  <si>
-    <t>匠人匠心</t>
-  </si>
-  <si>
-    <t>专注、执着、细心的做好每件事情。</t>
-  </si>
-  <si>
-    <t>积累</t>
-  </si>
-  <si>
-    <t>冰冻三尺，非一日之寒，积少成多</t>
-  </si>
-  <si>
-    <t>坚持</t>
-  </si>
-  <si>
-    <t>不畏艰难终会达到目标</t>
-  </si>
-  <si>
-    <t>2020.5.20</t>
-  </si>
-  <si>
-    <t>培养习惯</t>
-  </si>
-  <si>
-    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
-  </si>
-  <si>
-    <t>求知</t>
-  </si>
-  <si>
-    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
-  </si>
-  <si>
-    <t>专注如一</t>
-  </si>
-  <si>
-    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
-  </si>
-  <si>
-    <t>勤奋</t>
-  </si>
-  <si>
-    <t>业精于勤荒于嬉，勤能补拙</t>
-  </si>
-  <si>
-    <t>2020.5.21</t>
-  </si>
-  <si>
-    <t>珍惜机会</t>
-  </si>
-  <si>
-    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
-  </si>
-  <si>
-    <t>换位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
-  </si>
-  <si>
-    <t>行动</t>
-  </si>
-  <si>
-    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">善于总结 </t>
-  </si>
-  <si>
-    <t>工作中要善于总结，做事要条理清晰</t>
-  </si>
-  <si>
-    <t>细心</t>
-  </si>
-  <si>
-    <t>细节决定成败</t>
-  </si>
-  <si>
-    <t>2020.5.22</t>
-  </si>
-  <si>
-    <t>顿悟</t>
-  </si>
-  <si>
-    <t>意会之美大语言表</t>
-  </si>
-  <si>
-    <t>律己</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
-  </si>
-  <si>
-    <t>守时</t>
-  </si>
-  <si>
-    <t>养成做任何事情都提前15分钟的习惯。</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>一花独放不是春，善于分享，共同进步</t>
-  </si>
-  <si>
-    <t>自省</t>
-  </si>
-  <si>
-    <t>从自身出发，总结和规划</t>
-  </si>
-  <si>
-    <t>2020.5.25</t>
-  </si>
-  <si>
-    <t>九分努力</t>
-  </si>
-  <si>
-    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
-  </si>
-  <si>
-    <t>责任感</t>
-  </si>
-  <si>
-    <t>工作要有强烈的责任感，认真做好每一件事</t>
-  </si>
-  <si>
-    <t>进步</t>
-  </si>
-  <si>
-    <t>每天进一步，踏上成功路。</t>
-  </si>
-  <si>
-    <t>感恩</t>
-  </si>
-  <si>
-    <t>怀感恩之心，做感恩之事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自律 </t>
-  </si>
-  <si>
-    <t>严于律己，宽以待人</t>
-  </si>
-  <si>
-    <t>2020.5.26</t>
-  </si>
-  <si>
-    <t>谋定而后动</t>
-  </si>
-  <si>
-    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
-Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
-  </si>
-  <si>
-    <t>团队合作</t>
-  </si>
-  <si>
-    <t>注重团队合作，团体的力量永远大于个人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创造价值  </t>
-  </si>
-  <si>
-    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
-    <t>乐观向上，迎难而上</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
-  </si>
-  <si>
-    <t>2020.5.27</t>
-  </si>
-  <si>
-    <t>利牝马之贞</t>
-  </si>
-  <si>
-    <t>做事不盲目顺从。</t>
-  </si>
-  <si>
-    <t>积极乐观</t>
-  </si>
-  <si>
-    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
-  </si>
-  <si>
-    <t>真诚</t>
-  </si>
-  <si>
-    <t>真实诚恳，真心实意</t>
-  </si>
-  <si>
-    <t>沟通</t>
-  </si>
-  <si>
-    <t>及时有效的沟通，可以让自己少走弯路。</t>
-  </si>
-  <si>
-    <t>多方位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
-  </si>
-  <si>
-    <t>2020.5.28</t>
-  </si>
-  <si>
-    <t>作事谋始</t>
-  </si>
-  <si>
-    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
-  </si>
-  <si>
-    <t>学以致用</t>
-  </si>
-  <si>
-    <t>学到的东西要使用出来才能发挥出它的价值</t>
-  </si>
-  <si>
-    <t>多思维</t>
-  </si>
-  <si>
-    <t>多种思维去考虑问题，去解决问题。</t>
-  </si>
-  <si>
-    <t>衡量</t>
-  </si>
-  <si>
-    <t>衡量事物的利与弊，做出最有价值的选择</t>
-  </si>
-  <si>
-    <t>独立思考</t>
-  </si>
-  <si>
-    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
-  </si>
-  <si>
-    <t>2020.5.29</t>
-  </si>
-  <si>
-    <t>师忧比乐</t>
-  </si>
-  <si>
-    <t>便是早日把竞争的观念改变为互助的观念。</t>
-  </si>
-  <si>
-    <t>高效</t>
-  </si>
-  <si>
-    <t>提高工作效率才能节省人力时间成本</t>
-  </si>
-  <si>
-    <t>细节</t>
-  </si>
-  <si>
-    <t>细节决定成败，心态决定人生</t>
-  </si>
-  <si>
-    <t>双赢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
-  </si>
-  <si>
-    <t>笃行</t>
-  </si>
-  <si>
-    <t>明确目标、踏踏实实、学以致用</t>
-  </si>
-  <si>
-    <t>2020.6.1</t>
-  </si>
-  <si>
-    <t>小畜</t>
-  </si>
-  <si>
-    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
-  </si>
-  <si>
-    <t>沉着冷静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遇事不惊，沉着应对  </t>
-  </si>
-  <si>
-    <t>努力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
-  </si>
-  <si>
-    <t>服从</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
-  </si>
-  <si>
-    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
-  </si>
-  <si>
-    <t>2020.6.2</t>
-  </si>
-  <si>
-    <t>一以贯之</t>
-  </si>
-  <si>
-    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推陈出新  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
-  </si>
-  <si>
-    <t>时间管理</t>
-  </si>
-  <si>
-    <t>每一分每一秒做最有生产力的事情.</t>
-  </si>
-  <si>
-    <t>平衡</t>
-  </si>
-  <si>
-    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
-  </si>
-  <si>
-    <t>夯实基础</t>
-  </si>
-  <si>
-    <t>好的基础是更快发展的基石</t>
-  </si>
-  <si>
-    <t>2020.6.3</t>
-  </si>
-  <si>
-    <t>不失己任</t>
-  </si>
-  <si>
-    <t>自己的责任不能推卸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">守信 </t>
-  </si>
-  <si>
-    <t>遵守承诺，按时按量完成工作</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>品质是企业的基石，专业是发展的动力。</t>
-  </si>
-  <si>
-    <t>耕耘</t>
-  </si>
-  <si>
-    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
-  </si>
-  <si>
-    <t>责任</t>
-  </si>
-  <si>
-    <t>身体力行，完成分内事</t>
-  </si>
-  <si>
-    <t>2020.6.4</t>
-  </si>
-  <si>
-    <t>反求诸己</t>
-  </si>
-  <si>
-    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业精于勤  </t>
-  </si>
-  <si>
-    <t>勤奋是获得成功必不可缺的要素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆流而上  </t>
-  </si>
-  <si>
-    <t>不怕困难，解决困难。</t>
-  </si>
-  <si>
-    <t>务实</t>
-  </si>
-  <si>
-    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
-  </si>
-  <si>
-    <t>行动力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 知行合一，实践出真知</t>
-  </si>
-  <si>
-    <t>2020.6.5</t>
-  </si>
-  <si>
-    <t>居安思危</t>
-  </si>
-  <si>
-    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
-  </si>
-  <si>
-    <t>反思</t>
-  </si>
-  <si>
-    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
-  </si>
-  <si>
-    <t>尽职尽责</t>
-  </si>
-  <si>
-    <t>尽自己最大的努力来完成自己的职责</t>
-  </si>
-  <si>
-    <t>不忘初心</t>
-  </si>
-  <si>
-    <t>不忘初心，方得始终！</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>定好目标做事才会更有方向、效率更高</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t>医嘱作废检验检查提示语前端未显示问题验证，检验检查数据修改再次确认流程，并开立其它医嘱测试作废</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	1.代码拉取到本地idea_x000D_
-_x000D_
-	2.测试数据库数据维护（规则准备）_x000D_
-_x000D_
-	3.与产品沟通规则问题，规则有疑义。_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	1整理bup系统功能清单_x000D_
-_x000D_
-	2提供测试数据_x000D_
-_x000D_
-	3.验证功能_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -2727,17 +2212,688 @@
 _x000D_
 	3.问题反馈-页面指标确认/整理bug清单反馈给曲经理_x000D_
 </t>
+  </si>
+  <si>
+    <t>2020-06-08 17:59:09</t>
+  </si>
+  <si>
+    <t>upv-现场环境-配合项目经理对upv系统进行验收测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	1整理bup系统功能清单_x000D_
+_x000D_
+	2提供测试数据_x000D_
+_x000D_
+	3.验证功能_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-08 18:01:42</t>
+  </si>
+  <si>
+    <t>家床1.5现有诊断新增诊断输入码和历史诊断表功能测试，和现有诊断查询测试（90%）</t>
+  </si>
+  <si>
+    <t>2020-06-09 18:07:52</t>
+  </si>
+  <si>
+    <t>病案首页诊断记录数据不正确问题、建床登记诊断保存无首字母问题验证</t>
+  </si>
+  <si>
+    <t>2020-06-09 18:07:56</t>
+  </si>
+  <si>
+    <t>家床2.0常用诊断设置功能测试和现有诊断修改后功能测试（70%）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	家床2.0常用诊断设置功能和现有诊断修改后功能测试-建床登记上报诊断、建床诊断设置常用诊断、病历、医嘱中医诊断、医联诊断设置常用功能测试，_x000D_
+_x000D_
+_x000D_
+	病历内诊断修改直接设置常用诊断问题测试与开发沟通，_x000D_
+_x000D_
+_x000D_
+	现有诊断新增诊断输入码和历史诊断表功能测试（同1.5版本）。_x000D_
+_x000D_
+_x000D_
+	</t>
+  </si>
+  <si>
+    <t>2020-06-09 18:08:00</t>
+  </si>
+  <si>
+    <t>规则bug提交，与开发描述bug问题，验证修复的bug问题</t>
+  </si>
+  <si>
+    <t>2020-06-09 18:11:41</t>
+  </si>
+  <si>
+    <t>质控规则测试，自动化框架搭建，与质控数据sql编写</t>
+  </si>
+  <si>
+    <t>2020-06-09 18:13:24</t>
+  </si>
+  <si>
+    <t>熟悉EMPI设计文档中新增的流程</t>
+  </si>
+  <si>
+    <t>与开发确认EMPI数据合并的具体细节</t>
+  </si>
+  <si>
+    <t>2020-06-09 18:13:29</t>
+  </si>
+  <si>
+    <t>编写患者打分，数据合并部分测试用例</t>
+  </si>
+  <si>
+    <t>2020-06-09 18:16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bi-现场环境--药品分析-注射输液用药分析-页面指标进行功能测试/sql编写/修改/页面信息展示比对/问题反馈</t>
+  </si>
+  <si>
+    <t>2020-06-09 17:52:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bi-现场环境--手术分析--页面指标进行功能测试/sql编写/修改/页面信息展示比对/问题反馈</t>
+  </si>
+  <si>
+    <t>2020-06-09 17:56:47</t>
+  </si>
+  <si>
+    <t>2020-06-09 17:57:45</t>
+  </si>
+  <si>
+    <t>upv-现场环境-继续配合项目经理对upv系统进行验收测试/现场问题定位</t>
+  </si>
+  <si>
+    <t>2020-06-09 17:59:55</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>每日一核</t>
+  </si>
+  <si>
+    <t>2020.5.18</t>
+  </si>
+  <si>
+    <t>金浩</t>
+  </si>
+  <si>
+    <t>新思维</t>
+  </si>
+  <si>
+    <t>善用新思维、多角度去思考与发现</t>
+  </si>
+  <si>
+    <t>脚踏实地</t>
+  </si>
+  <si>
+    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
+  </si>
+  <si>
+    <t>团队精神</t>
+  </si>
+  <si>
+    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>有价值的事，才是值得你做的事</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>把握重点多做有用功</t>
+  </si>
+  <si>
+    <t>2020.5.19</t>
+  </si>
+  <si>
+    <t>创造意义</t>
+  </si>
+  <si>
+    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
+  </si>
+  <si>
+    <t>要事优先</t>
+  </si>
+  <si>
+    <t>工作时，要分清主次，优先处理重要的事情</t>
+  </si>
+  <si>
+    <t>匠人匠心</t>
+  </si>
+  <si>
+    <t>专注、执着、细心的做好每件事情。</t>
+  </si>
+  <si>
+    <t>积累</t>
+  </si>
+  <si>
+    <t>冰冻三尺，非一日之寒，积少成多</t>
+  </si>
+  <si>
+    <t>坚持</t>
+  </si>
+  <si>
+    <t>不畏艰难终会达到目标</t>
+  </si>
+  <si>
+    <t>2020.5.20</t>
+  </si>
+  <si>
+    <t>培养习惯</t>
+  </si>
+  <si>
+    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
+  </si>
+  <si>
+    <t>求知</t>
+  </si>
+  <si>
+    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
+  </si>
+  <si>
+    <t>专注如一</t>
+  </si>
+  <si>
+    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
+  </si>
+  <si>
+    <t>勤奋</t>
+  </si>
+  <si>
+    <t>业精于勤荒于嬉，勤能补拙</t>
+  </si>
+  <si>
+    <t>2020.5.21</t>
+  </si>
+  <si>
+    <t>珍惜机会</t>
+  </si>
+  <si>
+    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
+  </si>
+  <si>
+    <t>换位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
+  </si>
+  <si>
+    <t>行动</t>
+  </si>
+  <si>
+    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">善于总结 </t>
+  </si>
+  <si>
+    <t>工作中要善于总结，做事要条理清晰</t>
+  </si>
+  <si>
+    <t>细心</t>
+  </si>
+  <si>
+    <t>细节决定成败</t>
+  </si>
+  <si>
+    <t>2020.5.22</t>
+  </si>
+  <si>
+    <t>顿悟</t>
+  </si>
+  <si>
+    <t>意会之美大语言表</t>
+  </si>
+  <si>
+    <t>律己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
+  </si>
+  <si>
+    <t>守时</t>
+  </si>
+  <si>
+    <t>养成做任何事情都提前15分钟的习惯。</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>一花独放不是春，善于分享，共同进步</t>
+  </si>
+  <si>
+    <t>自省</t>
+  </si>
+  <si>
+    <t>从自身出发，总结和规划</t>
+  </si>
+  <si>
+    <t>2020.5.25</t>
+  </si>
+  <si>
+    <t>九分努力</t>
+  </si>
+  <si>
+    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
+  </si>
+  <si>
+    <t>责任感</t>
+  </si>
+  <si>
+    <t>工作要有强烈的责任感，认真做好每一件事</t>
+  </si>
+  <si>
+    <t>进步</t>
+  </si>
+  <si>
+    <t>每天进一步，踏上成功路。</t>
+  </si>
+  <si>
+    <t>感恩</t>
+  </si>
+  <si>
+    <t>怀感恩之心，做感恩之事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自律 </t>
+  </si>
+  <si>
+    <t>严于律己，宽以待人</t>
+  </si>
+  <si>
+    <t>2020.5.26</t>
+  </si>
+  <si>
+    <t>谋定而后动</t>
+  </si>
+  <si>
+    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
+Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
+  </si>
+  <si>
+    <t>团队合作</t>
+  </si>
+  <si>
+    <t>注重团队合作，团体的力量永远大于个人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创造价值  </t>
+  </si>
+  <si>
+    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>乐观向上，迎难而上</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
+  </si>
+  <si>
+    <t>2020.5.27</t>
+  </si>
+  <si>
+    <t>利牝马之贞</t>
+  </si>
+  <si>
+    <t>做事不盲目顺从。</t>
+  </si>
+  <si>
+    <t>积极乐观</t>
+  </si>
+  <si>
+    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
+  </si>
+  <si>
+    <t>真诚</t>
+  </si>
+  <si>
+    <t>真实诚恳，真心实意</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>及时有效的沟通，可以让自己少走弯路。</t>
+  </si>
+  <si>
+    <t>多方位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
+  </si>
+  <si>
+    <t>2020.5.28</t>
+  </si>
+  <si>
+    <t>作事谋始</t>
+  </si>
+  <si>
+    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
+  </si>
+  <si>
+    <t>学以致用</t>
+  </si>
+  <si>
+    <t>学到的东西要使用出来才能发挥出它的价值</t>
+  </si>
+  <si>
+    <t>多思维</t>
+  </si>
+  <si>
+    <t>多种思维去考虑问题，去解决问题。</t>
+  </si>
+  <si>
+    <t>衡量</t>
+  </si>
+  <si>
+    <t>衡量事物的利与弊，做出最有价值的选择</t>
+  </si>
+  <si>
+    <t>独立思考</t>
+  </si>
+  <si>
+    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
+  </si>
+  <si>
+    <t>2020.5.29</t>
+  </si>
+  <si>
+    <t>师忧比乐</t>
+  </si>
+  <si>
+    <t>便是早日把竞争的观念改变为互助的观念。</t>
+  </si>
+  <si>
+    <t>高效</t>
+  </si>
+  <si>
+    <t>提高工作效率才能节省人力时间成本</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>细节决定成败，心态决定人生</t>
+  </si>
+  <si>
+    <t>双赢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
+  </si>
+  <si>
+    <t>笃行</t>
+  </si>
+  <si>
+    <t>明确目标、踏踏实实、学以致用</t>
+  </si>
+  <si>
+    <t>2020.6.1</t>
+  </si>
+  <si>
+    <t>小畜</t>
+  </si>
+  <si>
+    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
+  </si>
+  <si>
+    <t>沉着冷静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遇事不惊，沉着应对  </t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
+  </si>
+  <si>
+    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
+  </si>
+  <si>
+    <t>2020.6.2</t>
+  </si>
+  <si>
+    <t>一以贯之</t>
+  </si>
+  <si>
+    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推陈出新  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
+  </si>
+  <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>每一分每一秒做最有生产力的事情.</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
+  </si>
+  <si>
+    <t>夯实基础</t>
+  </si>
+  <si>
+    <t>好的基础是更快发展的基石</t>
+  </si>
+  <si>
+    <t>2020.6.3</t>
+  </si>
+  <si>
+    <t>不失己任</t>
+  </si>
+  <si>
+    <t>自己的责任不能推卸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">守信 </t>
+  </si>
+  <si>
+    <t>遵守承诺，按时按量完成工作</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>品质是企业的基石，专业是发展的动力。</t>
+  </si>
+  <si>
+    <t>耕耘</t>
+  </si>
+  <si>
+    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
+  </si>
+  <si>
+    <t>责任</t>
+  </si>
+  <si>
+    <t>身体力行，完成分内事</t>
+  </si>
+  <si>
+    <t>2020.6.4</t>
+  </si>
+  <si>
+    <t>反求诸己</t>
+  </si>
+  <si>
+    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业精于勤  </t>
+  </si>
+  <si>
+    <t>勤奋是获得成功必不可缺的要素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆流而上  </t>
+  </si>
+  <si>
+    <t>不怕困难，解决困难。</t>
+  </si>
+  <si>
+    <t>务实</t>
+  </si>
+  <si>
+    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
+  </si>
+  <si>
+    <t>行动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知行合一，实践出真知</t>
+  </si>
+  <si>
+    <t>2020.6.5</t>
+  </si>
+  <si>
+    <t>居安思危</t>
+  </si>
+  <si>
+    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
+  </si>
+  <si>
+    <t>反思</t>
+  </si>
+  <si>
+    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
+  </si>
+  <si>
+    <t>尽职尽责</t>
+  </si>
+  <si>
+    <t>尽自己最大的努力来完成自己的职责</t>
+  </si>
+  <si>
+    <t>不忘初心</t>
+  </si>
+  <si>
+    <t>不忘初心，方得始终！</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>定好目标做事才会更有方向、效率更高</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	现有诊断新增诊断输入码和历史诊断表功能测试-建床登记、建床诊断编辑添加建床诊断记录测试及数据查看，_x000D_
+_x000D_
+_x000D_
+	查看诊断记录及病案首页诊断记录数据不正确问题，_x000D_
+_x000D_
+_x000D_
+	病历书写撤床诊断保存数据测试，病历、医嘱内查询现有诊断根据code、首字母、名称查询数据。_x000D_
+_x000D_
+_x000D_
+	还有两个bug待修改_x000D_
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>病案首页诊断记录数据不正确问题、建床登记诊断保存无首字母问题验证，未解决完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认EMPI中，患者数据合并处理时，一些特殊情况的具体处理方式与细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉了解患者数据处理的具体流程规则_x000D_
+熟悉患者数据拆分的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">_x000D_
-	bi_x000D_
+	1继续配合千北辰对upv系统进行验收测试_x000D_
+_x000D__x000D_
+	2现场问题定位/记录_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好，已完成现场测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_x000D_
+	药品分析_x000D_
+_x000D__x000D_
+	注射输液用药分析_x000D_
 _x000D_
-	1.床位分析-页面指标功能测试/sql统计/数据比对/问题收集_x000D_
+	1.功能测试-查询_x000D_
 _x000D_
-	2.住院收入-页面指标功能测试/sql统计/数据统计/问题反馈_x000D_
+	2sql编写_x000D_
+_x000D__x000D_
+	3页面信息比对_x000D_
+_x000D__x000D_
+	4bug反馈-与开发确认统计指标sql_x000D_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者打分，数据自动合并功能测试用例的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.下载自动化框架涉及到的jar包_x000D_
+_x000D_	2.修改自动化框架报的错误_x000D_
+_x000D_	3.质控规则数据sql编写，执行自动化框架_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好，目前开发进度缓慢，优化中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.质控规则bug提交给开发_x000D_
 _x000D_
-	3问题反馈-整理问题清单发给曲经理_x000D_
+_x000D_	2.与开发描述bug问题，质控结果与需求不一致_x000D_
+_x000D__x000D_
+	3.验证开发修复发质控bug问题_x000D_
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3289,11 +3445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H296"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D289" sqref="D289"/>
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.8"/>
@@ -9517,7 +9673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="41.4">
+    <row r="280" spans="1:8" ht="41.4" customHeight="1">
       <c r="A280" s="14" t="s">
         <v>8</v>
       </c>
@@ -9531,7 +9687,7 @@
         <v>509</v>
       </c>
       <c r="E280" s="26" t="s">
-        <v>703</v>
+        <v>509</v>
       </c>
       <c r="F280" s="14" t="s">
         <v>406</v>
@@ -9569,7 +9725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="27.6">
+    <row r="282" spans="1:8" ht="27.6" customHeight="1">
       <c r="A282" s="14" t="s">
         <v>8</v>
       </c>
@@ -9595,7 +9751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="96.6">
+    <row r="283" spans="1:8" ht="96.6" customHeight="1">
       <c r="A283" s="14" t="s">
         <v>16</v>
       </c>
@@ -9609,13 +9765,13 @@
         <v>515</v>
       </c>
       <c r="E283" s="26" t="s">
-        <v>704</v>
+        <v>516</v>
       </c>
       <c r="F283" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G283" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H283" s="14" t="s">
         <v>50</v>
@@ -9632,16 +9788,16 @@
         <v>377</v>
       </c>
       <c r="D284" s="14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E284" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G284" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H284" s="14" t="s">
         <v>50</v>
@@ -9658,16 +9814,16 @@
         <v>377</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E285" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F285" s="14" t="s">
         <v>387</v>
       </c>
       <c r="G285" s="14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H285" s="14" t="s">
         <v>50</v>
@@ -9684,16 +9840,16 @@
         <v>363</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E286" s="26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F286" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G286" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H286" s="14" t="s">
         <v>50</v>
@@ -9710,22 +9866,22 @@
         <v>363</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E287" s="26" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F287" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G287" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H287" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="151.80000000000001">
+    <row r="288" spans="1:8" ht="151.80000000000001" customHeight="1">
       <c r="A288" s="14" t="s">
         <v>22</v>
       </c>
@@ -9736,22 +9892,22 @@
         <v>24</v>
       </c>
       <c r="D288" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E288" s="26" t="s">
-        <v>707</v>
+        <v>532</v>
       </c>
       <c r="F288" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G288" s="14" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H288" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="151.80000000000001">
+    <row r="289" spans="1:8" ht="151.80000000000001" customHeight="1">
       <c r="A289" s="14" t="s">
         <v>22</v>
       </c>
@@ -9762,22 +9918,22 @@
         <v>24</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E289" s="26" t="s">
-        <v>706</v>
+        <v>535</v>
       </c>
       <c r="F289" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G289" s="14" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H289" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="96.6">
+    <row r="290" spans="1:8" ht="96.6" customHeight="1">
       <c r="A290" s="14" t="s">
         <v>22</v>
       </c>
@@ -9788,80 +9944,320 @@
         <v>27</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E290" s="26" t="s">
-        <v>705</v>
+        <v>538</v>
       </c>
       <c r="F290" s="14" t="s">
         <v>379</v>
       </c>
       <c r="G290" s="14" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H290" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
-      <c r="A291" s="14"/>
-      <c r="B291" s="14"/>
+    <row r="291" spans="1:8" ht="207">
+      <c r="A291" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>381</v>
+      </c>
       <c r="C291" s="14"/>
-      <c r="D291" s="14"/>
-      <c r="E291" s="14"/>
-      <c r="F291" s="14"/>
-      <c r="G291" s="14"/>
-      <c r="H291" s="14"/>
+      <c r="D291" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="E291" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="F291" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G291" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="H291" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="14"/>
-      <c r="B292" s="14"/>
+      <c r="A292" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>381</v>
+      </c>
       <c r="C292" s="14"/>
-      <c r="D292" s="14"/>
-      <c r="E292" s="14"/>
-      <c r="F292" s="14"/>
-      <c r="G292" s="14"/>
-      <c r="H292" s="14"/>
+      <c r="D292" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="E292" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="F292" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G292" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="H292" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="293" spans="1:8">
-      <c r="A293" s="14"/>
-      <c r="B293" s="14"/>
+      <c r="A293" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B293" s="14" t="s">
+        <v>381</v>
+      </c>
       <c r="C293" s="14"/>
-      <c r="D293" s="14"/>
-      <c r="E293" s="14"/>
-      <c r="F293" s="14"/>
-      <c r="G293" s="14"/>
-      <c r="H293" s="14"/>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" s="14"/>
-      <c r="B294" s="14"/>
+      <c r="D293" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E293" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="F293" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G293" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="H293" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="96.6">
+      <c r="A294" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C294" s="14"/>
-      <c r="D294" s="14"/>
-      <c r="E294" s="14"/>
-      <c r="F294" s="14"/>
-      <c r="G294" s="14"/>
-      <c r="H294" s="14"/>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" s="14"/>
-      <c r="B295" s="14"/>
+      <c r="D294" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="E294" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="F294" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G294" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="H294" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="69">
+      <c r="A295" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
-      <c r="E295" s="14"/>
-      <c r="F295" s="14"/>
-      <c r="G295" s="14"/>
-      <c r="H295" s="14"/>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" s="14"/>
-      <c r="B296" s="14"/>
-      <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
-      <c r="E296" s="14"/>
-      <c r="F296" s="14"/>
-      <c r="G296" s="14"/>
-      <c r="H296" s="14"/>
+      <c r="D295" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="E295" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="F295" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G295" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="H295" s="14" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="27.6">
+      <c r="A296" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D296" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E296" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="F296" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G296" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="H296" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="27.6">
+      <c r="A297" t="s">
+        <v>32</v>
+      </c>
+      <c r="B297" t="s">
+        <v>23</v>
+      </c>
+      <c r="C297" t="s">
+        <v>363</v>
+      </c>
+      <c r="D297" t="s">
+        <v>552</v>
+      </c>
+      <c r="E297" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="F297" t="s">
+        <v>387</v>
+      </c>
+      <c r="G297" t="s">
+        <v>553</v>
+      </c>
+      <c r="H297" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>32</v>
+      </c>
+      <c r="B298" t="s">
+        <v>23</v>
+      </c>
+      <c r="C298" t="s">
+        <v>363</v>
+      </c>
+      <c r="D298" t="s">
+        <v>554</v>
+      </c>
+      <c r="E298" t="s">
+        <v>738</v>
+      </c>
+      <c r="F298" t="s">
+        <v>383</v>
+      </c>
+      <c r="G298" t="s">
+        <v>555</v>
+      </c>
+      <c r="H298" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="165.6">
+      <c r="A299" t="s">
+        <v>22</v>
+      </c>
+      <c r="B299" t="s">
+        <v>23</v>
+      </c>
+      <c r="C299" t="s">
+        <v>24</v>
+      </c>
+      <c r="D299" t="s">
+        <v>556</v>
+      </c>
+      <c r="E299" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="F299" t="s">
+        <v>406</v>
+      </c>
+      <c r="G299" t="s">
+        <v>557</v>
+      </c>
+      <c r="H299" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" t="s">
+        <v>22</v>
+      </c>
+      <c r="B300" t="s">
+        <v>23</v>
+      </c>
+      <c r="C300" t="s">
+        <v>24</v>
+      </c>
+      <c r="D300" t="s">
+        <v>558</v>
+      </c>
+      <c r="E300" t="s">
+        <v>732</v>
+      </c>
+      <c r="F300" t="s">
+        <v>417</v>
+      </c>
+      <c r="G300" t="s">
+        <v>559</v>
+      </c>
+      <c r="H300" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>22</v>
+      </c>
+      <c r="B301" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301" t="s">
+        <v>27</v>
+      </c>
+      <c r="D301" t="s">
+        <v>97</v>
+      </c>
+      <c r="E301"/>
+      <c r="F301" t="s">
+        <v>400</v>
+      </c>
+      <c r="G301" t="s">
+        <v>560</v>
+      </c>
+      <c r="H301" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="69">
+      <c r="A302" t="s">
+        <v>22</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" t="s">
+        <v>27</v>
+      </c>
+      <c r="D302" t="s">
+        <v>561</v>
+      </c>
+      <c r="E302" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="F302" t="s">
+        <v>379</v>
+      </c>
+      <c r="G302" t="s">
+        <v>562</v>
+      </c>
+      <c r="H302" t="s">
+        <v>736</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H227"/>
@@ -9889,1057 +10285,1057 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.4" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.4" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.4" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.4" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.4" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.4" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.4" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.4" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.4" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.4" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.4" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.4" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.4" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.4" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.4" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.4" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.4" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.4" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="B70" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.4" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>692</v>
+        <v>719</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.4" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.4" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.4" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.4" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.4" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/zentao/禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/禅道每日审查_测试.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="773">
   <si>
     <t>姓名</t>
   </si>
@@ -2235,10 +2235,27 @@
     <t>家床1.5现有诊断新增诊断输入码和历史诊断表功能测试，和现有诊断查询测试（90%）</t>
   </si>
   <si>
+    <t xml:space="preserve">_x000D_
+	现有诊断新增诊断输入码和历史诊断表功能测试-建床登记、建床诊断编辑添加建床诊断记录测试及数据查看，_x000D_
+_x000D_
+_x000D_
+	查看诊断记录及病案首页诊断记录数据不正确问题，_x000D_
+_x000D_
+_x000D_
+	病历书写撤床诊断保存数据测试，病历、医嘱内查询现有诊断根据code、首字母、名称查询数据。_x000D_
+_x000D_
+_x000D_
+	还有两个bug待修改_x000D_
+</t>
+  </si>
+  <si>
     <t>2020-06-09 18:07:52</t>
   </si>
   <si>
     <t>病案首页诊断记录数据不正确问题、建床登记诊断保存无首字母问题验证</t>
+  </si>
+  <si>
+    <t>病案首页诊断记录数据不正确问题、建床登记诊断保存无首字母问题验证，未解决完成</t>
   </si>
   <si>
     <t>2020-06-09 18:07:56</t>
@@ -2272,577 +2289,77 @@
     <t>质控规则测试，自动化框架搭建，与质控数据sql编写</t>
   </si>
   <si>
+    <t xml:space="preserve">_x000D_
+	1.下载自动化框架涉及到的jar包_x000D_
+_x000D_	2.修改自动化框架报的错误_x000D_
+_x000D_	3.质控规则数据sql编写，执行自动化框架_x000D_
+</t>
+  </si>
+  <si>
     <t>2020-06-09 18:13:24</t>
   </si>
   <si>
+    <t>良好，目前开发进度缓慢，优化中。</t>
+  </si>
+  <si>
     <t>熟悉EMPI设计文档中新增的流程</t>
-  </si>
-  <si>
-    <t>与开发确认EMPI数据合并的具体细节</t>
-  </si>
-  <si>
-    <t>2020-06-09 18:13:29</t>
-  </si>
-  <si>
-    <t>编写患者打分，数据合并部分测试用例</t>
-  </si>
-  <si>
-    <t>2020-06-09 18:16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bi-现场环境--药品分析-注射输液用药分析-页面指标进行功能测试/sql编写/修改/页面信息展示比对/问题反馈</t>
-  </si>
-  <si>
-    <t>2020-06-09 17:52:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bi-现场环境--手术分析--页面指标进行功能测试/sql编写/修改/页面信息展示比对/问题反馈</t>
-  </si>
-  <si>
-    <t>2020-06-09 17:56:47</t>
-  </si>
-  <si>
-    <t>2020-06-09 17:57:45</t>
-  </si>
-  <si>
-    <t>upv-现场环境-继续配合项目经理对upv系统进行验收测试/现场问题定位</t>
-  </si>
-  <si>
-    <t>2020-06-09 17:59:55</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>每日一核</t>
-  </si>
-  <si>
-    <t>2020.5.18</t>
-  </si>
-  <si>
-    <t>金浩</t>
-  </si>
-  <si>
-    <t>新思维</t>
-  </si>
-  <si>
-    <t>善用新思维、多角度去思考与发现</t>
-  </si>
-  <si>
-    <t>脚踏实地</t>
-  </si>
-  <si>
-    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
-  </si>
-  <si>
-    <t>团队精神</t>
-  </si>
-  <si>
-    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>有价值的事，才是值得你做的事</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>把握重点多做有用功</t>
-  </si>
-  <si>
-    <t>2020.5.19</t>
-  </si>
-  <si>
-    <t>创造意义</t>
-  </si>
-  <si>
-    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
-  </si>
-  <si>
-    <t>要事优先</t>
-  </si>
-  <si>
-    <t>工作时，要分清主次，优先处理重要的事情</t>
-  </si>
-  <si>
-    <t>匠人匠心</t>
-  </si>
-  <si>
-    <t>专注、执着、细心的做好每件事情。</t>
-  </si>
-  <si>
-    <t>积累</t>
-  </si>
-  <si>
-    <t>冰冻三尺，非一日之寒，积少成多</t>
-  </si>
-  <si>
-    <t>坚持</t>
-  </si>
-  <si>
-    <t>不畏艰难终会达到目标</t>
-  </si>
-  <si>
-    <t>2020.5.20</t>
-  </si>
-  <si>
-    <t>培养习惯</t>
-  </si>
-  <si>
-    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
-  </si>
-  <si>
-    <t>求知</t>
-  </si>
-  <si>
-    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
-  </si>
-  <si>
-    <t>专注如一</t>
-  </si>
-  <si>
-    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
-  </si>
-  <si>
-    <t>勤奋</t>
-  </si>
-  <si>
-    <t>业精于勤荒于嬉，勤能补拙</t>
-  </si>
-  <si>
-    <t>2020.5.21</t>
-  </si>
-  <si>
-    <t>珍惜机会</t>
-  </si>
-  <si>
-    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
-  </si>
-  <si>
-    <t>换位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
-  </si>
-  <si>
-    <t>行动</t>
-  </si>
-  <si>
-    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">善于总结 </t>
-  </si>
-  <si>
-    <t>工作中要善于总结，做事要条理清晰</t>
-  </si>
-  <si>
-    <t>细心</t>
-  </si>
-  <si>
-    <t>细节决定成败</t>
-  </si>
-  <si>
-    <t>2020.5.22</t>
-  </si>
-  <si>
-    <t>顿悟</t>
-  </si>
-  <si>
-    <t>意会之美大语言表</t>
-  </si>
-  <si>
-    <t>律己</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
-  </si>
-  <si>
-    <t>守时</t>
-  </si>
-  <si>
-    <t>养成做任何事情都提前15分钟的习惯。</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>一花独放不是春，善于分享，共同进步</t>
-  </si>
-  <si>
-    <t>自省</t>
-  </si>
-  <si>
-    <t>从自身出发，总结和规划</t>
-  </si>
-  <si>
-    <t>2020.5.25</t>
-  </si>
-  <si>
-    <t>九分努力</t>
-  </si>
-  <si>
-    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
-  </si>
-  <si>
-    <t>责任感</t>
-  </si>
-  <si>
-    <t>工作要有强烈的责任感，认真做好每一件事</t>
-  </si>
-  <si>
-    <t>进步</t>
-  </si>
-  <si>
-    <t>每天进一步，踏上成功路。</t>
-  </si>
-  <si>
-    <t>感恩</t>
-  </si>
-  <si>
-    <t>怀感恩之心，做感恩之事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自律 </t>
-  </si>
-  <si>
-    <t>严于律己，宽以待人</t>
-  </si>
-  <si>
-    <t>2020.5.26</t>
-  </si>
-  <si>
-    <t>谋定而后动</t>
-  </si>
-  <si>
-    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
-Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
-  </si>
-  <si>
-    <t>团队合作</t>
-  </si>
-  <si>
-    <t>注重团队合作，团体的力量永远大于个人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创造价值  </t>
-  </si>
-  <si>
-    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
-    <t>乐观向上，迎难而上</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
-  </si>
-  <si>
-    <t>2020.5.27</t>
-  </si>
-  <si>
-    <t>利牝马之贞</t>
-  </si>
-  <si>
-    <t>做事不盲目顺从。</t>
-  </si>
-  <si>
-    <t>积极乐观</t>
-  </si>
-  <si>
-    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
-  </si>
-  <si>
-    <t>真诚</t>
-  </si>
-  <si>
-    <t>真实诚恳，真心实意</t>
-  </si>
-  <si>
-    <t>沟通</t>
-  </si>
-  <si>
-    <t>及时有效的沟通，可以让自己少走弯路。</t>
-  </si>
-  <si>
-    <t>多方位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
-  </si>
-  <si>
-    <t>2020.5.28</t>
-  </si>
-  <si>
-    <t>作事谋始</t>
-  </si>
-  <si>
-    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
-  </si>
-  <si>
-    <t>学以致用</t>
-  </si>
-  <si>
-    <t>学到的东西要使用出来才能发挥出它的价值</t>
-  </si>
-  <si>
-    <t>多思维</t>
-  </si>
-  <si>
-    <t>多种思维去考虑问题，去解决问题。</t>
-  </si>
-  <si>
-    <t>衡量</t>
-  </si>
-  <si>
-    <t>衡量事物的利与弊，做出最有价值的选择</t>
-  </si>
-  <si>
-    <t>独立思考</t>
-  </si>
-  <si>
-    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
-  </si>
-  <si>
-    <t>2020.5.29</t>
-  </si>
-  <si>
-    <t>师忧比乐</t>
-  </si>
-  <si>
-    <t>便是早日把竞争的观念改变为互助的观念。</t>
-  </si>
-  <si>
-    <t>高效</t>
-  </si>
-  <si>
-    <t>提高工作效率才能节省人力时间成本</t>
-  </si>
-  <si>
-    <t>细节</t>
-  </si>
-  <si>
-    <t>细节决定成败，心态决定人生</t>
-  </si>
-  <si>
-    <t>双赢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
-  </si>
-  <si>
-    <t>笃行</t>
-  </si>
-  <si>
-    <t>明确目标、踏踏实实、学以致用</t>
-  </si>
-  <si>
-    <t>2020.6.1</t>
-  </si>
-  <si>
-    <t>小畜</t>
-  </si>
-  <si>
-    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
-  </si>
-  <si>
-    <t>沉着冷静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遇事不惊，沉着应对  </t>
-  </si>
-  <si>
-    <t>努力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
-  </si>
-  <si>
-    <t>服从</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
-  </si>
-  <si>
-    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
-  </si>
-  <si>
-    <t>2020.6.2</t>
-  </si>
-  <si>
-    <t>一以贯之</t>
-  </si>
-  <si>
-    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推陈出新  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
-  </si>
-  <si>
-    <t>时间管理</t>
-  </si>
-  <si>
-    <t>每一分每一秒做最有生产力的事情.</t>
-  </si>
-  <si>
-    <t>平衡</t>
-  </si>
-  <si>
-    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
-  </si>
-  <si>
-    <t>夯实基础</t>
-  </si>
-  <si>
-    <t>好的基础是更快发展的基石</t>
-  </si>
-  <si>
-    <t>2020.6.3</t>
-  </si>
-  <si>
-    <t>不失己任</t>
-  </si>
-  <si>
-    <t>自己的责任不能推卸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">守信 </t>
-  </si>
-  <si>
-    <t>遵守承诺，按时按量完成工作</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>品质是企业的基石，专业是发展的动力。</t>
-  </si>
-  <si>
-    <t>耕耘</t>
-  </si>
-  <si>
-    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
-  </si>
-  <si>
-    <t>责任</t>
-  </si>
-  <si>
-    <t>身体力行，完成分内事</t>
-  </si>
-  <si>
-    <t>2020.6.4</t>
-  </si>
-  <si>
-    <t>反求诸己</t>
-  </si>
-  <si>
-    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业精于勤  </t>
-  </si>
-  <si>
-    <t>勤奋是获得成功必不可缺的要素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆流而上  </t>
-  </si>
-  <si>
-    <t>不怕困难，解决困难。</t>
-  </si>
-  <si>
-    <t>务实</t>
-  </si>
-  <si>
-    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
-  </si>
-  <si>
-    <t>行动力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 知行合一，实践出真知</t>
-  </si>
-  <si>
-    <t>2020.6.5</t>
-  </si>
-  <si>
-    <t>居安思危</t>
-  </si>
-  <si>
-    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
-  </si>
-  <si>
-    <t>反思</t>
-  </si>
-  <si>
-    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
-  </si>
-  <si>
-    <t>尽职尽责</t>
-  </si>
-  <si>
-    <t>尽自己最大的努力来完成自己的职责</t>
-  </si>
-  <si>
-    <t>不忘初心</t>
-  </si>
-  <si>
-    <t>不忘初心，方得始终！</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>定好目标做事才会更有方向、效率更高</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	现有诊断新增诊断输入码和历史诊断表功能测试-建床登记、建床诊断编辑添加建床诊断记录测试及数据查看，_x000D_
-_x000D_
-_x000D_
-	查看诊断记录及病案首页诊断记录数据不正确问题，_x000D_
-_x000D_
-_x000D_
-	病历书写撤床诊断保存数据测试，病历、医嘱内查询现有诊断根据code、首字母、名称查询数据。_x000D_
-_x000D_
-_x000D_
-	还有两个bug待修改_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病案首页诊断记录数据不正确问题、建床登记诊断保存无首字母问题验证，未解决完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认EMPI中，患者数据合并处理时，一些特殊情况的具体处理方式与细节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>熟悉了解患者数据处理的具体流程规则_x000D_
 熟悉患者数据拆分的规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与开发确认EMPI数据合并的具体细节</t>
+  </si>
+  <si>
+    <t>确认EMPI中，患者数据合并处理时，一些特殊情况的具体处理方式与细节</t>
+  </si>
+  <si>
+    <t>2020-06-09 18:13:29</t>
+  </si>
+  <si>
+    <t>编写患者打分，数据合并部分测试用例</t>
+  </si>
+  <si>
+    <t>患者打分，数据自动合并功能测试用例的编写</t>
+  </si>
+  <si>
+    <t>2020-06-09 18:16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bi-现场环境--药品分析-注射输液用药分析-页面指标进行功能测试/sql编写/修改/页面信息展示比对/问题反馈</t>
+  </si>
+  <si>
+    <t>_x000D_
+	药品分析_x000D_
+_x000D__x000D_
+	注射输液用药分析_x000D_
+_x000D_
+	1.功能测试-查询_x000D_
+_x000D_
+	2sql编写_x000D_
+_x000D__x000D_
+	3页面信息比对_x000D_
+_x000D__x000D_
+	4bug反馈-与开发确认统计指标sql_x000D_</t>
+  </si>
+  <si>
+    <t>2020-06-09 17:52:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bi-现场环境--手术分析--页面指标进行功能测试/sql编写/修改/页面信息展示比对/问题反馈</t>
+  </si>
+  <si>
+    <t>手术分析</t>
+  </si>
+  <si>
+    <t>2020-06-09 17:56:47</t>
+  </si>
+  <si>
+    <t>2020-06-09 17:57:45</t>
+  </si>
+  <si>
+    <t>upv-现场环境-继续配合项目经理对upv系统进行验收测试/现场问题定位</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -2850,51 +2367,680 @@
 _x000D__x000D_
 	2现场问题定位/记录_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-09 17:59:55</t>
   </si>
   <si>
     <t>良好，已完成现场测试。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_x000D_
-	药品分析_x000D_
-_x000D__x000D_
-	注射输液用药分析_x000D_
-_x000D_
-	1.功能测试-查询_x000D_
-_x000D_
-	2sql编写_x000D_
-_x000D__x000D_
-	3页面信息比对_x000D_
-_x000D__x000D_
-	4bug反馈-与开发确认统计指标sql_x000D_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者打分，数据自动合并功能测试用例的编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	1.下载自动化框架涉及到的jar包_x000D_
-_x000D_	2.修改自动化框架报的错误_x000D_
-_x000D_	3.质控规则数据sql编写，执行自动化框架_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良好，目前开发进度缓慢，优化中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
+  </si>
+  <si>
+    <t>检验检查医嘱作废、医技作废确认在各个状态下状态变化回归测试</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:11:11</t>
+  </si>
+  <si>
+    <t>家床2.0测试环境问题遗留bug查看与开发沟通</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:14:23</t>
+  </si>
+  <si>
+    <t>拉取家床配置文件代码查看了解相关配置</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:23:54</t>
+  </si>
+  <si>
+    <t>质控规则测试（1）</t>
+  </si>
+  <si>
+    <t>2020-06-10 17:49:49</t>
+  </si>
+  <si>
+    <t>质控规则测试（2）</t>
+  </si>
+  <si>
+    <t>2020-06-10 17:51:13</t>
+  </si>
+  <si>
+    <t>测试医嘱计费，计费时间问题</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:13:39</t>
+  </si>
+  <si>
+    <t>与开发确认患者匹配规则的功能业务</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:27:14</t>
+  </si>
+  <si>
+    <t>根据新的患者匹配规则调整测试用例</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:27:19</t>
+  </si>
+  <si>
+    <t>upv-现场环境-配合产品经理对upv系统进行验收测试</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:02:30</t>
+  </si>
+  <si>
+    <t>upv-现场环境-定位并记录验收过程问题</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:02:35</t>
+  </si>
+  <si>
+    <t>upv-公司环境-验证开发在项目经理对对upv系统进行验收过程中提出的问题调整修改</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:17:36</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>每日一核</t>
+  </si>
+  <si>
+    <t>2020.5.18</t>
+  </si>
+  <si>
+    <t>金浩</t>
+  </si>
+  <si>
+    <t>新思维</t>
+  </si>
+  <si>
+    <t>善用新思维、多角度去思考与发现</t>
+  </si>
+  <si>
+    <t>脚踏实地</t>
+  </si>
+  <si>
+    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
+  </si>
+  <si>
+    <t>团队精神</t>
+  </si>
+  <si>
+    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>有价值的事，才是值得你做的事</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>把握重点多做有用功</t>
+  </si>
+  <si>
+    <t>2020.5.19</t>
+  </si>
+  <si>
+    <t>创造意义</t>
+  </si>
+  <si>
+    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
+  </si>
+  <si>
+    <t>要事优先</t>
+  </si>
+  <si>
+    <t>工作时，要分清主次，优先处理重要的事情</t>
+  </si>
+  <si>
+    <t>匠人匠心</t>
+  </si>
+  <si>
+    <t>专注、执着、细心的做好每件事情。</t>
+  </si>
+  <si>
+    <t>积累</t>
+  </si>
+  <si>
+    <t>冰冻三尺，非一日之寒，积少成多</t>
+  </si>
+  <si>
+    <t>坚持</t>
+  </si>
+  <si>
+    <t>不畏艰难终会达到目标</t>
+  </si>
+  <si>
+    <t>2020.5.20</t>
+  </si>
+  <si>
+    <t>培养习惯</t>
+  </si>
+  <si>
+    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
+  </si>
+  <si>
+    <t>求知</t>
+  </si>
+  <si>
+    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
+  </si>
+  <si>
+    <t>专注如一</t>
+  </si>
+  <si>
+    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
+  </si>
+  <si>
+    <t>勤奋</t>
+  </si>
+  <si>
+    <t>业精于勤荒于嬉，勤能补拙</t>
+  </si>
+  <si>
+    <t>2020.5.21</t>
+  </si>
+  <si>
+    <t>珍惜机会</t>
+  </si>
+  <si>
+    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
+  </si>
+  <si>
+    <t>换位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
+  </si>
+  <si>
+    <t>行动</t>
+  </si>
+  <si>
+    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">善于总结 </t>
+  </si>
+  <si>
+    <t>工作中要善于总结，做事要条理清晰</t>
+  </si>
+  <si>
+    <t>细心</t>
+  </si>
+  <si>
+    <t>细节决定成败</t>
+  </si>
+  <si>
+    <t>2020.5.22</t>
+  </si>
+  <si>
+    <t>顿悟</t>
+  </si>
+  <si>
+    <t>意会之美大语言表</t>
+  </si>
+  <si>
+    <t>律己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
+  </si>
+  <si>
+    <t>守时</t>
+  </si>
+  <si>
+    <t>养成做任何事情都提前15分钟的习惯。</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>一花独放不是春，善于分享，共同进步</t>
+  </si>
+  <si>
+    <t>自省</t>
+  </si>
+  <si>
+    <t>从自身出发，总结和规划</t>
+  </si>
+  <si>
+    <t>2020.5.25</t>
+  </si>
+  <si>
+    <t>九分努力</t>
+  </si>
+  <si>
+    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
+  </si>
+  <si>
+    <t>责任感</t>
+  </si>
+  <si>
+    <t>工作要有强烈的责任感，认真做好每一件事</t>
+  </si>
+  <si>
+    <t>进步</t>
+  </si>
+  <si>
+    <t>每天进一步，踏上成功路。</t>
+  </si>
+  <si>
+    <t>感恩</t>
+  </si>
+  <si>
+    <t>怀感恩之心，做感恩之事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自律 </t>
+  </si>
+  <si>
+    <t>严于律己，宽以待人</t>
+  </si>
+  <si>
+    <t>2020.5.26</t>
+  </si>
+  <si>
+    <t>谋定而后动</t>
+  </si>
+  <si>
+    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
+Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
+  </si>
+  <si>
+    <t>团队合作</t>
+  </si>
+  <si>
+    <t>注重团队合作，团体的力量永远大于个人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创造价值  </t>
+  </si>
+  <si>
+    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>乐观向上，迎难而上</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
+  </si>
+  <si>
+    <t>2020.5.27</t>
+  </si>
+  <si>
+    <t>利牝马之贞</t>
+  </si>
+  <si>
+    <t>做事不盲目顺从。</t>
+  </si>
+  <si>
+    <t>积极乐观</t>
+  </si>
+  <si>
+    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
+  </si>
+  <si>
+    <t>真诚</t>
+  </si>
+  <si>
+    <t>真实诚恳，真心实意</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>及时有效的沟通，可以让自己少走弯路。</t>
+  </si>
+  <si>
+    <t>多方位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
+  </si>
+  <si>
+    <t>2020.5.28</t>
+  </si>
+  <si>
+    <t>作事谋始</t>
+  </si>
+  <si>
+    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
+  </si>
+  <si>
+    <t>学以致用</t>
+  </si>
+  <si>
+    <t>学到的东西要使用出来才能发挥出它的价值</t>
+  </si>
+  <si>
+    <t>多思维</t>
+  </si>
+  <si>
+    <t>多种思维去考虑问题，去解决问题。</t>
+  </si>
+  <si>
+    <t>衡量</t>
+  </si>
+  <si>
+    <t>衡量事物的利与弊，做出最有价值的选择</t>
+  </si>
+  <si>
+    <t>独立思考</t>
+  </si>
+  <si>
+    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
+  </si>
+  <si>
+    <t>2020.5.29</t>
+  </si>
+  <si>
+    <t>师忧比乐</t>
+  </si>
+  <si>
+    <t>便是早日把竞争的观念改变为互助的观念。</t>
+  </si>
+  <si>
+    <t>高效</t>
+  </si>
+  <si>
+    <t>提高工作效率才能节省人力时间成本</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>细节决定成败，心态决定人生</t>
+  </si>
+  <si>
+    <t>双赢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
+  </si>
+  <si>
+    <t>笃行</t>
+  </si>
+  <si>
+    <t>明确目标、踏踏实实、学以致用</t>
+  </si>
+  <si>
+    <t>2020.6.1</t>
+  </si>
+  <si>
+    <t>小畜</t>
+  </si>
+  <si>
+    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
+  </si>
+  <si>
+    <t>沉着冷静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遇事不惊，沉着应对  </t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
+  </si>
+  <si>
+    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
+  </si>
+  <si>
+    <t>2020.6.2</t>
+  </si>
+  <si>
+    <t>一以贯之</t>
+  </si>
+  <si>
+    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推陈出新  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
+  </si>
+  <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>每一分每一秒做最有生产力的事情.</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
+  </si>
+  <si>
+    <t>夯实基础</t>
+  </si>
+  <si>
+    <t>好的基础是更快发展的基石</t>
+  </si>
+  <si>
+    <t>2020.6.3</t>
+  </si>
+  <si>
+    <t>不失己任</t>
+  </si>
+  <si>
+    <t>自己的责任不能推卸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">守信 </t>
+  </si>
+  <si>
+    <t>遵守承诺，按时按量完成工作</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>品质是企业的基石，专业是发展的动力。</t>
+  </si>
+  <si>
+    <t>耕耘</t>
+  </si>
+  <si>
+    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
+  </si>
+  <si>
+    <t>责任</t>
+  </si>
+  <si>
+    <t>身体力行，完成分内事</t>
+  </si>
+  <si>
+    <t>2020.6.4</t>
+  </si>
+  <si>
+    <t>反求诸己</t>
+  </si>
+  <si>
+    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业精于勤  </t>
+  </si>
+  <si>
+    <t>勤奋是获得成功必不可缺的要素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆流而上  </t>
+  </si>
+  <si>
+    <t>不怕困难，解决困难。</t>
+  </si>
+  <si>
+    <t>务实</t>
+  </si>
+  <si>
+    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
+  </si>
+  <si>
+    <t>行动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知行合一，实践出真知</t>
+  </si>
+  <si>
+    <t>2020.6.5</t>
+  </si>
+  <si>
+    <t>居安思危</t>
+  </si>
+  <si>
+    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
+  </si>
+  <si>
+    <t>反思</t>
+  </si>
+  <si>
+    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
+  </si>
+  <si>
+    <t>尽职尽责</t>
+  </si>
+  <si>
+    <t>尽自己最大的努力来完成自己的职责</t>
+  </si>
+  <si>
+    <t>不忘初心</t>
+  </si>
+  <si>
+    <t>不忘初心，方得始终！</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>定好目标做事才会更有方向、效率更高</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 	1.质控规则bug提交给开发_x000D_
 _x000D_
 _x000D_	2.与开发描述bug问题，质控结果与需求不一致_x000D_
 _x000D__x000D_
 	3.验证开发修复发质控bug问题_x000D_
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验检查医嘱作废、医技作废在各个状态下状态变化回归测试-主要由于此次修改了医嘱作废的功能以前此处为敏感问题点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.质控规则v1.1封面表与基本信息表210条规则测试完成，提交bug问题，验证部分开发修复的bug_x000D_
+_x000D_
+_x000D_	2.给开发演示bug问题_x000D_
+_x000D__x000D_
+	3.沟通需求规则分歧事项_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	患者匹配规则页面调整了，去掉了部分字段，新加了3个字段_x000D_
+_x000D_
+_x000D_
+	熟悉调整后的功能，与数据库表字段，并调整测试用例_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找开发确认患者匹配规则功能（今天发现UI图做了调整，功能有变动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前护理医嘱与治疗医嘱，手动计费时，之前存的是常规时间现在改成存计费时的操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.质控规则门诊就诊记录表与住院记录表数据自造_x000D_
+_x000D__x000D_
+	2。提交bug问题_x000D_
+_x000D__x000D_
+	3,bug问题分析_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	配合刘经理对upv系统进行验收测试_x000D_
+_x000D_
+_x000D_
+	1.诊疗时间维度门诊和住院所有功能模块/数据_x000D_
+_x000D_
+_x000D_
+	2.诊疗资料维度-所有功能模块/数据_x000D_
+_x000D_
+_x000D_
+	3.时间轴-所有数据/功能测试_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1定位产品经理验收过程中发现异常-数据异常情况_x000D_
+_x000D_
+_x000D_
+	2记录需要调整的页面/字段取值_x000D_
+_x000D_
+_x000D_
+	3记录文档并反馈给开发和项目经理便于跟踪_x000D_
+_x000D_
+_x000D_
+	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	确认并测试以下问题：_x000D_
+_x000D_
+_x000D_
+	1门诊/住院-临床诊断-门诊/住院改成-门诊诊断/住院诊断    已验证通过_x000D_
+_x000D_
+_x000D_
+	2检验/检查报告-检验类别-由取编码改成取检验名称       已验证通过_x000D_
+_x000D_
+_x000D_
+	3样式问题：在台式机：windows 7 chrom版本为49上显示异常（同版本笔记本显示正常），由于设备原因此问题待现场验证_x000D_
+（目前已测并调整过的机型：台式机：windows10 chrom 版本 49 笔记本：windows10 chrom 版本 49 均能正常显示）_x000D_
+_x000D_
+_x000D_
+	4.检查报告-部位未显示（不显示是因为后台没返回数据，是数据源没有部位字段信息，自造数据显示正常） _x000D_
+_x000D_
+_x000D_
+	</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3445,11 +3591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E294" sqref="E294"/>
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D314" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.8"/>
@@ -9959,7 +10105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="207">
+    <row r="291" spans="1:8" ht="207" customHeight="1">
       <c r="A291" s="14" t="s">
         <v>8</v>
       </c>
@@ -9971,13 +10117,13 @@
         <v>540</v>
       </c>
       <c r="E291" s="26" t="s">
-        <v>730</v>
+        <v>541</v>
       </c>
       <c r="F291" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G291" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H291" s="14" t="s">
         <v>50</v>
@@ -9992,16 +10138,16 @@
       </c>
       <c r="C292" s="14"/>
       <c r="D292" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E292" s="14" t="s">
-        <v>731</v>
+        <v>544</v>
       </c>
       <c r="F292" s="14" t="s">
         <v>379</v>
       </c>
       <c r="G292" s="14" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H292" s="14" t="s">
         <v>50</v>
@@ -10016,22 +10162,22 @@
       </c>
       <c r="C293" s="14"/>
       <c r="D293" s="14" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E293" s="14" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F293" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G293" s="14" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H293" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="96.6">
+    <row r="294" spans="1:8" ht="96.6" customHeight="1">
       <c r="A294" s="14" t="s">
         <v>16</v>
       </c>
@@ -10040,22 +10186,22 @@
       </c>
       <c r="C294" s="14"/>
       <c r="D294" s="14" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E294" s="26" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="F294" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G294" s="14" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H294" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="69">
+    <row r="295" spans="1:8" ht="69" customHeight="1">
       <c r="A295" s="14" t="s">
         <v>16</v>
       </c>
@@ -10064,22 +10210,22 @@
       </c>
       <c r="C295" s="14"/>
       <c r="D295" s="14" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E295" s="26" t="s">
-        <v>739</v>
+        <v>552</v>
       </c>
       <c r="F295" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G295" s="14" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H295" s="14" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" ht="27.6">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="27.6" customHeight="1">
       <c r="A296" s="14" t="s">
         <v>32</v>
       </c>
@@ -10090,173 +10236,459 @@
         <v>363</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E296" s="26" t="s">
-        <v>734</v>
+        <v>556</v>
       </c>
       <c r="F296" s="14" t="s">
         <v>387</v>
       </c>
       <c r="G296" s="14" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H296" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="27.6">
-      <c r="A297" t="s">
+    <row r="297" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A297" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="D297" t="s">
-        <v>552</v>
+      <c r="D297" s="14" t="s">
+        <v>557</v>
       </c>
       <c r="E297" s="26" t="s">
-        <v>733</v>
-      </c>
-      <c r="F297" t="s">
+        <v>558</v>
+      </c>
+      <c r="F297" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="G297" t="s">
-        <v>553</v>
-      </c>
-      <c r="H297" t="s">
+      <c r="G297" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="H297" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" t="s">
+      <c r="A298" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="D298" t="s">
-        <v>554</v>
-      </c>
-      <c r="E298" t="s">
-        <v>738</v>
-      </c>
-      <c r="F298" t="s">
+      <c r="D298" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="E298" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="F298" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G298" t="s">
-        <v>555</v>
-      </c>
-      <c r="H298" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" ht="165.6">
-      <c r="A299" t="s">
+      <c r="G298" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="H298" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="165.6" customHeight="1">
+      <c r="A299" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D299" t="s">
-        <v>556</v>
+      <c r="D299" s="14" t="s">
+        <v>563</v>
       </c>
       <c r="E299" s="26" t="s">
-        <v>737</v>
-      </c>
-      <c r="F299" t="s">
+        <v>564</v>
+      </c>
+      <c r="F299" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G299" t="s">
-        <v>557</v>
-      </c>
-      <c r="H299" t="s">
+      <c r="G299" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="H299" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" t="s">
+      <c r="A300" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D300" t="s">
-        <v>558</v>
-      </c>
-      <c r="E300" t="s">
-        <v>732</v>
-      </c>
-      <c r="F300" t="s">
+      <c r="D300" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="E300" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="F300" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="G300" t="s">
-        <v>559</v>
-      </c>
-      <c r="H300" t="s">
+      <c r="G300" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="H300" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" t="s">
+      <c r="A301" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E301"/>
-      <c r="F301" t="s">
+      <c r="E301" s="14"/>
+      <c r="F301" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="G301" t="s">
-        <v>560</v>
-      </c>
-      <c r="H301" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="69">
-      <c r="A302" t="s">
+      <c r="G301" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="H301" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="69" customHeight="1">
+      <c r="A302" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D302" t="s">
-        <v>561</v>
+      <c r="D302" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="E302" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="F302" t="s">
+        <v>571</v>
+      </c>
+      <c r="F302" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G302" t="s">
-        <v>562</v>
-      </c>
-      <c r="H302" t="s">
-        <v>736</v>
+      <c r="G302" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="H302" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="41.4">
+      <c r="A303" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" t="s">
+        <v>377</v>
+      </c>
+      <c r="D303" t="s">
+        <v>574</v>
+      </c>
+      <c r="E303" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F303" t="s">
+        <v>406</v>
+      </c>
+      <c r="G303" t="s">
+        <v>575</v>
+      </c>
+      <c r="H303" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304" t="s">
+        <v>381</v>
+      </c>
+      <c r="C304" t="s">
+        <v>377</v>
+      </c>
+      <c r="D304" t="s">
+        <v>576</v>
+      </c>
+      <c r="E304" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="F304" t="s">
+        <v>379</v>
+      </c>
+      <c r="G304" t="s">
+        <v>577</v>
+      </c>
+      <c r="H304" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" t="s">
+        <v>38</v>
+      </c>
+      <c r="C305" t="s">
+        <v>61</v>
+      </c>
+      <c r="D305" t="s">
+        <v>578</v>
+      </c>
+      <c r="E305" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="F305" t="s">
+        <v>383</v>
+      </c>
+      <c r="G305" t="s">
+        <v>579</v>
+      </c>
+      <c r="H305" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="110.4">
+      <c r="A306" t="s">
+        <v>16</v>
+      </c>
+      <c r="B306" t="s">
+        <v>17</v>
+      </c>
+      <c r="C306" t="s">
+        <v>377</v>
+      </c>
+      <c r="D306" t="s">
+        <v>580</v>
+      </c>
+      <c r="E306" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="F306" t="s">
+        <v>383</v>
+      </c>
+      <c r="G306" t="s">
+        <v>581</v>
+      </c>
+      <c r="H306" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="96.6">
+      <c r="A307" t="s">
+        <v>16</v>
+      </c>
+      <c r="B307" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307" t="s">
+        <v>377</v>
+      </c>
+      <c r="D307" t="s">
+        <v>582</v>
+      </c>
+      <c r="E307" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="F307" t="s">
+        <v>383</v>
+      </c>
+      <c r="G307" t="s">
+        <v>583</v>
+      </c>
+      <c r="H307" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="27.6">
+      <c r="A308" t="s">
+        <v>32</v>
+      </c>
+      <c r="B308" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" t="s">
+        <v>377</v>
+      </c>
+      <c r="D308" t="s">
+        <v>584</v>
+      </c>
+      <c r="E308" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="F308" t="s">
+        <v>379</v>
+      </c>
+      <c r="G308" t="s">
+        <v>585</v>
+      </c>
+      <c r="H308" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" t="s">
+        <v>32</v>
+      </c>
+      <c r="B309" t="s">
+        <v>23</v>
+      </c>
+      <c r="C309" t="s">
+        <v>363</v>
+      </c>
+      <c r="D309" t="s">
+        <v>586</v>
+      </c>
+      <c r="E309" t="s">
+        <v>767</v>
+      </c>
+      <c r="F309" t="s">
+        <v>387</v>
+      </c>
+      <c r="G309" t="s">
+        <v>587</v>
+      </c>
+      <c r="H309" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="110.4">
+      <c r="A310" t="s">
+        <v>32</v>
+      </c>
+      <c r="B310" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" t="s">
+        <v>363</v>
+      </c>
+      <c r="D310" t="s">
+        <v>588</v>
+      </c>
+      <c r="E310" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="F310" t="s">
+        <v>520</v>
+      </c>
+      <c r="G310" t="s">
+        <v>589</v>
+      </c>
+      <c r="H310" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="165.6">
+      <c r="A311" t="s">
+        <v>22</v>
+      </c>
+      <c r="B311" t="s">
+        <v>23</v>
+      </c>
+      <c r="C311" t="s">
+        <v>27</v>
+      </c>
+      <c r="D311" t="s">
+        <v>590</v>
+      </c>
+      <c r="E311" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="F311" t="s">
+        <v>421</v>
+      </c>
+      <c r="G311" t="s">
+        <v>591</v>
+      </c>
+      <c r="H311" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="151.80000000000001">
+      <c r="A312" t="s">
+        <v>22</v>
+      </c>
+      <c r="B312" t="s">
+        <v>23</v>
+      </c>
+      <c r="C312" t="s">
+        <v>27</v>
+      </c>
+      <c r="D312" t="s">
+        <v>592</v>
+      </c>
+      <c r="E312" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="F312" t="s">
+        <v>387</v>
+      </c>
+      <c r="G312" t="s">
+        <v>593</v>
+      </c>
+      <c r="H312" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="358.8">
+      <c r="A313" t="s">
+        <v>22</v>
+      </c>
+      <c r="B313" t="s">
+        <v>23</v>
+      </c>
+      <c r="C313" t="s">
+        <v>27</v>
+      </c>
+      <c r="D313" t="s">
+        <v>594</v>
+      </c>
+      <c r="E313" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="F313" t="s">
+        <v>417</v>
+      </c>
+      <c r="G313" t="s">
+        <v>595</v>
+      </c>
+      <c r="H313" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -10285,1057 +10717,1057 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>593</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>615</v>
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>621</v>
+        <v>654</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>625</v>
+        <v>658</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>632</v>
+        <v>665</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>633</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>637</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>640</v>
+        <v>673</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>648</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>649</v>
+        <v>682</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.4" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>666</v>
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.4" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>668</v>
+        <v>701</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.4" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>669</v>
+        <v>702</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>670</v>
+        <v>703</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>672</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>674</v>
+        <v>707</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>676</v>
+        <v>709</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.4" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.4" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>681</v>
+        <v>714</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.4" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>683</v>
+        <v>716</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.4" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.4" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>688</v>
+        <v>721</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.4" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.4" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>693</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.4" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>698</v>
+        <v>731</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.4" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>700</v>
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.4" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.4" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.4" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.4" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.4" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.4" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="B70" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.4" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>719</v>
+        <v>752</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.4" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>722</v>
+        <v>755</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.4" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>724</v>
+        <v>757</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.4" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>726</v>
+        <v>759</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.4" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>728</v>
+        <v>761</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.4" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/zentao/禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/禅道每日审查_测试.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="800">
   <si>
     <t>姓名</t>
   </si>
@@ -2283,6 +2283,15 @@
     <t>规则bug提交，与开发描述bug问题，验证修复的bug问题</t>
   </si>
   <si>
+    <t xml:space="preserve">
+	1.质控规则bug提交给开发_x000D_
+_x000D_
+_x000D_	2.与开发描述bug问题，质控结果与需求不一致_x000D_
+_x000D__x000D_
+	3.验证开发修复发质控bug问题_x000D_
+</t>
+  </si>
+  <si>
     <t>2020-06-09 18:11:41</t>
   </si>
   <si>
@@ -2378,6 +2387,9 @@
     <t>检验检查医嘱作废、医技作废确认在各个状态下状态变化回归测试</t>
   </si>
   <si>
+    <t>检验检查医嘱作废、医技作废在各个状态下状态变化回归测试-主要由于此次修改了医嘱作废的功能以前此处为敏感问题点</t>
+  </si>
+  <si>
     <t>2020-06-10 18:11:11</t>
   </si>
   <si>
@@ -2394,567 +2406,6 @@
   </si>
   <si>
     <t>质控规则测试（1）</t>
-  </si>
-  <si>
-    <t>2020-06-10 17:49:49</t>
-  </si>
-  <si>
-    <t>质控规则测试（2）</t>
-  </si>
-  <si>
-    <t>2020-06-10 17:51:13</t>
-  </si>
-  <si>
-    <t>测试医嘱计费，计费时间问题</t>
-  </si>
-  <si>
-    <t>2020-06-10 18:13:39</t>
-  </si>
-  <si>
-    <t>与开发确认患者匹配规则的功能业务</t>
-  </si>
-  <si>
-    <t>2020-06-10 18:27:14</t>
-  </si>
-  <si>
-    <t>根据新的患者匹配规则调整测试用例</t>
-  </si>
-  <si>
-    <t>2020-06-10 18:27:19</t>
-  </si>
-  <si>
-    <t>upv-现场环境-配合产品经理对upv系统进行验收测试</t>
-  </si>
-  <si>
-    <t>2020-06-10 18:02:30</t>
-  </si>
-  <si>
-    <t>upv-现场环境-定位并记录验收过程问题</t>
-  </si>
-  <si>
-    <t>2020-06-10 18:02:35</t>
-  </si>
-  <si>
-    <t>upv-公司环境-验证开发在项目经理对对upv系统进行验收过程中提出的问题调整修改</t>
-  </si>
-  <si>
-    <t>2020-06-10 18:17:36</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>每日一核</t>
-  </si>
-  <si>
-    <t>2020.5.18</t>
-  </si>
-  <si>
-    <t>金浩</t>
-  </si>
-  <si>
-    <t>新思维</t>
-  </si>
-  <si>
-    <t>善用新思维、多角度去思考与发现</t>
-  </si>
-  <si>
-    <t>脚踏实地</t>
-  </si>
-  <si>
-    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
-  </si>
-  <si>
-    <t>团队精神</t>
-  </si>
-  <si>
-    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>有价值的事，才是值得你做的事</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>把握重点多做有用功</t>
-  </si>
-  <si>
-    <t>2020.5.19</t>
-  </si>
-  <si>
-    <t>创造意义</t>
-  </si>
-  <si>
-    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
-  </si>
-  <si>
-    <t>要事优先</t>
-  </si>
-  <si>
-    <t>工作时，要分清主次，优先处理重要的事情</t>
-  </si>
-  <si>
-    <t>匠人匠心</t>
-  </si>
-  <si>
-    <t>专注、执着、细心的做好每件事情。</t>
-  </si>
-  <si>
-    <t>积累</t>
-  </si>
-  <si>
-    <t>冰冻三尺，非一日之寒，积少成多</t>
-  </si>
-  <si>
-    <t>坚持</t>
-  </si>
-  <si>
-    <t>不畏艰难终会达到目标</t>
-  </si>
-  <si>
-    <t>2020.5.20</t>
-  </si>
-  <si>
-    <t>培养习惯</t>
-  </si>
-  <si>
-    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
-  </si>
-  <si>
-    <t>求知</t>
-  </si>
-  <si>
-    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
-  </si>
-  <si>
-    <t>专注如一</t>
-  </si>
-  <si>
-    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
-  </si>
-  <si>
-    <t>勤奋</t>
-  </si>
-  <si>
-    <t>业精于勤荒于嬉，勤能补拙</t>
-  </si>
-  <si>
-    <t>2020.5.21</t>
-  </si>
-  <si>
-    <t>珍惜机会</t>
-  </si>
-  <si>
-    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
-  </si>
-  <si>
-    <t>换位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
-  </si>
-  <si>
-    <t>行动</t>
-  </si>
-  <si>
-    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">善于总结 </t>
-  </si>
-  <si>
-    <t>工作中要善于总结，做事要条理清晰</t>
-  </si>
-  <si>
-    <t>细心</t>
-  </si>
-  <si>
-    <t>细节决定成败</t>
-  </si>
-  <si>
-    <t>2020.5.22</t>
-  </si>
-  <si>
-    <t>顿悟</t>
-  </si>
-  <si>
-    <t>意会之美大语言表</t>
-  </si>
-  <si>
-    <t>律己</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
-  </si>
-  <si>
-    <t>守时</t>
-  </si>
-  <si>
-    <t>养成做任何事情都提前15分钟的习惯。</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>一花独放不是春，善于分享，共同进步</t>
-  </si>
-  <si>
-    <t>自省</t>
-  </si>
-  <si>
-    <t>从自身出发，总结和规划</t>
-  </si>
-  <si>
-    <t>2020.5.25</t>
-  </si>
-  <si>
-    <t>九分努力</t>
-  </si>
-  <si>
-    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
-  </si>
-  <si>
-    <t>责任感</t>
-  </si>
-  <si>
-    <t>工作要有强烈的责任感，认真做好每一件事</t>
-  </si>
-  <si>
-    <t>进步</t>
-  </si>
-  <si>
-    <t>每天进一步，踏上成功路。</t>
-  </si>
-  <si>
-    <t>感恩</t>
-  </si>
-  <si>
-    <t>怀感恩之心，做感恩之事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自律 </t>
-  </si>
-  <si>
-    <t>严于律己，宽以待人</t>
-  </si>
-  <si>
-    <t>2020.5.26</t>
-  </si>
-  <si>
-    <t>谋定而后动</t>
-  </si>
-  <si>
-    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
-Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
-  </si>
-  <si>
-    <t>团队合作</t>
-  </si>
-  <si>
-    <t>注重团队合作，团体的力量永远大于个人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创造价值  </t>
-  </si>
-  <si>
-    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
-    <t>乐观向上，迎难而上</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
-  </si>
-  <si>
-    <t>2020.5.27</t>
-  </si>
-  <si>
-    <t>利牝马之贞</t>
-  </si>
-  <si>
-    <t>做事不盲目顺从。</t>
-  </si>
-  <si>
-    <t>积极乐观</t>
-  </si>
-  <si>
-    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
-  </si>
-  <si>
-    <t>真诚</t>
-  </si>
-  <si>
-    <t>真实诚恳，真心实意</t>
-  </si>
-  <si>
-    <t>沟通</t>
-  </si>
-  <si>
-    <t>及时有效的沟通，可以让自己少走弯路。</t>
-  </si>
-  <si>
-    <t>多方位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
-  </si>
-  <si>
-    <t>2020.5.28</t>
-  </si>
-  <si>
-    <t>作事谋始</t>
-  </si>
-  <si>
-    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
-  </si>
-  <si>
-    <t>学以致用</t>
-  </si>
-  <si>
-    <t>学到的东西要使用出来才能发挥出它的价值</t>
-  </si>
-  <si>
-    <t>多思维</t>
-  </si>
-  <si>
-    <t>多种思维去考虑问题，去解决问题。</t>
-  </si>
-  <si>
-    <t>衡量</t>
-  </si>
-  <si>
-    <t>衡量事物的利与弊，做出最有价值的选择</t>
-  </si>
-  <si>
-    <t>独立思考</t>
-  </si>
-  <si>
-    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
-  </si>
-  <si>
-    <t>2020.5.29</t>
-  </si>
-  <si>
-    <t>师忧比乐</t>
-  </si>
-  <si>
-    <t>便是早日把竞争的观念改变为互助的观念。</t>
-  </si>
-  <si>
-    <t>高效</t>
-  </si>
-  <si>
-    <t>提高工作效率才能节省人力时间成本</t>
-  </si>
-  <si>
-    <t>细节</t>
-  </si>
-  <si>
-    <t>细节决定成败，心态决定人生</t>
-  </si>
-  <si>
-    <t>双赢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
-  </si>
-  <si>
-    <t>笃行</t>
-  </si>
-  <si>
-    <t>明确目标、踏踏实实、学以致用</t>
-  </si>
-  <si>
-    <t>2020.6.1</t>
-  </si>
-  <si>
-    <t>小畜</t>
-  </si>
-  <si>
-    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
-  </si>
-  <si>
-    <t>沉着冷静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遇事不惊，沉着应对  </t>
-  </si>
-  <si>
-    <t>努力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
-  </si>
-  <si>
-    <t>服从</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
-  </si>
-  <si>
-    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
-  </si>
-  <si>
-    <t>2020.6.2</t>
-  </si>
-  <si>
-    <t>一以贯之</t>
-  </si>
-  <si>
-    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推陈出新  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
-  </si>
-  <si>
-    <t>时间管理</t>
-  </si>
-  <si>
-    <t>每一分每一秒做最有生产力的事情.</t>
-  </si>
-  <si>
-    <t>平衡</t>
-  </si>
-  <si>
-    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
-  </si>
-  <si>
-    <t>夯实基础</t>
-  </si>
-  <si>
-    <t>好的基础是更快发展的基石</t>
-  </si>
-  <si>
-    <t>2020.6.3</t>
-  </si>
-  <si>
-    <t>不失己任</t>
-  </si>
-  <si>
-    <t>自己的责任不能推卸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">守信 </t>
-  </si>
-  <si>
-    <t>遵守承诺，按时按量完成工作</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>品质是企业的基石，专业是发展的动力。</t>
-  </si>
-  <si>
-    <t>耕耘</t>
-  </si>
-  <si>
-    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
-  </si>
-  <si>
-    <t>责任</t>
-  </si>
-  <si>
-    <t>身体力行，完成分内事</t>
-  </si>
-  <si>
-    <t>2020.6.4</t>
-  </si>
-  <si>
-    <t>反求诸己</t>
-  </si>
-  <si>
-    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业精于勤  </t>
-  </si>
-  <si>
-    <t>勤奋是获得成功必不可缺的要素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆流而上  </t>
-  </si>
-  <si>
-    <t>不怕困难，解决困难。</t>
-  </si>
-  <si>
-    <t>务实</t>
-  </si>
-  <si>
-    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
-  </si>
-  <si>
-    <t>行动力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 知行合一，实践出真知</t>
-  </si>
-  <si>
-    <t>2020.6.5</t>
-  </si>
-  <si>
-    <t>居安思危</t>
-  </si>
-  <si>
-    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
-  </si>
-  <si>
-    <t>反思</t>
-  </si>
-  <si>
-    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
-  </si>
-  <si>
-    <t>尽职尽责</t>
-  </si>
-  <si>
-    <t>尽自己最大的努力来完成自己的职责</t>
-  </si>
-  <si>
-    <t>不忘初心</t>
-  </si>
-  <si>
-    <t>不忘初心，方得始终！</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>定好目标做事才会更有方向、效率更高</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	1.质控规则bug提交给开发_x000D_
-_x000D_
-_x000D_	2.与开发描述bug问题，质控结果与需求不一致_x000D_
-_x000D__x000D_
-	3.验证开发修复发质控bug问题_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验检查医嘱作废、医技作废在各个状态下状态变化回归测试-主要由于此次修改了医嘱作废的功能以前此处为敏感问题点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -2964,24 +2415,12 @@
 _x000D__x000D_
 	3.沟通需求规则分歧事项_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	患者匹配规则页面调整了，去掉了部分字段，新加了3个字段_x000D_
-_x000D_
-_x000D_
-	熟悉调整后的功能，与数据库表字段，并调整测试用例_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找开发确认患者匹配规则功能（今天发现UI图做了调整，功能有变动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前护理医嘱与治疗医嘱，手动计费时，之前存的是常规时间现在改成存计费时的操作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-10 17:49:49</t>
+  </si>
+  <si>
+    <t>质控规则测试（2）</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -2991,7 +2430,36 @@
 _x000D__x000D_
 	3,bug问题分析_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-10 17:51:13</t>
+  </si>
+  <si>
+    <t>测试医嘱计费，计费时间问题</t>
+  </si>
+  <si>
+    <t>之前护理医嘱与治疗医嘱，手动计费时，之前存的是常规时间现在改成存计费时的操作时间</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:13:39</t>
+  </si>
+  <si>
+    <t>与开发确认患者匹配规则的功能业务</t>
+  </si>
+  <si>
+    <t>找开发确认患者匹配规则功能（今天发现UI图做了调整，功能有变动）</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:27:14</t>
+  </si>
+  <si>
+    <t>根据新的患者匹配规则调整测试用例</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:27:19</t>
+  </si>
+  <si>
+    <t>upv-现场环境-配合产品经理对upv系统进行验收测试</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -3006,7 +2474,12 @@
 _x000D_
 	3.时间轴-所有数据/功能测试_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-10 18:02:30</t>
+  </si>
+  <si>
+    <t>upv-现场环境-定位并记录验收过程问题</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -3020,7 +2493,12 @@
 _x000D_
 _x000D_
 	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-10 18:02:35</t>
+  </si>
+  <si>
+    <t>upv-公司环境-验证开发在项目经理对对upv系统进行验收过程中提出的问题调整修改</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -3041,6 +2519,650 @@
 _x000D_
 _x000D_
 	</t>
+  </si>
+  <si>
+    <t>2020-06-10 18:17:36</t>
+  </si>
+  <si>
+    <t>住院费用清单费用类别统计报表和住院结账类别统计不一样问题测试，测试收费项目和药品项目是否根据项目代码+规格+单价+项目类别 一起统计费用信息</t>
+  </si>
+  <si>
+    <t>2020-06-11 18:03:25</t>
+  </si>
+  <si>
+    <t>自定义报表日报表新加入院、出院、死亡人数数据测试、及日报表门诊数据再次验证</t>
+  </si>
+  <si>
+    <t>2020-06-11 18:03:29</t>
+  </si>
+  <si>
+    <t>质控规则门诊诊断表测试</t>
+  </si>
+  <si>
+    <t>2020-06-11 17:57:52</t>
+  </si>
+  <si>
+    <t>质控规则住院诊断规则测试</t>
+  </si>
+  <si>
+    <t>2020-06-11 17:58:00</t>
+  </si>
+  <si>
+    <t>确认手动合并规则业务</t>
+  </si>
+  <si>
+    <t>2020-06-11 18:07:14</t>
+  </si>
+  <si>
+    <t>编写手动合并模块测试用例</t>
+  </si>
+  <si>
+    <t>2020-06-11 18:07:19</t>
+  </si>
+  <si>
+    <t>upv-远程支持项目经理对upv系统遗留问题验证</t>
+  </si>
+  <si>
+    <t>2020-06-11 18:09:08</t>
+  </si>
+  <si>
+    <t>熟悉-empi-需求文档-统一权限管理/主数据管理/术语管理</t>
+  </si>
+  <si>
+    <t>2020-06-11 18:12:34</t>
+  </si>
+  <si>
+    <t>熟悉empi-需求文档-患者主索引-患者匹配规则</t>
+  </si>
+  <si>
+    <t>2020-06-11 18:15:00</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>每日一核</t>
+  </si>
+  <si>
+    <t>2020.5.18</t>
+  </si>
+  <si>
+    <t>金浩</t>
+  </si>
+  <si>
+    <t>新思维</t>
+  </si>
+  <si>
+    <t>善用新思维、多角度去思考与发现</t>
+  </si>
+  <si>
+    <t>脚踏实地</t>
+  </si>
+  <si>
+    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
+  </si>
+  <si>
+    <t>团队精神</t>
+  </si>
+  <si>
+    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>有价值的事，才是值得你做的事</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>把握重点多做有用功</t>
+  </si>
+  <si>
+    <t>2020.5.19</t>
+  </si>
+  <si>
+    <t>创造意义</t>
+  </si>
+  <si>
+    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
+  </si>
+  <si>
+    <t>要事优先</t>
+  </si>
+  <si>
+    <t>工作时，要分清主次，优先处理重要的事情</t>
+  </si>
+  <si>
+    <t>匠人匠心</t>
+  </si>
+  <si>
+    <t>专注、执着、细心的做好每件事情。</t>
+  </si>
+  <si>
+    <t>积累</t>
+  </si>
+  <si>
+    <t>冰冻三尺，非一日之寒，积少成多</t>
+  </si>
+  <si>
+    <t>坚持</t>
+  </si>
+  <si>
+    <t>不畏艰难终会达到目标</t>
+  </si>
+  <si>
+    <t>2020.5.20</t>
+  </si>
+  <si>
+    <t>培养习惯</t>
+  </si>
+  <si>
+    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
+  </si>
+  <si>
+    <t>求知</t>
+  </si>
+  <si>
+    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
+  </si>
+  <si>
+    <t>专注如一</t>
+  </si>
+  <si>
+    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
+  </si>
+  <si>
+    <t>勤奋</t>
+  </si>
+  <si>
+    <t>业精于勤荒于嬉，勤能补拙</t>
+  </si>
+  <si>
+    <t>2020.5.21</t>
+  </si>
+  <si>
+    <t>珍惜机会</t>
+  </si>
+  <si>
+    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
+  </si>
+  <si>
+    <t>换位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
+  </si>
+  <si>
+    <t>行动</t>
+  </si>
+  <si>
+    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">善于总结 </t>
+  </si>
+  <si>
+    <t>工作中要善于总结，做事要条理清晰</t>
+  </si>
+  <si>
+    <t>细心</t>
+  </si>
+  <si>
+    <t>细节决定成败</t>
+  </si>
+  <si>
+    <t>2020.5.22</t>
+  </si>
+  <si>
+    <t>顿悟</t>
+  </si>
+  <si>
+    <t>意会之美大语言表</t>
+  </si>
+  <si>
+    <t>律己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
+  </si>
+  <si>
+    <t>守时</t>
+  </si>
+  <si>
+    <t>养成做任何事情都提前15分钟的习惯。</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>一花独放不是春，善于分享，共同进步</t>
+  </si>
+  <si>
+    <t>自省</t>
+  </si>
+  <si>
+    <t>从自身出发，总结和规划</t>
+  </si>
+  <si>
+    <t>2020.5.25</t>
+  </si>
+  <si>
+    <t>九分努力</t>
+  </si>
+  <si>
+    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
+  </si>
+  <si>
+    <t>责任感</t>
+  </si>
+  <si>
+    <t>工作要有强烈的责任感，认真做好每一件事</t>
+  </si>
+  <si>
+    <t>进步</t>
+  </si>
+  <si>
+    <t>每天进一步，踏上成功路。</t>
+  </si>
+  <si>
+    <t>感恩</t>
+  </si>
+  <si>
+    <t>怀感恩之心，做感恩之事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自律 </t>
+  </si>
+  <si>
+    <t>严于律己，宽以待人</t>
+  </si>
+  <si>
+    <t>2020.5.26</t>
+  </si>
+  <si>
+    <t>谋定而后动</t>
+  </si>
+  <si>
+    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
+Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
+  </si>
+  <si>
+    <t>团队合作</t>
+  </si>
+  <si>
+    <t>注重团队合作，团体的力量永远大于个人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创造价值  </t>
+  </si>
+  <si>
+    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>乐观向上，迎难而上</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
+  </si>
+  <si>
+    <t>2020.5.27</t>
+  </si>
+  <si>
+    <t>利牝马之贞</t>
+  </si>
+  <si>
+    <t>做事不盲目顺从。</t>
+  </si>
+  <si>
+    <t>积极乐观</t>
+  </si>
+  <si>
+    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
+  </si>
+  <si>
+    <t>真诚</t>
+  </si>
+  <si>
+    <t>真实诚恳，真心实意</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>及时有效的沟通，可以让自己少走弯路。</t>
+  </si>
+  <si>
+    <t>多方位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
+  </si>
+  <si>
+    <t>2020.5.28</t>
+  </si>
+  <si>
+    <t>作事谋始</t>
+  </si>
+  <si>
+    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
+  </si>
+  <si>
+    <t>学以致用</t>
+  </si>
+  <si>
+    <t>学到的东西要使用出来才能发挥出它的价值</t>
+  </si>
+  <si>
+    <t>多思维</t>
+  </si>
+  <si>
+    <t>多种思维去考虑问题，去解决问题。</t>
+  </si>
+  <si>
+    <t>衡量</t>
+  </si>
+  <si>
+    <t>衡量事物的利与弊，做出最有价值的选择</t>
+  </si>
+  <si>
+    <t>独立思考</t>
+  </si>
+  <si>
+    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
+  </si>
+  <si>
+    <t>2020.5.29</t>
+  </si>
+  <si>
+    <t>师忧比乐</t>
+  </si>
+  <si>
+    <t>便是早日把竞争的观念改变为互助的观念。</t>
+  </si>
+  <si>
+    <t>高效</t>
+  </si>
+  <si>
+    <t>提高工作效率才能节省人力时间成本</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>细节决定成败，心态决定人生</t>
+  </si>
+  <si>
+    <t>双赢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
+  </si>
+  <si>
+    <t>笃行</t>
+  </si>
+  <si>
+    <t>明确目标、踏踏实实、学以致用</t>
+  </si>
+  <si>
+    <t>2020.6.1</t>
+  </si>
+  <si>
+    <t>小畜</t>
+  </si>
+  <si>
+    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
+  </si>
+  <si>
+    <t>沉着冷静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遇事不惊，沉着应对  </t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
+  </si>
+  <si>
+    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
+  </si>
+  <si>
+    <t>2020.6.2</t>
+  </si>
+  <si>
+    <t>一以贯之</t>
+  </si>
+  <si>
+    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推陈出新  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
+  </si>
+  <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>每一分每一秒做最有生产力的事情.</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
+  </si>
+  <si>
+    <t>夯实基础</t>
+  </si>
+  <si>
+    <t>好的基础是更快发展的基石</t>
+  </si>
+  <si>
+    <t>2020.6.3</t>
+  </si>
+  <si>
+    <t>不失己任</t>
+  </si>
+  <si>
+    <t>自己的责任不能推卸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">守信 </t>
+  </si>
+  <si>
+    <t>遵守承诺，按时按量完成工作</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>品质是企业的基石，专业是发展的动力。</t>
+  </si>
+  <si>
+    <t>耕耘</t>
+  </si>
+  <si>
+    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
+  </si>
+  <si>
+    <t>责任</t>
+  </si>
+  <si>
+    <t>身体力行，完成分内事</t>
+  </si>
+  <si>
+    <t>2020.6.4</t>
+  </si>
+  <si>
+    <t>反求诸己</t>
+  </si>
+  <si>
+    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业精于勤  </t>
+  </si>
+  <si>
+    <t>勤奋是获得成功必不可缺的要素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆流而上  </t>
+  </si>
+  <si>
+    <t>不怕困难，解决困难。</t>
+  </si>
+  <si>
+    <t>务实</t>
+  </si>
+  <si>
+    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
+  </si>
+  <si>
+    <t>行动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知行合一，实践出真知</t>
+  </si>
+  <si>
+    <t>2020.6.5</t>
+  </si>
+  <si>
+    <t>居安思危</t>
+  </si>
+  <si>
+    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
+  </si>
+  <si>
+    <t>反思</t>
+  </si>
+  <si>
+    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
+  </si>
+  <si>
+    <t>尽职尽责</t>
+  </si>
+  <si>
+    <t>尽自己最大的努力来完成自己的职责</t>
+  </si>
+  <si>
+    <t>不忘初心</t>
+  </si>
+  <si>
+    <t>不忘初心，方得始终！</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>定好目标做事才会更有方向、效率更高</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	-住院费用清单费用类别统计报表和住院结账类别统计不一样问题测试-添加相同项目代码不同类别的项目费用测试费用清单是否根据项目类别分组统计。_x000D_
+_x000D_
+_x000D_
+	-测试收费项目和药品项目是否根据项目代码+规格+单价+项目类别 一起统计费用信息，收费项目目前没有按这么多条件分组之前这个条件只使用在药品上，现在建议其他收费项目也需要根据项目单价、类别、单位等进行分组_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1浏览器兼容问题-升级最新版本后显示正常_x000D_
+_x000D_
+_x000D_
+	2字段更改问题-现场导数据/拉取代码后-临床诊断-诊断类型修改_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写手动合并患者数据模块的测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与产品、开发确认手动合并数据的规则业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.住院诊断表相关规则测试_x000D_
+_x000D__x000D_
+	2.提交bug问题给开发_x000D_
+_x000D__x000D_
+	3.验证开发修复的bug_x000D_
+_x000D__x000D_
+	4.自造测试数据_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义报表日报表新加入院、出院、死亡人数数据测试、及日报表门诊数据再次验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.门诊诊断规则测试_x000D_
+_x000D_
+_x000D_
+	2.提交bug_x000D_
+_x000D_
+_x000D_
+	3.验证开发修复bug_x000D_
+_x000D_
+_x000D_
+	4，自造测试数据_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1用户角色管理_x000D_
+_x000D_
+	2机构管理_x000D_
+_x000D_
+	3术语管理_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1匹配规则配置_x000D_
+_x000D_
+	2初始化索引_x000D_
+_x000D_
+	3患者注册_x000D_
+_x000D_
+	4主索引信息查询_x000D_
+	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	患者匹配规则页面调整了，去掉了部分字段，新加了3个字段_x000D_，
+	熟悉调整后的功能，与数据库表字段，并调整测试用例_x000D_
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3591,11 +3713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D314" sqref="D314"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E306" sqref="E306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.8"/>
@@ -10189,13 +10311,13 @@
         <v>549</v>
       </c>
       <c r="E294" s="26" t="s">
-        <v>763</v>
+        <v>550</v>
       </c>
       <c r="F294" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G294" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H294" s="14" t="s">
         <v>50</v>
@@ -10210,19 +10332,19 @@
       </c>
       <c r="C295" s="14"/>
       <c r="D295" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E295" s="26" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F295" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G295" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H295" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="27.6" customHeight="1">
@@ -10236,16 +10358,16 @@
         <v>363</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E296" s="26" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F296" s="14" t="s">
         <v>387</v>
       </c>
       <c r="G296" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H296" s="14" t="s">
         <v>50</v>
@@ -10262,16 +10384,16 @@
         <v>363</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E297" s="26" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F297" s="14" t="s">
         <v>387</v>
       </c>
       <c r="G297" s="14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H297" s="14" t="s">
         <v>50</v>
@@ -10288,16 +10410,16 @@
         <v>363</v>
       </c>
       <c r="D298" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E298" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F298" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G298" s="14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H298" s="14" t="s">
         <v>50</v>
@@ -10314,16 +10436,16 @@
         <v>24</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E299" s="26" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F299" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G299" s="14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H299" s="14" t="s">
         <v>50</v>
@@ -10340,16 +10462,16 @@
         <v>24</v>
       </c>
       <c r="D300" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E300" s="14" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F300" s="14" t="s">
         <v>417</v>
       </c>
       <c r="G300" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H300" s="14" t="s">
         <v>50</v>
@@ -10373,7 +10495,7 @@
         <v>400</v>
       </c>
       <c r="G301" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H301" s="14" t="s">
         <v>50</v>
@@ -10390,304 +10512,530 @@
         <v>27</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E302" s="26" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F302" s="14" t="s">
         <v>379</v>
       </c>
       <c r="G302" s="14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H302" s="14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" ht="41.4">
-      <c r="A303" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="41.4" customHeight="1">
+      <c r="A303" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D303" t="s">
-        <v>574</v>
+      <c r="D303" s="14" t="s">
+        <v>575</v>
       </c>
       <c r="E303" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="F303" t="s">
+        <v>576</v>
+      </c>
+      <c r="F303" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G303" t="s">
-        <v>575</v>
-      </c>
-      <c r="H303" t="s">
+      <c r="G303" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="H303" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" t="s">
+      <c r="A304" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D304" t="s">
-        <v>576</v>
+      <c r="D304" s="14" t="s">
+        <v>578</v>
       </c>
       <c r="E304" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="F304" t="s">
+        <v>578</v>
+      </c>
+      <c r="F304" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G304" t="s">
-        <v>577</v>
-      </c>
-      <c r="H304" t="s">
+      <c r="G304" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="H304" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="305" spans="1:8">
-      <c r="A305" t="s">
+      <c r="A305" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D305" t="s">
-        <v>578</v>
+      <c r="D305" s="14" t="s">
+        <v>580</v>
       </c>
       <c r="E305" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="F305" t="s">
+        <v>580</v>
+      </c>
+      <c r="F305" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G305" t="s">
-        <v>579</v>
-      </c>
-      <c r="H305" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" ht="110.4">
-      <c r="A306" t="s">
+      <c r="G305" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="H305" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="110.4" customHeight="1">
+      <c r="A306" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D306" t="s">
-        <v>580</v>
+      <c r="D306" s="14" t="s">
+        <v>582</v>
       </c>
       <c r="E306" s="26" t="s">
-        <v>765</v>
-      </c>
-      <c r="F306" t="s">
+        <v>583</v>
+      </c>
+      <c r="F306" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G306" t="s">
-        <v>581</v>
-      </c>
-      <c r="H306" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="96.6">
-      <c r="A307" t="s">
+      <c r="G306" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="H306" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="96.6" customHeight="1">
+      <c r="A307" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D307" t="s">
-        <v>582</v>
+      <c r="D307" s="14" t="s">
+        <v>585</v>
       </c>
       <c r="E307" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="F307" t="s">
+        <v>586</v>
+      </c>
+      <c r="F307" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G307" t="s">
-        <v>583</v>
-      </c>
-      <c r="H307" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="27.6">
-      <c r="A308" t="s">
+      <c r="G307" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="H307" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A308" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D308" t="s">
-        <v>584</v>
+      <c r="D308" s="14" t="s">
+        <v>588</v>
       </c>
       <c r="E308" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="F308" t="s">
+        <v>589</v>
+      </c>
+      <c r="F308" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G308" t="s">
-        <v>585</v>
-      </c>
-      <c r="H308" t="s">
+      <c r="G308" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="H308" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309" t="s">
+      <c r="A309" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="D309" t="s">
-        <v>586</v>
-      </c>
-      <c r="E309" t="s">
-        <v>767</v>
-      </c>
-      <c r="F309" t="s">
+      <c r="D309" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="E309" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="F309" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="G309" t="s">
-        <v>587</v>
-      </c>
-      <c r="H309" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" ht="110.4">
-      <c r="A310" t="s">
+      <c r="G309" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="H309" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="110.4" customHeight="1">
+      <c r="A310" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="D310" t="s">
-        <v>588</v>
+      <c r="D310" s="14" t="s">
+        <v>594</v>
       </c>
       <c r="E310" s="26" t="s">
-        <v>766</v>
-      </c>
-      <c r="F310" t="s">
+        <v>799</v>
+      </c>
+      <c r="F310" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="G310" t="s">
-        <v>589</v>
-      </c>
-      <c r="H310" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" ht="165.6">
-      <c r="A311" t="s">
+      <c r="G310" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="H310" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="165.6" customHeight="1">
+      <c r="A311" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D311" t="s">
-        <v>590</v>
+      <c r="D311" s="14" t="s">
+        <v>596</v>
       </c>
       <c r="E311" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="F311" t="s">
+        <v>597</v>
+      </c>
+      <c r="F311" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="G311" t="s">
-        <v>591</v>
-      </c>
-      <c r="H311" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" ht="151.80000000000001">
-      <c r="A312" t="s">
+      <c r="G311" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="H311" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="151.80000000000001" customHeight="1">
+      <c r="A312" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D312" t="s">
-        <v>592</v>
+      <c r="D312" s="14" t="s">
+        <v>599</v>
       </c>
       <c r="E312" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="F312" t="s">
+        <v>600</v>
+      </c>
+      <c r="F312" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="G312" t="s">
-        <v>593</v>
-      </c>
-      <c r="H312" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" ht="358.8">
-      <c r="A313" t="s">
+      <c r="G312" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="H312" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="358.8" customHeight="1">
+      <c r="A313" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D313" t="s">
-        <v>594</v>
+      <c r="D313" s="14" t="s">
+        <v>602</v>
       </c>
       <c r="E313" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="F313" t="s">
+        <v>603</v>
+      </c>
+      <c r="F313" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="G313" t="s">
-        <v>595</v>
-      </c>
-      <c r="H313" t="s">
+      <c r="G313" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="H313" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="165.6">
+      <c r="A314" t="s">
+        <v>8</v>
+      </c>
+      <c r="B314" t="s">
+        <v>9</v>
+      </c>
+      <c r="C314"/>
+      <c r="D314" t="s">
+        <v>605</v>
+      </c>
+      <c r="E314" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="F314" t="s">
+        <v>383</v>
+      </c>
+      <c r="G314" t="s">
+        <v>606</v>
+      </c>
+      <c r="H314" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="27.6">
+      <c r="A315" t="s">
+        <v>8</v>
+      </c>
+      <c r="B315" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315"/>
+      <c r="D315" t="s">
+        <v>607</v>
+      </c>
+      <c r="E315" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="F315" t="s">
+        <v>383</v>
+      </c>
+      <c r="G315" t="s">
+        <v>608</v>
+      </c>
+      <c r="H315" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="165.6">
+      <c r="A316" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316" t="s">
+        <v>17</v>
+      </c>
+      <c r="C316"/>
+      <c r="D316" t="s">
+        <v>609</v>
+      </c>
+      <c r="E316" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="F316" t="s">
+        <v>383</v>
+      </c>
+      <c r="G316" t="s">
+        <v>610</v>
+      </c>
+      <c r="H316" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="124.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>17</v>
+      </c>
+      <c r="C317"/>
+      <c r="D317" t="s">
+        <v>611</v>
+      </c>
+      <c r="E317" s="26" t="s">
+        <v>794</v>
+      </c>
+      <c r="F317" t="s">
+        <v>383</v>
+      </c>
+      <c r="G317" t="s">
+        <v>612</v>
+      </c>
+      <c r="H317" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" t="s">
+        <v>32</v>
+      </c>
+      <c r="B318" t="s">
+        <v>23</v>
+      </c>
+      <c r="C318" t="s">
+        <v>363</v>
+      </c>
+      <c r="D318" t="s">
+        <v>613</v>
+      </c>
+      <c r="E318" t="s">
+        <v>793</v>
+      </c>
+      <c r="F318" t="s">
+        <v>406</v>
+      </c>
+      <c r="G318" t="s">
+        <v>614</v>
+      </c>
+      <c r="H318" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" t="s">
+        <v>32</v>
+      </c>
+      <c r="B319" t="s">
+        <v>23</v>
+      </c>
+      <c r="C319" t="s">
+        <v>363</v>
+      </c>
+      <c r="D319" t="s">
+        <v>615</v>
+      </c>
+      <c r="E319" t="s">
+        <v>792</v>
+      </c>
+      <c r="F319" t="s">
+        <v>520</v>
+      </c>
+      <c r="G319" t="s">
+        <v>616</v>
+      </c>
+      <c r="H319" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="96.6">
+      <c r="A320" t="s">
+        <v>22</v>
+      </c>
+      <c r="B320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320" t="s">
+        <v>27</v>
+      </c>
+      <c r="D320" t="s">
+        <v>617</v>
+      </c>
+      <c r="E320" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="F320" t="s">
+        <v>379</v>
+      </c>
+      <c r="G320" t="s">
+        <v>618</v>
+      </c>
+      <c r="H320" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="96.6">
+      <c r="A321" t="s">
+        <v>22</v>
+      </c>
+      <c r="B321" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321" t="s">
+        <v>363</v>
+      </c>
+      <c r="D321" t="s">
+        <v>619</v>
+      </c>
+      <c r="E321" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="F321" t="s">
+        <v>383</v>
+      </c>
+      <c r="G321" t="s">
+        <v>620</v>
+      </c>
+      <c r="H321" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="124.2">
+      <c r="A322" t="s">
+        <v>22</v>
+      </c>
+      <c r="B322" t="s">
+        <v>23</v>
+      </c>
+      <c r="C322" t="s">
+        <v>363</v>
+      </c>
+      <c r="D322" t="s">
+        <v>621</v>
+      </c>
+      <c r="E322" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="F322" t="s">
+        <v>406</v>
+      </c>
+      <c r="G322" t="s">
+        <v>622</v>
+      </c>
+      <c r="H322" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10717,1057 +11065,1057 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>663</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>692</v>
+        <v>719</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.4" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.4" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.4" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.4" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.4" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.4" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.4" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.4" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>721</v>
+        <v>748</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.4" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.4" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>726</v>
+        <v>753</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.4" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>730</v>
+        <v>757</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.4" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.4" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.4" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.4" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.4" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.4" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.4" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="B70" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.4" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.4" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.4" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.4" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>758</v>
+        <v>785</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.4" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.4" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/zentao/禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/禅道每日审查_测试.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="1004">
   <si>
     <t>姓名</t>
   </si>
@@ -2780,6 +2780,9 @@
     <t>查看淞南建床登记问题，测试建床诊断和上报诊断代码相同情况问题，在建床诊断编辑时也测试代码相同情况</t>
   </si>
   <si>
+    <t>查看淞南建床登记问题，测试建床诊断和上报诊断代码相同情况问题，在建床诊断编辑时也测试代码相同情况。目前根据代码重复这个情况需要修改建床登记时建床诊断与上报诊断互相去重的问题导致建床诊断空保存不了建床信息，其次需要自改编辑建床诊断查询不显示重复代码的建床诊断问题，还有常用诊断的设置页需要修改逻辑</t>
+  </si>
+  <si>
     <t>2020-06-15 18:15:57</t>
   </si>
   <si>
@@ -2796,588 +2799,6 @@
   </si>
   <si>
     <t>v2.0.9需求测试/提交bug</t>
-  </si>
-  <si>
-    <t>2020-06-15 19:09:13</t>
-  </si>
-  <si>
-    <t>质控规则自动化sql设计</t>
-  </si>
-  <si>
-    <t>2020-06-15 19:10:10</t>
-  </si>
-  <si>
-    <t>自定义报表-排查门诊药品收支明细报表中，药品支出费用不对的问题</t>
-  </si>
-  <si>
-    <t>2020-06-15 18:19:44</t>
-  </si>
-  <si>
-    <t>自定义报表-验证开发修复的bug</t>
-  </si>
-  <si>
-    <t>2020-06-15 18:19:51</t>
-  </si>
-  <si>
-    <t>完善EMPI测试用例</t>
-  </si>
-  <si>
-    <t>完成所有模块测试用例，并根据与开发确认的需求调整用例</t>
-  </si>
-  <si>
-    <t>2020-06-15 18:23:02</t>
-  </si>
-  <si>
-    <t>pimv1.2.2版本功能测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	1护理病历新增“文化程度”字段-增删改_x000D_
-_x000D_
-_x000D_
-	2三测单-增加死亡打印时间-死亡患者/打印预览_x000D_
-_x000D_
-_x000D_
-	3护理评估单-压疮/跌倒/导管/护理分级高评估_x000D_
-_x000D_
-_x000D_
-	4医嘱计费-医嘱发送-更改时间-校验后台接口返回feetieme时间：为实际计费时间_x000D_
-</t>
-  </si>
-  <si>
-    <t>2020-06-15 17:59:53</t>
-  </si>
-  <si>
-    <t>EMPI-编写患者主索引/权重/信息查询/合并测试检查点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	编写设计EMPI:_x000D_
-_x000D_
-_x000D_
-	1默认权重边界值_x000D_
-_x000D_
-_x000D_
-	2匹配规则组合测试数据_x000D_
-_x000D_
-_x000D_
-	3患者注册-三种匹配规则检查点_x000D_
-_x000D_
-_x000D_
-	4患者主索引查询检查点_x000D_
-_x000D_
-_x000D_
-	5患者主索引合并测试检查点_x000D_
-</t>
-  </si>
-  <si>
-    <t>2020-06-15 18:21:46</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>每日一核</t>
-  </si>
-  <si>
-    <t>2020.5.18</t>
-  </si>
-  <si>
-    <t>金浩</t>
-  </si>
-  <si>
-    <t>新思维</t>
-  </si>
-  <si>
-    <t>善用新思维、多角度去思考与发现</t>
-  </si>
-  <si>
-    <t>脚踏实地</t>
-  </si>
-  <si>
-    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
-  </si>
-  <si>
-    <t>团队精神</t>
-  </si>
-  <si>
-    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>有价值的事，才是值得你做的事</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>把握重点多做有用功</t>
-  </si>
-  <si>
-    <t>2020.5.19</t>
-  </si>
-  <si>
-    <t>创造意义</t>
-  </si>
-  <si>
-    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
-  </si>
-  <si>
-    <t>要事优先</t>
-  </si>
-  <si>
-    <t>工作时，要分清主次，优先处理重要的事情</t>
-  </si>
-  <si>
-    <t>匠人匠心</t>
-  </si>
-  <si>
-    <t>专注、执着、细心的做好每件事情。</t>
-  </si>
-  <si>
-    <t>积累</t>
-  </si>
-  <si>
-    <t>冰冻三尺，非一日之寒，积少成多</t>
-  </si>
-  <si>
-    <t>坚持</t>
-  </si>
-  <si>
-    <t>不畏艰难终会达到目标</t>
-  </si>
-  <si>
-    <t>2020.5.20</t>
-  </si>
-  <si>
-    <t>培养习惯</t>
-  </si>
-  <si>
-    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
-  </si>
-  <si>
-    <t>求知</t>
-  </si>
-  <si>
-    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
-  </si>
-  <si>
-    <t>专注如一</t>
-  </si>
-  <si>
-    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
-  </si>
-  <si>
-    <t>勤奋</t>
-  </si>
-  <si>
-    <t>业精于勤荒于嬉，勤能补拙</t>
-  </si>
-  <si>
-    <t>2020.5.21</t>
-  </si>
-  <si>
-    <t>珍惜机会</t>
-  </si>
-  <si>
-    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
-  </si>
-  <si>
-    <t>换位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
-  </si>
-  <si>
-    <t>行动</t>
-  </si>
-  <si>
-    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">善于总结 </t>
-  </si>
-  <si>
-    <t>工作中要善于总结，做事要条理清晰</t>
-  </si>
-  <si>
-    <t>细心</t>
-  </si>
-  <si>
-    <t>细节决定成败</t>
-  </si>
-  <si>
-    <t>2020.5.22</t>
-  </si>
-  <si>
-    <t>顿悟</t>
-  </si>
-  <si>
-    <t>意会之美大语言表</t>
-  </si>
-  <si>
-    <t>律己</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
-  </si>
-  <si>
-    <t>守时</t>
-  </si>
-  <si>
-    <t>养成做任何事情都提前15分钟的习惯。</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>一花独放不是春，善于分享，共同进步</t>
-  </si>
-  <si>
-    <t>自省</t>
-  </si>
-  <si>
-    <t>从自身出发，总结和规划</t>
-  </si>
-  <si>
-    <t>2020.5.25</t>
-  </si>
-  <si>
-    <t>九分努力</t>
-  </si>
-  <si>
-    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
-  </si>
-  <si>
-    <t>责任感</t>
-  </si>
-  <si>
-    <t>工作要有强烈的责任感，认真做好每一件事</t>
-  </si>
-  <si>
-    <t>进步</t>
-  </si>
-  <si>
-    <t>每天进一步，踏上成功路。</t>
-  </si>
-  <si>
-    <t>感恩</t>
-  </si>
-  <si>
-    <t>怀感恩之心，做感恩之事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自律 </t>
-  </si>
-  <si>
-    <t>严于律己，宽以待人</t>
-  </si>
-  <si>
-    <t>2020.5.26</t>
-  </si>
-  <si>
-    <t>谋定而后动</t>
-  </si>
-  <si>
-    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
-Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
-  </si>
-  <si>
-    <t>团队合作</t>
-  </si>
-  <si>
-    <t>注重团队合作，团体的力量永远大于个人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创造价值  </t>
-  </si>
-  <si>
-    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
-    <t>乐观向上，迎难而上</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
-  </si>
-  <si>
-    <t>2020.5.27</t>
-  </si>
-  <si>
-    <t>利牝马之贞</t>
-  </si>
-  <si>
-    <t>做事不盲目顺从。</t>
-  </si>
-  <si>
-    <t>积极乐观</t>
-  </si>
-  <si>
-    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
-  </si>
-  <si>
-    <t>真诚</t>
-  </si>
-  <si>
-    <t>真实诚恳，真心实意</t>
-  </si>
-  <si>
-    <t>沟通</t>
-  </si>
-  <si>
-    <t>及时有效的沟通，可以让自己少走弯路。</t>
-  </si>
-  <si>
-    <t>多方位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
-  </si>
-  <si>
-    <t>2020.5.28</t>
-  </si>
-  <si>
-    <t>作事谋始</t>
-  </si>
-  <si>
-    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
-  </si>
-  <si>
-    <t>学以致用</t>
-  </si>
-  <si>
-    <t>学到的东西要使用出来才能发挥出它的价值</t>
-  </si>
-  <si>
-    <t>多思维</t>
-  </si>
-  <si>
-    <t>多种思维去考虑问题，去解决问题。</t>
-  </si>
-  <si>
-    <t>衡量</t>
-  </si>
-  <si>
-    <t>衡量事物的利与弊，做出最有价值的选择</t>
-  </si>
-  <si>
-    <t>独立思考</t>
-  </si>
-  <si>
-    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
-  </si>
-  <si>
-    <t>2020.5.29</t>
-  </si>
-  <si>
-    <t>师忧比乐</t>
-  </si>
-  <si>
-    <t>便是早日把竞争的观念改变为互助的观念。</t>
-  </si>
-  <si>
-    <t>高效</t>
-  </si>
-  <si>
-    <t>提高工作效率才能节省人力时间成本</t>
-  </si>
-  <si>
-    <t>细节</t>
-  </si>
-  <si>
-    <t>细节决定成败，心态决定人生</t>
-  </si>
-  <si>
-    <t>双赢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
-  </si>
-  <si>
-    <t>笃行</t>
-  </si>
-  <si>
-    <t>明确目标、踏踏实实、学以致用</t>
-  </si>
-  <si>
-    <t>2020.6.1</t>
-  </si>
-  <si>
-    <t>小畜</t>
-  </si>
-  <si>
-    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
-  </si>
-  <si>
-    <t>沉着冷静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遇事不惊，沉着应对  </t>
-  </si>
-  <si>
-    <t>努力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
-  </si>
-  <si>
-    <t>服从</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
-  </si>
-  <si>
-    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
-  </si>
-  <si>
-    <t>2020.6.2</t>
-  </si>
-  <si>
-    <t>一以贯之</t>
-  </si>
-  <si>
-    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推陈出新  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
-  </si>
-  <si>
-    <t>时间管理</t>
-  </si>
-  <si>
-    <t>每一分每一秒做最有生产力的事情.</t>
-  </si>
-  <si>
-    <t>平衡</t>
-  </si>
-  <si>
-    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
-  </si>
-  <si>
-    <t>夯实基础</t>
-  </si>
-  <si>
-    <t>好的基础是更快发展的基石</t>
-  </si>
-  <si>
-    <t>2020.6.3</t>
-  </si>
-  <si>
-    <t>不失己任</t>
-  </si>
-  <si>
-    <t>自己的责任不能推卸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">守信 </t>
-  </si>
-  <si>
-    <t>遵守承诺，按时按量完成工作</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>品质是企业的基石，专业是发展的动力。</t>
-  </si>
-  <si>
-    <t>耕耘</t>
-  </si>
-  <si>
-    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
-  </si>
-  <si>
-    <t>责任</t>
-  </si>
-  <si>
-    <t>身体力行，完成分内事</t>
-  </si>
-  <si>
-    <t>2020.6.4</t>
-  </si>
-  <si>
-    <t>反求诸己</t>
-  </si>
-  <si>
-    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业精于勤  </t>
-  </si>
-  <si>
-    <t>勤奋是获得成功必不可缺的要素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆流而上  </t>
-  </si>
-  <si>
-    <t>不怕困难，解决困难。</t>
-  </si>
-  <si>
-    <t>务实</t>
-  </si>
-  <si>
-    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
-  </si>
-  <si>
-    <t>行动力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 知行合一，实践出真知</t>
-  </si>
-  <si>
-    <t>2020.6.5</t>
-  </si>
-  <si>
-    <t>居安思危</t>
-  </si>
-  <si>
-    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
-  </si>
-  <si>
-    <t>反思</t>
-  </si>
-  <si>
-    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
-  </si>
-  <si>
-    <t>尽职尽责</t>
-  </si>
-  <si>
-    <t>尽自己最大的努力来完成自己的职责</t>
-  </si>
-  <si>
-    <t>不忘初心</t>
-  </si>
-  <si>
-    <t>不忘初心，方得始终！</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>定好目标做事才会更有方向、效率更高</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t>查看淞南建床登记问题，测试建床诊断和上报诊断代码相同情况问题，在建床诊断编辑时也测试代码相同情况。目前根据代码重复这个情况需要修改建床登记时建床诊断与上报诊断互相去重的问题导致建床诊断空保存不了建床信息，其次需要自改编辑建床诊断查询不显示重复代码的建床诊断问题，还有常用诊断的设置页需要修改逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -3385,7 +2806,18 @@
 _x000D_
 	2.数据核对。功能测试、提交bug/验证开发修复的bug问题_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-15 19:09:13</t>
+  </si>
+  <si>
+    <t>质控规则自动化sql设计</t>
+  </si>
+  <si>
+    <t>2020-06-15 19:10:10</t>
+  </si>
+  <si>
+    <t>自定义报表-排查门诊药品收支明细报表中，药品支出费用不对的问题</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -3396,7 +2828,12 @@
 _x000D_
 	收支明细报表中，处方退药重新结算后，药品的支出金额计算，多算了舍入的金额_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-15 18:19:44</t>
+  </si>
+  <si>
+    <t>自定义报表-验证开发修复的bug</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -3404,6 +2841,1157 @@
 	验证问题：退号后，挂号次数没有去掉的问题_x000D_
 _x000D_
 	</t>
+  </si>
+  <si>
+    <t>2020-06-15 18:19:51</t>
+  </si>
+  <si>
+    <t>完善EMPI测试用例</t>
+  </si>
+  <si>
+    <t>完成所有模块测试用例，并根据与开发确认的需求调整用例</t>
+  </si>
+  <si>
+    <t>2020-06-15 18:23:02</t>
+  </si>
+  <si>
+    <t>pimv1.2.2版本功能测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1护理病历新增“文化程度”字段-增删改_x000D_
+_x000D_
+_x000D_
+	2三测单-增加死亡打印时间-死亡患者/打印预览_x000D_
+_x000D_
+_x000D_
+	3护理评估单-压疮/跌倒/导管/护理分级高评估_x000D_
+_x000D_
+_x000D_
+	4医嘱计费-医嘱发送-更改时间-校验后台接口返回feetieme时间：为实际计费时间_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-15 17:59:53</t>
+  </si>
+  <si>
+    <t>EMPI-编写患者主索引/权重/信息查询/合并测试检查点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	编写设计EMPI:_x000D_
+_x000D_
+_x000D_
+	1默认权重边界值_x000D_
+_x000D_
+_x000D_
+	2匹配规则组合测试数据_x000D_
+_x000D_
+_x000D_
+	3患者注册-三种匹配规则检查点_x000D_
+_x000D_
+_x000D_
+	4患者主索引查询检查点_x000D_
+_x000D_
+_x000D_
+	5患者主索引合并测试检查点_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-15 18:21:46</t>
+  </si>
+  <si>
+    <t>查看1.2.2更新功能测试情况，查看更新病历模板数据并使用测试，回归添加挂号收费发票数据验证缴款流程，查看pim新需求功能迭代内容</t>
+  </si>
+  <si>
+    <t>2020-06-16 18:04:16</t>
+  </si>
+  <si>
+    <t>java项目配置spring工具等</t>
+  </si>
+  <si>
+    <t>2020-06-16 18:10:04</t>
+  </si>
+  <si>
+    <t>良好，家床中遇到配置问题，先模式学习</t>
+  </si>
+  <si>
+    <t>出院小结，病案首页等表结构熟悉，规则测试准备</t>
+  </si>
+  <si>
+    <t>1.出院小结，病案首页表结构熟悉，字段对应的规则进行数据自造，测试数据准备，提测前工作准备</t>
+  </si>
+  <si>
+    <t>2020-06-16 17:52:29</t>
+  </si>
+  <si>
+    <t>自动化规则sql设计，修改自动化测试逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.之前设计的自动化测试规则的逻辑与金主管进行商讨_x000D_
+_x000D__x000D_	2.自动化sql语句编写与修改_x000D_
+_x000D_	</t>
+  </si>
+  <si>
+    <t>2020-06-16 17:54:26</t>
+  </si>
+  <si>
+    <t>良好，测试内容覆盖经可能要多，手工与自动化基准要围绕实际用户使用情况进行编写。</t>
+  </si>
+  <si>
+    <t>v2.0.9马陆社区首页与质控分析模块测试/提交bug问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.对马陆社区医院pc端首页进行测试、提交bug问题_x000D_
+_x000D_	2.质控分析模块测试提交bug_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-16 17:55:46</t>
+  </si>
+  <si>
+    <t>评审EMPI测试用例</t>
+  </si>
+  <si>
+    <t>对EMPI测试用例进行评审</t>
+  </si>
+  <si>
+    <t>2020-06-16 18:00:53</t>
+  </si>
+  <si>
+    <t>调整EMPI测试用例</t>
+  </si>
+  <si>
+    <t>根据评审时确认的需求，调整测试用例</t>
+  </si>
+  <si>
+    <t>2020-06-16 18:04:12</t>
+  </si>
+  <si>
+    <t>确认PIM1.2.2更新内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	核对PIM1.2.2更新的内容_x000D_
+_x000D_	测试会诊记录模板、主治医师第一次查房诊断模板_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-16 18:07:12</t>
+  </si>
+  <si>
+    <t>测试门诊收费退药流程</t>
+  </si>
+  <si>
+    <t>测试不同药品类型从收费到退药流程，检查门诊药品收支明细报表中，支出费用具体是哪一步金额计算不对</t>
+  </si>
+  <si>
+    <t>2020-06-16 18:14:09</t>
+  </si>
+  <si>
+    <t>pim-v1.2.2-护理医嘱-计费-优化后功能测试/医嘱整体流程测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1医嘱发送/确认_x000D_
+_x000D_
+	2医嘱计费-查看接口请求responsetime耗时_x000D_
+_x000D__x000D_
+	3医嘱流程回归-发送-确认-计费-停止_x000D_
+_x000D__x000D_
+	4数据库验证各个状态的时间戳_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-16 17:40:08</t>
+  </si>
+  <si>
+    <t>EMPI-用例评审会</t>
+  </si>
+  <si>
+    <t>2020-06-16 18:03:57</t>
+  </si>
+  <si>
+    <t>EMPI-查看疑似患者数据处理流程图并梳理患者疑似关系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1可能的规则运算结果_x000D_
+_x000D_
+	2处理原则_x000D_
+_x000D__x000D_
+	3可疑者的处理方式_x000D_
+_x000D__x000D_
+	4可疑关系拓展_x000D_
+_x000D__x000D_
+	5可疑关系合并时的处理_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMPI-查看患者合并关系图梳理合并关系数据流转</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1正常患者信息合并_x000D_
+_x000D_	2可疑患者合并_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-16 18:16:14</t>
+  </si>
+  <si>
+    <t>查看现场住院结算问题，并验证查找结账问题</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:13:11</t>
+  </si>
+  <si>
+    <t>测试2.0人员回复登录次数报错问题、服务中心查询无数据问题，和几个页面样式显示问题</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:19:29</t>
+  </si>
+  <si>
+    <t>验证2.0修改mybitas版本升级造成的问题后各页面验证</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:19:33</t>
+  </si>
+  <si>
+    <t>测试查找2.0建床评估查询无家床记录问题</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:19:40</t>
+  </si>
+  <si>
+    <t>验证开发2.0.9马陆首页bug问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.与开发描述bug问题_x000D_
+_x000D_
+	2.回归验证开发修复的bug等_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:13:03</t>
+  </si>
+  <si>
+    <t>协助开发进行质控规则压力测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.进行数据拉取，分别质控1000条，2000条等等_x000D_
+_x000D_
+	2.计算出质控时间_x000D_
+_x000D_
+_x000D_	3.设定线程条数等工作_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:13:10</t>
+  </si>
+  <si>
+    <t>验证医嘱续打时，无法加载数据问题</t>
+  </si>
+  <si>
+    <t>医嘱打印时，续打界面无法加载出数据问题</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:12:12</t>
+  </si>
+  <si>
+    <t>核对批量配发药后，费用与库存数据是否正常</t>
+  </si>
+  <si>
+    <t>测试大批量数据同时配发药后，金额与库存数据是否正常</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:12:48</t>
+  </si>
+  <si>
+    <t>测试病案首页打印时，相同诊断合并问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	之前相同的诊断，打印的时候，都会打印出来，现在相同的诊断会合并_x000D_
+_x000D_
+_x000D_
+	验证问题：诊断名称过长时显示不全问题_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:12:52</t>
+  </si>
+  <si>
+    <t>学习SQL存储过程</t>
+  </si>
+  <si>
+    <t>学习sql存储过程的语法</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:14:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMPI-编写准备患者匹配业务测试数据</t>
+  </si>
+  <si>
+    <t>_x000D_
+	业务数据逻辑准备：_x000D_
+_x000D_
+	1患者与EMPI身份证相同时_x000D_
+_x000D_
+	2患者与EMPI身份证不同时_x000D_
+_x000D_
+	3为空判断_x000D_
+_x000D_
+_x000D_4其他字段匹配规则_x000D_
+_x000D__x000D_
+	5最高评分与最近创建时间的处理原则数据组合_x000D_</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:09:42</t>
+  </si>
+  <si>
+    <t>EMPI-查看empi的表结构/查看已完成测试用例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	结合测试用例查看并熟悉_x000D_
+_x000D__x000D_
+	1empi匹配规则表_x000D_
+_x000D__x000D_
+	2EMPI患者主数据表_x000D_
+_x000D__x000D_
+	3患者-EMPI主数据关系表_x000D_
+_x000D_
+	4关联关系历史表  关系/表结构字段值_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-17 18:15:51</t>
+  </si>
+  <si>
+    <t>1.2.2白茅岭现场162测试环境更新功能部分验证</t>
+  </si>
+  <si>
+    <t>1.2.2白茅岭现场162测试环境更新功能部分验证，还有结账找退问题待验证</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:39:42</t>
+  </si>
+  <si>
+    <t>确认新需求内容开发进展，特别是王永还在确认的一个需求是否要做。</t>
+  </si>
+  <si>
+    <t>批量添加医技医嘱项目数据，并测试医技确认操作两千多数据是否会报错问题</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:39:48</t>
+  </si>
+  <si>
+    <t>验证住院结账费用过多问题</t>
+  </si>
+  <si>
+    <t>验证住院结账费用过多问题，结账找退、补账结算、不使用预交金结算等效率</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:39:56</t>
+  </si>
+  <si>
+    <t>出院小结规则测试（1）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1。出院小结规则测试，自造数据，提交bug/验证修复bug_x000D_
+	2.与开发描述bug问题_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-18 17:55:07</t>
+  </si>
+  <si>
+    <t>出院小结规则测试（2）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.出院小结规则测试，自造数据，提交bug/验证修复bug_x000D_
+_x000D_
+	2.与开发描述bug问题_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-18 17:55:42</t>
+  </si>
+  <si>
+    <t>家庭病床产品研发项目</t>
+  </si>
+  <si>
+    <t>确认家床移动端服务，给产品安装移动端app</t>
+  </si>
+  <si>
+    <t>确认公司家床移动端服务是否正常，并安装演示患者的移动端</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:11:20</t>
+  </si>
+  <si>
+    <t>协助产品完成</t>
+  </si>
+  <si>
+    <t>排查现场住院模板问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	现场出院小结模板，打印表头信息错乱_x000D_
+	新增出院小结时，里面有测试内容_x000D_
+排查原因：医生把正式环境当成演示环境，在上面误操作，修改了模板_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:20:32</t>
+  </si>
+  <si>
+    <t>测试现场演示环境更新是否正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	远程现场的演示环境，确认更新的功能是否正常_x000D_
+_x000D_
+	目前剩余问题：有2个新的全院配置没有加进去，需要执行sql加进去_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:20:38</t>
+  </si>
+  <si>
+    <t>测试特殊频次pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	测试频次pod（2天一次），排药是否正常_x000D_
+_x000D_
+	目前测试第一天数据正常，需要第二天继续查看是否会生成记录_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:20:43</t>
+  </si>
+  <si>
+    <t>EMPI-患者合并业务测试数据组合分类/准备</t>
+  </si>
+  <si>
+    <t>_x000D_
+	合并规则数据组合分类/准备_x000D_
+_x000D_
+	1根据匹配规则&amp;gt;80分能正常合并_x000D_
+_x000D_
+	2字段合并-empi索引直接合并/其他字段相同能正常自动合并_x000D_
+_x000D_
+	3多个权重&amp;gt;80分时，符合匹配规则进行合并（创建时间先后顺序）_x000D_
+_x000D_
+	4合并后与原疑似患者的关系数据组合_x000D_
+_x000D_
+	5边界值数据组合_x000D_</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:12:25</t>
+  </si>
+  <si>
+    <t>下周开发提测后，重点检查合并规则</t>
+  </si>
+  <si>
+    <t>pim-v1.2.2-远程验证护理病历模板/三测单死亡时间打印/评估单显示/打印预览</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1护理病历模板_x000D_
+_x000D_	2三测单死亡时间显示_x000D_
+_x000D_	3四种评估单显示/打印预览效果_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:18:25</t>
+  </si>
+  <si>
+    <t>继续熟悉empi的表结构/已完成测试用例</t>
+  </si>
+  <si>
+    <t>_x000D_
+	查看测试用例并熟悉_x000D_
+_x000D_
+	1HIS患者数据表_x000D_
+	2患者卡号列表_x000D_
+	3EMPI患者卡号列表-字段/关系_x000D_</t>
+  </si>
+  <si>
+    <t>2020-06-18 18:22:53</t>
+  </si>
+  <si>
+    <t>下周开发提测后，重点检查对应关系</t>
+  </si>
+  <si>
+    <t>门诊缴款批量数据添加及缴款测试及问题记录、住院缴款批量预交金数据添加及缴款测试及问题记录</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:04:54</t>
+  </si>
+  <si>
+    <t>跟踪1.2.2版本更新情况、协助现场问题解答</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:07:05</t>
+  </si>
+  <si>
+    <t>内部开立saas系统会议、了解saas平台、下周计划填写</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:12:39</t>
+  </si>
+  <si>
+    <t>验证2.0后台管理系统、随访管理等页面样式bug，反馈病案首页按钮和样式问题，验证建床诊断保存等bug</t>
+  </si>
+  <si>
+    <t>验证2.0后台管理系统、随访管理等页面样式bug，反馈病案首页按钮和样式问题，验证建床诊断保存等bug还未解决</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:15:10</t>
+  </si>
+  <si>
+    <t>质控规则病案出院小结回归验证开发修复的bug</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:01:43</t>
+  </si>
+  <si>
+    <t>质控规则病案首页规则测试，bug验证</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:03:40</t>
+  </si>
+  <si>
+    <t>测试小组工作计划内部会议</t>
+  </si>
+  <si>
+    <t>2020-06-19 17:48:30</t>
+  </si>
+  <si>
+    <t>排查家床移动端演示环境功能是否正常</t>
+  </si>
+  <si>
+    <t>2020-06-19 17:57:26</t>
+  </si>
+  <si>
+    <t>学习使用jmeter进行性能测试</t>
+  </si>
+  <si>
+    <t>学习如何使用jmeter进行性能测试</t>
+  </si>
+  <si>
+    <t>2020-06-19 17:59:36</t>
+  </si>
+  <si>
+    <t>验证现场更新问题</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:02:55</t>
+  </si>
+  <si>
+    <t>学习并总结接口测试的要点</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:08:09</t>
+  </si>
+  <si>
+    <t>测试内部会议/编写下周工作计划</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:10:01</t>
+  </si>
+  <si>
+    <t>学习requests库进行接口测试/总结常见前后端问题定位方法/fidler断点意义及方法</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:16:06</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>每日一核</t>
+  </si>
+  <si>
+    <t>2020.5.18</t>
+  </si>
+  <si>
+    <t>金浩</t>
+  </si>
+  <si>
+    <t>新思维</t>
+  </si>
+  <si>
+    <t>善用新思维、多角度去思考与发现</t>
+  </si>
+  <si>
+    <t>脚踏实地</t>
+  </si>
+  <si>
+    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
+  </si>
+  <si>
+    <t>团队精神</t>
+  </si>
+  <si>
+    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>有价值的事，才是值得你做的事</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>把握重点多做有用功</t>
+  </si>
+  <si>
+    <t>2020.5.19</t>
+  </si>
+  <si>
+    <t>创造意义</t>
+  </si>
+  <si>
+    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
+  </si>
+  <si>
+    <t>要事优先</t>
+  </si>
+  <si>
+    <t>工作时，要分清主次，优先处理重要的事情</t>
+  </si>
+  <si>
+    <t>匠人匠心</t>
+  </si>
+  <si>
+    <t>专注、执着、细心的做好每件事情。</t>
+  </si>
+  <si>
+    <t>积累</t>
+  </si>
+  <si>
+    <t>冰冻三尺，非一日之寒，积少成多</t>
+  </si>
+  <si>
+    <t>坚持</t>
+  </si>
+  <si>
+    <t>不畏艰难终会达到目标</t>
+  </si>
+  <si>
+    <t>2020.5.20</t>
+  </si>
+  <si>
+    <t>培养习惯</t>
+  </si>
+  <si>
+    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
+  </si>
+  <si>
+    <t>求知</t>
+  </si>
+  <si>
+    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
+  </si>
+  <si>
+    <t>专注如一</t>
+  </si>
+  <si>
+    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
+  </si>
+  <si>
+    <t>勤奋</t>
+  </si>
+  <si>
+    <t>业精于勤荒于嬉，勤能补拙</t>
+  </si>
+  <si>
+    <t>2020.5.21</t>
+  </si>
+  <si>
+    <t>珍惜机会</t>
+  </si>
+  <si>
+    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
+  </si>
+  <si>
+    <t>换位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
+  </si>
+  <si>
+    <t>行动</t>
+  </si>
+  <si>
+    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">善于总结 </t>
+  </si>
+  <si>
+    <t>工作中要善于总结，做事要条理清晰</t>
+  </si>
+  <si>
+    <t>细心</t>
+  </si>
+  <si>
+    <t>细节决定成败</t>
+  </si>
+  <si>
+    <t>2020.5.22</t>
+  </si>
+  <si>
+    <t>顿悟</t>
+  </si>
+  <si>
+    <t>意会之美大语言表</t>
+  </si>
+  <si>
+    <t>律己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
+  </si>
+  <si>
+    <t>守时</t>
+  </si>
+  <si>
+    <t>养成做任何事情都提前15分钟的习惯。</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>一花独放不是春，善于分享，共同进步</t>
+  </si>
+  <si>
+    <t>自省</t>
+  </si>
+  <si>
+    <t>从自身出发，总结和规划</t>
+  </si>
+  <si>
+    <t>2020.5.25</t>
+  </si>
+  <si>
+    <t>九分努力</t>
+  </si>
+  <si>
+    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
+  </si>
+  <si>
+    <t>责任感</t>
+  </si>
+  <si>
+    <t>工作要有强烈的责任感，认真做好每一件事</t>
+  </si>
+  <si>
+    <t>进步</t>
+  </si>
+  <si>
+    <t>每天进一步，踏上成功路。</t>
+  </si>
+  <si>
+    <t>感恩</t>
+  </si>
+  <si>
+    <t>怀感恩之心，做感恩之事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自律 </t>
+  </si>
+  <si>
+    <t>严于律己，宽以待人</t>
+  </si>
+  <si>
+    <t>2020.5.26</t>
+  </si>
+  <si>
+    <t>谋定而后动</t>
+  </si>
+  <si>
+    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
+Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
+  </si>
+  <si>
+    <t>团队合作</t>
+  </si>
+  <si>
+    <t>注重团队合作，团体的力量永远大于个人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创造价值  </t>
+  </si>
+  <si>
+    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>乐观向上，迎难而上</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
+  </si>
+  <si>
+    <t>2020.5.27</t>
+  </si>
+  <si>
+    <t>利牝马之贞</t>
+  </si>
+  <si>
+    <t>做事不盲目顺从。</t>
+  </si>
+  <si>
+    <t>积极乐观</t>
+  </si>
+  <si>
+    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
+  </si>
+  <si>
+    <t>真诚</t>
+  </si>
+  <si>
+    <t>真实诚恳，真心实意</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>及时有效的沟通，可以让自己少走弯路。</t>
+  </si>
+  <si>
+    <t>多方位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
+  </si>
+  <si>
+    <t>2020.5.28</t>
+  </si>
+  <si>
+    <t>作事谋始</t>
+  </si>
+  <si>
+    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
+  </si>
+  <si>
+    <t>学以致用</t>
+  </si>
+  <si>
+    <t>学到的东西要使用出来才能发挥出它的价值</t>
+  </si>
+  <si>
+    <t>多思维</t>
+  </si>
+  <si>
+    <t>多种思维去考虑问题，去解决问题。</t>
+  </si>
+  <si>
+    <t>衡量</t>
+  </si>
+  <si>
+    <t>衡量事物的利与弊，做出最有价值的选择</t>
+  </si>
+  <si>
+    <t>独立思考</t>
+  </si>
+  <si>
+    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
+  </si>
+  <si>
+    <t>2020.5.29</t>
+  </si>
+  <si>
+    <t>师忧比乐</t>
+  </si>
+  <si>
+    <t>便是早日把竞争的观念改变为互助的观念。</t>
+  </si>
+  <si>
+    <t>高效</t>
+  </si>
+  <si>
+    <t>提高工作效率才能节省人力时间成本</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>细节决定成败，心态决定人生</t>
+  </si>
+  <si>
+    <t>双赢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
+  </si>
+  <si>
+    <t>笃行</t>
+  </si>
+  <si>
+    <t>明确目标、踏踏实实、学以致用</t>
+  </si>
+  <si>
+    <t>2020.6.1</t>
+  </si>
+  <si>
+    <t>小畜</t>
+  </si>
+  <si>
+    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
+  </si>
+  <si>
+    <t>沉着冷静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遇事不惊，沉着应对  </t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
+  </si>
+  <si>
+    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
+  </si>
+  <si>
+    <t>2020.6.2</t>
+  </si>
+  <si>
+    <t>一以贯之</t>
+  </si>
+  <si>
+    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推陈出新  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
+  </si>
+  <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>每一分每一秒做最有生产力的事情.</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
+  </si>
+  <si>
+    <t>夯实基础</t>
+  </si>
+  <si>
+    <t>好的基础是更快发展的基石</t>
+  </si>
+  <si>
+    <t>2020.6.3</t>
+  </si>
+  <si>
+    <t>不失己任</t>
+  </si>
+  <si>
+    <t>自己的责任不能推卸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">守信 </t>
+  </si>
+  <si>
+    <t>遵守承诺，按时按量完成工作</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>品质是企业的基石，专业是发展的动力。</t>
+  </si>
+  <si>
+    <t>耕耘</t>
+  </si>
+  <si>
+    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
+  </si>
+  <si>
+    <t>责任</t>
+  </si>
+  <si>
+    <t>身体力行，完成分内事</t>
+  </si>
+  <si>
+    <t>2020.6.4</t>
+  </si>
+  <si>
+    <t>反求诸己</t>
+  </si>
+  <si>
+    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业精于勤  </t>
+  </si>
+  <si>
+    <t>勤奋是获得成功必不可缺的要素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆流而上  </t>
+  </si>
+  <si>
+    <t>不怕困难，解决困难。</t>
+  </si>
+  <si>
+    <t>务实</t>
+  </si>
+  <si>
+    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
+  </si>
+  <si>
+    <t>行动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知行合一，实践出真知</t>
+  </si>
+  <si>
+    <t>2020.6.5</t>
+  </si>
+  <si>
+    <t>居安思危</t>
+  </si>
+  <si>
+    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
+  </si>
+  <si>
+    <t>反思</t>
+  </si>
+  <si>
+    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
+  </si>
+  <si>
+    <t>尽职尽责</t>
+  </si>
+  <si>
+    <t>尽自己最大的努力来完成自己的职责</t>
+  </si>
+  <si>
+    <t>不忘初心</t>
+  </si>
+  <si>
+    <t>不忘初心，方得始终！</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>定好目标做事才会更有方向、效率更高</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>门诊缴款批量数据添加及缴款测试及问题记录、住院缴款批量预交金数据添加及缴款测试及问题记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_x000D_
+	1.出院小结表数据自造进行测试_x000D_
+_x000D_
+	2.提交bug问题_x000D_
+_x000D_
+	3.与开发描述bug问题_x000D_
+_x000D_
+	4.回归验证开发修复的bug_x000D_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.病案首页数据自造，进行测试_x000D_
+_x000D_
+	2，提交bug，验证开发修复的bug问题_x000D_
+_x000D__x000D_
+	3，与开发描述bug问题等_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1学习运用requests库进行接口测试_x000D_
+_x000D_
+	2学习抓包工具fiddler的断点意义及方法_x000D_
+_x000D_
+_x000D_	3学习并总结常见的前后端问题定位方法_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1内部会议-介绍了SASS-心电平台系统及PIM的系统的规划_x000D_
+_x000D_
+	2编写下周工作计划_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好，学以致用，在项目中找到最好的实践方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论制定工作任务与工作计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置演示患者医生端和患者端，并排查视屏功能与生理测量等功能是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.长期医嘱停止时，成组的医嘱，默认时间会存为当天的0点，（实际前端应该不传数据，后端存服务器实时时间）_x000D_
+_x000D__x000D_
+	2.长期医嘱补打停止时间时，打印内容有临时医嘱信息_x000D_
+_x000D__x000D_
+	3.排查频次pod，排药数据生成问题_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_x000D_
+	1接口测试必要性_x000D_
+_x000D__x000D_	2通过性验证_x000D_
+_x000D__x000D_	3参数组合的方法_x000D_
+_x000D__x000D_	4安全性校验_x000D_
+_x000D__x000D_	5异常类型校验_x000D_
+_x000D__x000D_	6输入/输出边界值分析_x000D_
+_x000D__x000D_	7接口的性能测试关注指标_x000D_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3954,11 +4542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H346"/>
+  <dimension ref="A1:H394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F336" sqref="F336"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E386" sqref="E386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.8"/>
@@ -11574,7 +12162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="96.6">
+    <row r="335" spans="1:8" ht="96.6" customHeight="1">
       <c r="A335" s="14" t="s">
         <v>8</v>
       </c>
@@ -11586,19 +12174,19 @@
         <v>663</v>
       </c>
       <c r="E335" s="26" t="s">
-        <v>853</v>
+        <v>664</v>
       </c>
       <c r="F335" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G335" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H335" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="27.6">
+    <row r="336" spans="1:8" ht="27.6" customHeight="1">
       <c r="A336" s="14" t="s">
         <v>8</v>
       </c>
@@ -11607,22 +12195,22 @@
       </c>
       <c r="C336" s="14"/>
       <c r="D336" s="14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E336" s="26" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F336" s="14" t="s">
         <v>387</v>
       </c>
       <c r="G336" s="14" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H336" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="27.6">
+    <row r="337" spans="1:8" ht="27.6" customHeight="1">
       <c r="A337" s="14" t="s">
         <v>8</v>
       </c>
@@ -11631,22 +12219,22 @@
       </c>
       <c r="C337" s="14"/>
       <c r="D337" s="14" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E337" s="26" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F337" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G337" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H337" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="82.8">
+    <row r="338" spans="1:8" ht="82.8" customHeight="1">
       <c r="A338" s="14" t="s">
         <v>16</v>
       </c>
@@ -11655,16 +12243,16 @@
       </c>
       <c r="C338" s="14"/>
       <c r="D338" s="14" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E338" s="26" t="s">
-        <v>854</v>
+        <v>671</v>
       </c>
       <c r="F338" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G338" s="14" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H338" s="14" t="s">
         <v>50</v>
@@ -11679,20 +12267,20 @@
       </c>
       <c r="C339" s="14"/>
       <c r="D339" s="14" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E339" s="14"/>
       <c r="F339" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G339" s="14" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H339" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="165.6">
+    <row r="340" spans="1:8" ht="165.6" customHeight="1">
       <c r="A340" s="14" t="s">
         <v>32</v>
       </c>
@@ -11701,22 +12289,22 @@
       </c>
       <c r="C340" s="14"/>
       <c r="D340" s="14" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E340" s="26" t="s">
-        <v>855</v>
+        <v>676</v>
       </c>
       <c r="F340" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G340" s="14" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H340" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="82.8">
+    <row r="341" spans="1:8" ht="82.8" customHeight="1">
       <c r="A341" s="14" t="s">
         <v>32</v>
       </c>
@@ -11725,22 +12313,22 @@
       </c>
       <c r="C341" s="14"/>
       <c r="D341" s="14" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E341" s="26" t="s">
-        <v>856</v>
+        <v>679</v>
       </c>
       <c r="F341" s="14" t="s">
         <v>387</v>
       </c>
       <c r="G341" s="14" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="H341" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="27.6">
+    <row r="342" spans="1:8" ht="27.6" customHeight="1">
       <c r="A342" s="14" t="s">
         <v>32</v>
       </c>
@@ -11749,16 +12337,16 @@
       </c>
       <c r="C342" s="14"/>
       <c r="D342" s="14" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="E342" s="26" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F342" s="14" t="s">
         <v>406</v>
       </c>
       <c r="G342" s="14" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H342" s="14" t="s">
         <v>50</v>
@@ -11775,22 +12363,22 @@
         <v>30</v>
       </c>
       <c r="D343" s="14" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="E343" s="14" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F343" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G343" s="14" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H343" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="248.4">
+    <row r="344" spans="1:8" ht="248.4" customHeight="1">
       <c r="A344" s="14" t="s">
         <v>22</v>
       </c>
@@ -11801,40 +12389,1244 @@
         <v>363</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E344" s="26" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F344" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G344" s="14" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H344" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
-      <c r="A345" s="14"/>
-      <c r="B345" s="14"/>
+    <row r="345" spans="1:8" ht="41.4" customHeight="1">
+      <c r="A345" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="C345" s="14"/>
-      <c r="D345" s="14"/>
-      <c r="E345" s="14"/>
-      <c r="F345" s="14"/>
-      <c r="G345" s="14"/>
-      <c r="H345" s="14"/>
+      <c r="D345" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="E345" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="F345" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G345" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="H345" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="346" spans="1:8">
-      <c r="A346" s="14"/>
-      <c r="B346" s="14"/>
+      <c r="A346" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B346" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="C346" s="14"/>
-      <c r="D346" s="14"/>
-      <c r="E346" s="14"/>
-      <c r="F346" s="14"/>
-      <c r="G346" s="14"/>
-      <c r="H346" s="14"/>
+      <c r="D346" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="E346" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="F346" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="G346" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="H346" s="14" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A347" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B347" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C347" s="14"/>
+      <c r="D347" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="E347" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="F347" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G347" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="H347" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="69" customHeight="1">
+      <c r="A348" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C348" s="14"/>
+      <c r="D348" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="E348" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="F348" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G348" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="H348" s="26" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="55.2" customHeight="1">
+      <c r="A349" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B349" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C349" s="14"/>
+      <c r="D349" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E349" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="F349" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G349" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="H349" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B350" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C350" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D350" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E350" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="F350" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G350" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="H350" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B351" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D351" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="E351" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="F351" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G351" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="H351" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="55.2" customHeight="1">
+      <c r="A352" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B352" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D352" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="E352" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="F352" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G352" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="H352" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="41.4" customHeight="1">
+      <c r="A353" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B353" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D353" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="E353" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="F353" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G353" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="H353" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="124.2" customHeight="1">
+      <c r="A354" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B354" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D354" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="E354" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="F354" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G354" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="H354" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B355" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C355" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D355" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E355" s="14"/>
+      <c r="F355" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G355" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="H355" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="151.80000000000001" customHeight="1">
+      <c r="A356" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B356" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C356" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D356" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="E356" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="F356" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G356" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="H356" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="55.2" customHeight="1">
+      <c r="A357" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B357" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C357" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D357" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="E357" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="F357" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G357" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="H357" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B358" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="E358" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="F358" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G358" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="H358" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A359" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B359" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C359" s="14"/>
+      <c r="D359" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="E359" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="F359" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G359" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="H359" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B360" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C360" s="14"/>
+      <c r="D360" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="E360" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="F360" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G360" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="H360" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B361" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C361" s="14"/>
+      <c r="D361" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="E361" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="F361" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G361" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="H361" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="69" customHeight="1">
+      <c r="A362" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B362" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C362" s="14"/>
+      <c r="D362" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="E362" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="F362" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G362" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="H362" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="96.6" customHeight="1">
+      <c r="A363" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B363" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C363" s="14"/>
+      <c r="D363" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="E363" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="F363" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G363" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="H363" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364" s="14"/>
+      <c r="D364" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="E364" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="F364" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G364" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="H364" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A365" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B365" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365" s="14"/>
+      <c r="D365" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="E365" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="F365" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G365" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="H365" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="96.6" customHeight="1">
+      <c r="A366" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B366" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C366" s="14"/>
+      <c r="D366" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="E366" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="F366" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G366" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="H366" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B367" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C367" s="14"/>
+      <c r="D367" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="E367" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="F367" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G367" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="H367" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="165.6" customHeight="1">
+      <c r="A368" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B368" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C368" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D368" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="E368" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="F368" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G368" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="H368" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="151.80000000000001" customHeight="1">
+      <c r="A369" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B369" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C369" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D369" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="E369" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="F369" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G369" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="H369" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A370" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B370" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370" s="14"/>
+      <c r="D370" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="E370" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="F370" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G370" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="H370" s="26" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A371" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371" s="14"/>
+      <c r="D371" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="E371" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="F371" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G371" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="H371" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A372" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372" s="14"/>
+      <c r="D372" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="E372" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="F372" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G372" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="H372" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="82.8" customHeight="1">
+      <c r="A373" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B373" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C373" s="14"/>
+      <c r="D373" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E373" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="F373" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G373" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="H373" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="82.8" customHeight="1">
+      <c r="A374" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B374" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C374" s="14"/>
+      <c r="D374" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="E374" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="F374" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G374" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="H374" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A375" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B375" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C375" s="14"/>
+      <c r="D375" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="E375" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="F375" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G375" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="H375" s="14" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="96.6" customHeight="1">
+      <c r="A376" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B376" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376" s="14"/>
+      <c r="D376" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E376" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="F376" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G376" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="H376" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="82.8" customHeight="1">
+      <c r="A377" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B377" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C377" s="14"/>
+      <c r="D377" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="E377" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="F377" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G377" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="H377" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="82.8" customHeight="1">
+      <c r="A378" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B378" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C378" s="14"/>
+      <c r="D378" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="E378" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="F378" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G378" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="H378" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="193.2" customHeight="1">
+      <c r="A379" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B379" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D379" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="E379" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="F379" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G379" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="H379" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="69" customHeight="1">
+      <c r="A380" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B380" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C380" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D380" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="E380" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="F380" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G380" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="H380" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="82.8" customHeight="1">
+      <c r="A381" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B381" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C381" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D381" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="E381" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="F381" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G381" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="H381" s="14" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="27.6">
+      <c r="A382" t="s">
+        <v>8</v>
+      </c>
+      <c r="B382" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382"/>
+      <c r="D382" t="s">
+        <v>799</v>
+      </c>
+      <c r="E382" s="26" t="s">
+        <v>994</v>
+      </c>
+      <c r="F382" t="s">
+        <v>406</v>
+      </c>
+      <c r="G382" t="s">
+        <v>800</v>
+      </c>
+      <c r="H382" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" t="s">
+        <v>8</v>
+      </c>
+      <c r="B383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C383"/>
+      <c r="D383" t="s">
+        <v>801</v>
+      </c>
+      <c r="E383" s="26" t="s">
+        <v>801</v>
+      </c>
+      <c r="F383" t="s">
+        <v>379</v>
+      </c>
+      <c r="G383" t="s">
+        <v>802</v>
+      </c>
+      <c r="H383" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="27.6">
+      <c r="A384" t="s">
+        <v>8</v>
+      </c>
+      <c r="B384" t="s">
+        <v>38</v>
+      </c>
+      <c r="C384"/>
+      <c r="D384" t="s">
+        <v>803</v>
+      </c>
+      <c r="E384" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="F384" t="s">
+        <v>379</v>
+      </c>
+      <c r="G384" t="s">
+        <v>804</v>
+      </c>
+      <c r="H384" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="41.4">
+      <c r="A385" t="s">
+        <v>8</v>
+      </c>
+      <c r="B385" t="s">
+        <v>381</v>
+      </c>
+      <c r="C385"/>
+      <c r="D385" t="s">
+        <v>805</v>
+      </c>
+      <c r="E385" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="F385" t="s">
+        <v>406</v>
+      </c>
+      <c r="G385" t="s">
+        <v>807</v>
+      </c>
+      <c r="H385" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="110.4">
+      <c r="A386" t="s">
+        <v>16</v>
+      </c>
+      <c r="B386" t="s">
+        <v>17</v>
+      </c>
+      <c r="C386"/>
+      <c r="D386" t="s">
+        <v>808</v>
+      </c>
+      <c r="E386" s="26" t="s">
+        <v>995</v>
+      </c>
+      <c r="F386" t="s">
+        <v>406</v>
+      </c>
+      <c r="G386" t="s">
+        <v>809</v>
+      </c>
+      <c r="H386" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="96.6">
+      <c r="A387" t="s">
+        <v>16</v>
+      </c>
+      <c r="B387" t="s">
+        <v>17</v>
+      </c>
+      <c r="C387"/>
+      <c r="D387" t="s">
+        <v>810</v>
+      </c>
+      <c r="E387" s="26" t="s">
+        <v>996</v>
+      </c>
+      <c r="F387" t="s">
+        <v>520</v>
+      </c>
+      <c r="G387" t="s">
+        <v>811</v>
+      </c>
+      <c r="H387" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" t="s">
+        <v>32</v>
+      </c>
+      <c r="B388" t="s">
+        <v>38</v>
+      </c>
+      <c r="C388"/>
+      <c r="D388" t="s">
+        <v>812</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F388" t="s">
+        <v>400</v>
+      </c>
+      <c r="G388" t="s">
+        <v>813</v>
+      </c>
+      <c r="H388" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="27.6">
+      <c r="A389" t="s">
+        <v>32</v>
+      </c>
+      <c r="B389" t="s">
+        <v>774</v>
+      </c>
+      <c r="C389"/>
+      <c r="D389" t="s">
+        <v>814</v>
+      </c>
+      <c r="E389" s="26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F389" t="s">
+        <v>387</v>
+      </c>
+      <c r="G389" t="s">
+        <v>815</v>
+      </c>
+      <c r="H389" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="A390" t="s">
+        <v>32</v>
+      </c>
+      <c r="B390" t="s">
+        <v>38</v>
+      </c>
+      <c r="C390"/>
+      <c r="D390" t="s">
+        <v>816</v>
+      </c>
+      <c r="E390" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="F390" t="s">
+        <v>421</v>
+      </c>
+      <c r="G390" t="s">
+        <v>818</v>
+      </c>
+      <c r="H390" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="138">
+      <c r="A391" t="s">
+        <v>32</v>
+      </c>
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391"/>
+      <c r="D391" t="s">
+        <v>819</v>
+      </c>
+      <c r="E391" s="26" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F391" t="s">
+        <v>406</v>
+      </c>
+      <c r="G391" t="s">
+        <v>820</v>
+      </c>
+      <c r="H391" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="110.4">
+      <c r="A392" t="s">
+        <v>22</v>
+      </c>
+      <c r="B392" t="s">
+        <v>38</v>
+      </c>
+      <c r="C392"/>
+      <c r="D392" t="s">
+        <v>821</v>
+      </c>
+      <c r="E392" s="26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F392" t="s">
+        <v>383</v>
+      </c>
+      <c r="G392" t="s">
+        <v>822</v>
+      </c>
+      <c r="H392" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="82.8">
+      <c r="A393" t="s">
+        <v>22</v>
+      </c>
+      <c r="B393" t="s">
+        <v>38</v>
+      </c>
+      <c r="C393"/>
+      <c r="D393" t="s">
+        <v>823</v>
+      </c>
+      <c r="E393" s="26" t="s">
+        <v>998</v>
+      </c>
+      <c r="F393" t="s">
+        <v>379</v>
+      </c>
+      <c r="G393" t="s">
+        <v>824</v>
+      </c>
+      <c r="H393" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="96.6">
+      <c r="A394" t="s">
+        <v>22</v>
+      </c>
+      <c r="B394" t="s">
+        <v>38</v>
+      </c>
+      <c r="C394"/>
+      <c r="D394" t="s">
+        <v>825</v>
+      </c>
+      <c r="E394" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="F394" t="s">
+        <v>406</v>
+      </c>
+      <c r="G394" t="s">
+        <v>826</v>
+      </c>
+      <c r="H394" s="14" t="s">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H227"/>
@@ -11862,1057 +13654,1057 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>686</v>
+        <v>827</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>687</v>
+        <v>828</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>688</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>689</v>
+        <v>830</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>691</v>
+        <v>832</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>692</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>689</v>
+        <v>830</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>693</v>
+        <v>834</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>694</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>689</v>
+        <v>830</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>695</v>
+        <v>836</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>696</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>689</v>
+        <v>830</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>697</v>
+        <v>838</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>698</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>689</v>
+        <v>830</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>699</v>
+        <v>840</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>700</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>701</v>
+        <v>842</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>702</v>
+        <v>843</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>703</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>701</v>
+        <v>842</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>704</v>
+        <v>845</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>705</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>701</v>
+        <v>842</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>706</v>
+        <v>847</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>707</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>701</v>
+        <v>842</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>708</v>
+        <v>849</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>709</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>701</v>
+        <v>842</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>710</v>
+        <v>851</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>711</v>
+        <v>852</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>712</v>
+        <v>853</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>713</v>
+        <v>854</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>714</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>712</v>
+        <v>853</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>715</v>
+        <v>856</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>716</v>
+        <v>857</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>712</v>
+        <v>853</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>717</v>
+        <v>858</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>718</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>712</v>
+        <v>853</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>719</v>
+        <v>860</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>720</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>721</v>
+        <v>862</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>722</v>
+        <v>863</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>723</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>721</v>
+        <v>862</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>724</v>
+        <v>865</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>725</v>
+        <v>866</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>721</v>
+        <v>862</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>727</v>
+        <v>868</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>721</v>
+        <v>862</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>728</v>
+        <v>869</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>729</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>721</v>
+        <v>862</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>730</v>
+        <v>871</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>731</v>
+        <v>872</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>732</v>
+        <v>873</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>733</v>
+        <v>874</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>734</v>
+        <v>875</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>732</v>
+        <v>873</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>735</v>
+        <v>876</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>736</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>732</v>
+        <v>873</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>737</v>
+        <v>878</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>738</v>
+        <v>879</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>732</v>
+        <v>873</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>739</v>
+        <v>880</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>740</v>
+        <v>881</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>732</v>
+        <v>873</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>741</v>
+        <v>882</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>742</v>
+        <v>883</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>743</v>
+        <v>884</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>744</v>
+        <v>885</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>745</v>
+        <v>886</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>743</v>
+        <v>884</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>746</v>
+        <v>887</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>747</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>743</v>
+        <v>884</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>748</v>
+        <v>889</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>749</v>
+        <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>743</v>
+        <v>884</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>750</v>
+        <v>891</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>751</v>
+        <v>892</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>743</v>
+        <v>884</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>752</v>
+        <v>893</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>753</v>
+        <v>894</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>754</v>
+        <v>895</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>755</v>
+        <v>896</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>756</v>
+        <v>897</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>754</v>
+        <v>895</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>757</v>
+        <v>898</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>758</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>754</v>
+        <v>895</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>759</v>
+        <v>900</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>760</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>754</v>
+        <v>895</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>761</v>
+        <v>902</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>762</v>
+        <v>903</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>754</v>
+        <v>895</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>763</v>
+        <v>904</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>764</v>
+        <v>905</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>765</v>
+        <v>906</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>766</v>
+        <v>907</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>767</v>
+        <v>908</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>765</v>
+        <v>906</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>768</v>
+        <v>909</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>769</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>765</v>
+        <v>906</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>770</v>
+        <v>911</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>771</v>
+        <v>912</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>765</v>
+        <v>906</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>772</v>
+        <v>913</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>773</v>
+        <v>914</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>765</v>
+        <v>906</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>774</v>
+        <v>915</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>775</v>
+        <v>916</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>777</v>
+        <v>918</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>778</v>
+        <v>919</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>779</v>
+        <v>920</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>780</v>
+        <v>921</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>781</v>
+        <v>922</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>782</v>
+        <v>923</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>783</v>
+        <v>924</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>784</v>
+        <v>925</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>785</v>
+        <v>926</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>786</v>
+        <v>927</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.4" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>787</v>
+        <v>928</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>788</v>
+        <v>929</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>789</v>
+        <v>930</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.4" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>787</v>
+        <v>928</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>790</v>
+        <v>931</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>791</v>
+        <v>932</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.4" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>787</v>
+        <v>928</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>792</v>
+        <v>933</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>793</v>
+        <v>934</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>787</v>
+        <v>928</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>794</v>
+        <v>935</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>795</v>
+        <v>936</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>787</v>
+        <v>928</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>796</v>
+        <v>937</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>797</v>
+        <v>938</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>798</v>
+        <v>939</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>799</v>
+        <v>940</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>800</v>
+        <v>941</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.4" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>798</v>
+        <v>939</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>801</v>
+        <v>942</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>802</v>
+        <v>943</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.4" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>798</v>
+        <v>939</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>803</v>
+        <v>944</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>804</v>
+        <v>945</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.4" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>798</v>
+        <v>939</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>805</v>
+        <v>946</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>806</v>
+        <v>947</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.4" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>798</v>
+        <v>939</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>794</v>
+        <v>935</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>807</v>
+        <v>948</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>808</v>
+        <v>949</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>809</v>
+        <v>950</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>810</v>
+        <v>951</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.4" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>808</v>
+        <v>949</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>811</v>
+        <v>952</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>812</v>
+        <v>953</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.4" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>808</v>
+        <v>949</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>813</v>
+        <v>954</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>814</v>
+        <v>955</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.4" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>808</v>
+        <v>949</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>815</v>
+        <v>956</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>816</v>
+        <v>957</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>808</v>
+        <v>949</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>817</v>
+        <v>958</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>818</v>
+        <v>959</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.4" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>819</v>
+        <v>960</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>820</v>
+        <v>961</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>821</v>
+        <v>962</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.4" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>819</v>
+        <v>960</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>822</v>
+        <v>963</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>823</v>
+        <v>964</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.4" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>819</v>
+        <v>960</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>824</v>
+        <v>965</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>825</v>
+        <v>966</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>819</v>
+        <v>960</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>826</v>
+        <v>967</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>827</v>
+        <v>968</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.4" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>819</v>
+        <v>960</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>828</v>
+        <v>969</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>829</v>
+        <v>970</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.4" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>830</v>
+        <v>971</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>831</v>
+        <v>972</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>832</v>
+        <v>973</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.4" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>830</v>
+        <v>971</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>833</v>
+        <v>974</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>834</v>
+        <v>975</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.4" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>830</v>
+        <v>971</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>835</v>
+        <v>976</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>836</v>
+        <v>977</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.4" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>830</v>
+        <v>971</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>837</v>
+        <v>978</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>838</v>
+        <v>979</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>830</v>
+        <v>971</v>
       </c>
       <c r="B70" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>839</v>
+        <v>980</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>840</v>
+        <v>981</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.4" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>841</v>
+        <v>982</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>842</v>
+        <v>983</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>843</v>
+        <v>984</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.4" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>841</v>
+        <v>982</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>844</v>
+        <v>985</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>845</v>
+        <v>986</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.4" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>841</v>
+        <v>982</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>846</v>
+        <v>987</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>847</v>
+        <v>988</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.4" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>841</v>
+        <v>982</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>848</v>
+        <v>989</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>849</v>
+        <v>990</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.4" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>841</v>
+        <v>982</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>850</v>
+        <v>991</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>851</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.4" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>852</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/zentao/禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/禅道每日审查_测试.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1042">
   <si>
     <t>姓名</t>
   </si>
@@ -3363,566 +3363,6 @@
     <t>质控规则病案出院小结回归验证开发修复的bug</t>
   </si>
   <si>
-    <t>2020-06-19 18:01:43</t>
-  </si>
-  <si>
-    <t>质控规则病案首页规则测试，bug验证</t>
-  </si>
-  <si>
-    <t>2020-06-19 18:03:40</t>
-  </si>
-  <si>
-    <t>测试小组工作计划内部会议</t>
-  </si>
-  <si>
-    <t>2020-06-19 17:48:30</t>
-  </si>
-  <si>
-    <t>排查家床移动端演示环境功能是否正常</t>
-  </si>
-  <si>
-    <t>2020-06-19 17:57:26</t>
-  </si>
-  <si>
-    <t>学习使用jmeter进行性能测试</t>
-  </si>
-  <si>
-    <t>学习如何使用jmeter进行性能测试</t>
-  </si>
-  <si>
-    <t>2020-06-19 17:59:36</t>
-  </si>
-  <si>
-    <t>验证现场更新问题</t>
-  </si>
-  <si>
-    <t>2020-06-19 18:02:55</t>
-  </si>
-  <si>
-    <t>学习并总结接口测试的要点</t>
-  </si>
-  <si>
-    <t>2020-06-19 18:08:09</t>
-  </si>
-  <si>
-    <t>测试内部会议/编写下周工作计划</t>
-  </si>
-  <si>
-    <t>2020-06-19 18:10:01</t>
-  </si>
-  <si>
-    <t>学习requests库进行接口测试/总结常见前后端问题定位方法/fidler断点意义及方法</t>
-  </si>
-  <si>
-    <t>2020-06-19 18:16:06</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>每日一核</t>
-  </si>
-  <si>
-    <t>2020.5.18</t>
-  </si>
-  <si>
-    <t>金浩</t>
-  </si>
-  <si>
-    <t>新思维</t>
-  </si>
-  <si>
-    <t>善用新思维、多角度去思考与发现</t>
-  </si>
-  <si>
-    <t>脚踏实地</t>
-  </si>
-  <si>
-    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
-  </si>
-  <si>
-    <t>团队精神</t>
-  </si>
-  <si>
-    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>有价值的事，才是值得你做的事</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>把握重点多做有用功</t>
-  </si>
-  <si>
-    <t>2020.5.19</t>
-  </si>
-  <si>
-    <t>创造意义</t>
-  </si>
-  <si>
-    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
-  </si>
-  <si>
-    <t>要事优先</t>
-  </si>
-  <si>
-    <t>工作时，要分清主次，优先处理重要的事情</t>
-  </si>
-  <si>
-    <t>匠人匠心</t>
-  </si>
-  <si>
-    <t>专注、执着、细心的做好每件事情。</t>
-  </si>
-  <si>
-    <t>积累</t>
-  </si>
-  <si>
-    <t>冰冻三尺，非一日之寒，积少成多</t>
-  </si>
-  <si>
-    <t>坚持</t>
-  </si>
-  <si>
-    <t>不畏艰难终会达到目标</t>
-  </si>
-  <si>
-    <t>2020.5.20</t>
-  </si>
-  <si>
-    <t>培养习惯</t>
-  </si>
-  <si>
-    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
-  </si>
-  <si>
-    <t>求知</t>
-  </si>
-  <si>
-    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
-  </si>
-  <si>
-    <t>专注如一</t>
-  </si>
-  <si>
-    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
-  </si>
-  <si>
-    <t>勤奋</t>
-  </si>
-  <si>
-    <t>业精于勤荒于嬉，勤能补拙</t>
-  </si>
-  <si>
-    <t>2020.5.21</t>
-  </si>
-  <si>
-    <t>珍惜机会</t>
-  </si>
-  <si>
-    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
-  </si>
-  <si>
-    <t>换位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
-  </si>
-  <si>
-    <t>行动</t>
-  </si>
-  <si>
-    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">善于总结 </t>
-  </si>
-  <si>
-    <t>工作中要善于总结，做事要条理清晰</t>
-  </si>
-  <si>
-    <t>细心</t>
-  </si>
-  <si>
-    <t>细节决定成败</t>
-  </si>
-  <si>
-    <t>2020.5.22</t>
-  </si>
-  <si>
-    <t>顿悟</t>
-  </si>
-  <si>
-    <t>意会之美大语言表</t>
-  </si>
-  <si>
-    <t>律己</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
-  </si>
-  <si>
-    <t>守时</t>
-  </si>
-  <si>
-    <t>养成做任何事情都提前15分钟的习惯。</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>一花独放不是春，善于分享，共同进步</t>
-  </si>
-  <si>
-    <t>自省</t>
-  </si>
-  <si>
-    <t>从自身出发，总结和规划</t>
-  </si>
-  <si>
-    <t>2020.5.25</t>
-  </si>
-  <si>
-    <t>九分努力</t>
-  </si>
-  <si>
-    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
-  </si>
-  <si>
-    <t>责任感</t>
-  </si>
-  <si>
-    <t>工作要有强烈的责任感，认真做好每一件事</t>
-  </si>
-  <si>
-    <t>进步</t>
-  </si>
-  <si>
-    <t>每天进一步，踏上成功路。</t>
-  </si>
-  <si>
-    <t>感恩</t>
-  </si>
-  <si>
-    <t>怀感恩之心，做感恩之事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自律 </t>
-  </si>
-  <si>
-    <t>严于律己，宽以待人</t>
-  </si>
-  <si>
-    <t>2020.5.26</t>
-  </si>
-  <si>
-    <t>谋定而后动</t>
-  </si>
-  <si>
-    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
-Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
-  </si>
-  <si>
-    <t>团队合作</t>
-  </si>
-  <si>
-    <t>注重团队合作，团体的力量永远大于个人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创造价值  </t>
-  </si>
-  <si>
-    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
-    <t>乐观向上，迎难而上</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
-  </si>
-  <si>
-    <t>2020.5.27</t>
-  </si>
-  <si>
-    <t>利牝马之贞</t>
-  </si>
-  <si>
-    <t>做事不盲目顺从。</t>
-  </si>
-  <si>
-    <t>积极乐观</t>
-  </si>
-  <si>
-    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
-  </si>
-  <si>
-    <t>真诚</t>
-  </si>
-  <si>
-    <t>真实诚恳，真心实意</t>
-  </si>
-  <si>
-    <t>沟通</t>
-  </si>
-  <si>
-    <t>及时有效的沟通，可以让自己少走弯路。</t>
-  </si>
-  <si>
-    <t>多方位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
-  </si>
-  <si>
-    <t>2020.5.28</t>
-  </si>
-  <si>
-    <t>作事谋始</t>
-  </si>
-  <si>
-    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
-  </si>
-  <si>
-    <t>学以致用</t>
-  </si>
-  <si>
-    <t>学到的东西要使用出来才能发挥出它的价值</t>
-  </si>
-  <si>
-    <t>多思维</t>
-  </si>
-  <si>
-    <t>多种思维去考虑问题，去解决问题。</t>
-  </si>
-  <si>
-    <t>衡量</t>
-  </si>
-  <si>
-    <t>衡量事物的利与弊，做出最有价值的选择</t>
-  </si>
-  <si>
-    <t>独立思考</t>
-  </si>
-  <si>
-    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
-  </si>
-  <si>
-    <t>2020.5.29</t>
-  </si>
-  <si>
-    <t>师忧比乐</t>
-  </si>
-  <si>
-    <t>便是早日把竞争的观念改变为互助的观念。</t>
-  </si>
-  <si>
-    <t>高效</t>
-  </si>
-  <si>
-    <t>提高工作效率才能节省人力时间成本</t>
-  </si>
-  <si>
-    <t>细节</t>
-  </si>
-  <si>
-    <t>细节决定成败，心态决定人生</t>
-  </si>
-  <si>
-    <t>双赢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
-  </si>
-  <si>
-    <t>笃行</t>
-  </si>
-  <si>
-    <t>明确目标、踏踏实实、学以致用</t>
-  </si>
-  <si>
-    <t>2020.6.1</t>
-  </si>
-  <si>
-    <t>小畜</t>
-  </si>
-  <si>
-    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
-  </si>
-  <si>
-    <t>沉着冷静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遇事不惊，沉着应对  </t>
-  </si>
-  <si>
-    <t>努力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
-  </si>
-  <si>
-    <t>服从</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
-  </si>
-  <si>
-    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
-  </si>
-  <si>
-    <t>2020.6.2</t>
-  </si>
-  <si>
-    <t>一以贯之</t>
-  </si>
-  <si>
-    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推陈出新  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
-  </si>
-  <si>
-    <t>时间管理</t>
-  </si>
-  <si>
-    <t>每一分每一秒做最有生产力的事情.</t>
-  </si>
-  <si>
-    <t>平衡</t>
-  </si>
-  <si>
-    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
-  </si>
-  <si>
-    <t>夯实基础</t>
-  </si>
-  <si>
-    <t>好的基础是更快发展的基石</t>
-  </si>
-  <si>
-    <t>2020.6.3</t>
-  </si>
-  <si>
-    <t>不失己任</t>
-  </si>
-  <si>
-    <t>自己的责任不能推卸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">守信 </t>
-  </si>
-  <si>
-    <t>遵守承诺，按时按量完成工作</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>品质是企业的基石，专业是发展的动力。</t>
-  </si>
-  <si>
-    <t>耕耘</t>
-  </si>
-  <si>
-    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
-  </si>
-  <si>
-    <t>责任</t>
-  </si>
-  <si>
-    <t>身体力行，完成分内事</t>
-  </si>
-  <si>
-    <t>2020.6.4</t>
-  </si>
-  <si>
-    <t>反求诸己</t>
-  </si>
-  <si>
-    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业精于勤  </t>
-  </si>
-  <si>
-    <t>勤奋是获得成功必不可缺的要素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆流而上  </t>
-  </si>
-  <si>
-    <t>不怕困难，解决困难。</t>
-  </si>
-  <si>
-    <t>务实</t>
-  </si>
-  <si>
-    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
-  </si>
-  <si>
-    <t>行动力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 知行合一，实践出真知</t>
-  </si>
-  <si>
-    <t>2020.6.5</t>
-  </si>
-  <si>
-    <t>居安思危</t>
-  </si>
-  <si>
-    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
-  </si>
-  <si>
-    <t>反思</t>
-  </si>
-  <si>
-    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
-  </si>
-  <si>
-    <t>尽职尽责</t>
-  </si>
-  <si>
-    <t>尽自己最大的努力来完成自己的职责</t>
-  </si>
-  <si>
-    <t>不忘初心</t>
-  </si>
-  <si>
-    <t>不忘初心，方得始终！</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>定好目标做事才会更有方向、效率更高</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t>门诊缴款批量数据添加及缴款测试及问题记录、住院缴款批量预交金数据添加及缴款测试及问题记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_x000D_
 	1.出院小结表数据自造进行测试_x000D_
 _x000D_
@@ -3931,7 +3371,12 @@
 	3.与开发描述bug问题_x000D_
 _x000D_
 	4.回归验证开发修复的bug_x000D_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-19 18:01:43</t>
+  </si>
+  <si>
+    <t>质控规则病案首页规则测试，bug验证</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -3941,37 +3386,39 @@
 _x000D__x000D_
 	3，与开发描述bug问题等_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	1学习运用requests库进行接口测试_x000D_
-_x000D_
-	2学习抓包工具fiddler的断点意义及方法_x000D_
-_x000D_
-_x000D_	3学习并总结常见的前后端问题定位方法_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-	1内部会议-介绍了SASS-心电平台系统及PIM的系统的规划_x000D_
-_x000D_
-	2编写下周工作计划_x000D_
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良好，学以致用，在项目中找到最好的实践方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-19 18:03:40</t>
+  </si>
+  <si>
+    <t>测试小组工作计划内部会议</t>
   </si>
   <si>
     <t>讨论制定工作任务与工作计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-19 17:48:30</t>
+  </si>
+  <si>
+    <t>排查家床移动端演示环境功能是否正常</t>
   </si>
   <si>
     <t>配置演示患者医生端和患者端，并排查视屏功能与生理测量等功能是否正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-19 17:57:26</t>
+  </si>
+  <si>
+    <t>学习使用jmeter进行性能测试</t>
+  </si>
+  <si>
+    <t>学习如何使用jmeter进行性能测试</t>
+  </si>
+  <si>
+    <t>2020-06-19 17:59:36</t>
+  </si>
+  <si>
+    <t>验证现场更新问题</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -3981,7 +3428,12 @@
 _x000D__x000D_
 	3.排查频次pod，排药数据生成问题_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-19 18:02:55</t>
+  </si>
+  <si>
+    <t>学习并总结接口测试的要点</t>
   </si>
   <si>
     <t>_x000D_
@@ -3992,6 +3444,702 @@
 _x000D__x000D_	5异常类型校验_x000D_
 _x000D__x000D_	6输入/输出边界值分析_x000D_
 _x000D__x000D_	7接口的性能测试关注指标_x000D_</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:08:09</t>
+  </si>
+  <si>
+    <t>良好，学以致用，在项目中找到最好的实践方法</t>
+  </si>
+  <si>
+    <t>测试内部会议/编写下周工作计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1内部会议-介绍了SASS-心电平台系统及PIM的系统的规划_x000D_
+_x000D_
+	2编写下周工作计划_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:10:01</t>
+  </si>
+  <si>
+    <t>学习requests库进行接口测试/总结常见前后端问题定位方法/fidler断点意义及方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1学习运用requests库进行接口测试_x000D_
+_x000D_
+	2学习抓包工具fiddler的断点意义及方法_x000D_
+_x000D_
+_x000D_	3学习并总结常见的前后端问题定位方法_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-19 18:16:06</t>
+  </si>
+  <si>
+    <t>测试内部计划会议</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:21:38</t>
+  </si>
+  <si>
+    <t>1.5版本建床登记诊断保存问题测试、诊断记录问题测试、建床诊断相同问题验证</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:23:47</t>
+  </si>
+  <si>
+    <t>住院结账修改优化方法后回归测试多数据结账，住院缴款预交金批量数据确认问题验证</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:28:41</t>
+  </si>
+  <si>
+    <t>白茅岭现场结账发票小数点后问题查看、检查费用多次计费问题查看</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:28:45</t>
+  </si>
+  <si>
+    <t>saas需求元素相关UI需求熟悉（20%）</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:31:52</t>
+  </si>
+  <si>
+    <t>患者基本信息表、病案首页质控规则测试/提交bug/bug回归</t>
+  </si>
+  <si>
+    <t>1.患者基本信息表、住院病案首页数据库数据自造，规则测试/提交bug/bug回归</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:05:29</t>
+  </si>
+  <si>
+    <t>质控规则v1.2规则测试、提交bug/bug回归</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:06:56</t>
+  </si>
+  <si>
+    <t>测试小组学习计划分享会</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:08:19</t>
+  </si>
+  <si>
+    <t>测试内部会议</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:21:30</t>
+  </si>
+  <si>
+    <t>排查现场病案首页其他费用金额不对问题</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:25:00</t>
+  </si>
+  <si>
+    <t>测试家床患者端无需配置版本生理测量功能是否正常</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:29:23</t>
+  </si>
+  <si>
+    <t>熟悉SAAS功能</t>
+  </si>
+  <si>
+    <t>查看SAAS的功能结构图，熟悉SAAS的功能</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:31:47</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:10:16</t>
+  </si>
+  <si>
+    <t>护理工作站-压疮评估/跌到评估/导管评估/护理分级-空行填充（确定每行页数）/数据维护/打印预览测试</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:19:47</t>
+  </si>
+  <si>
+    <t>熟悉SAAS云平台需求文档及相关方案设计</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:32:46</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>每日一核</t>
+  </si>
+  <si>
+    <t>2020.5.18</t>
+  </si>
+  <si>
+    <t>金浩</t>
+  </si>
+  <si>
+    <t>新思维</t>
+  </si>
+  <si>
+    <t>善用新思维、多角度去思考与发现</t>
+  </si>
+  <si>
+    <t>脚踏实地</t>
+  </si>
+  <si>
+    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
+  </si>
+  <si>
+    <t>团队精神</t>
+  </si>
+  <si>
+    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>有价值的事，才是值得你做的事</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>把握重点多做有用功</t>
+  </si>
+  <si>
+    <t>2020.5.19</t>
+  </si>
+  <si>
+    <t>创造意义</t>
+  </si>
+  <si>
+    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
+  </si>
+  <si>
+    <t>要事优先</t>
+  </si>
+  <si>
+    <t>工作时，要分清主次，优先处理重要的事情</t>
+  </si>
+  <si>
+    <t>匠人匠心</t>
+  </si>
+  <si>
+    <t>专注、执着、细心的做好每件事情。</t>
+  </si>
+  <si>
+    <t>积累</t>
+  </si>
+  <si>
+    <t>冰冻三尺，非一日之寒，积少成多</t>
+  </si>
+  <si>
+    <t>坚持</t>
+  </si>
+  <si>
+    <t>不畏艰难终会达到目标</t>
+  </si>
+  <si>
+    <t>2020.5.20</t>
+  </si>
+  <si>
+    <t>培养习惯</t>
+  </si>
+  <si>
+    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
+  </si>
+  <si>
+    <t>求知</t>
+  </si>
+  <si>
+    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
+  </si>
+  <si>
+    <t>专注如一</t>
+  </si>
+  <si>
+    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
+  </si>
+  <si>
+    <t>勤奋</t>
+  </si>
+  <si>
+    <t>业精于勤荒于嬉，勤能补拙</t>
+  </si>
+  <si>
+    <t>2020.5.21</t>
+  </si>
+  <si>
+    <t>珍惜机会</t>
+  </si>
+  <si>
+    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
+  </si>
+  <si>
+    <t>换位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
+  </si>
+  <si>
+    <t>行动</t>
+  </si>
+  <si>
+    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">善于总结 </t>
+  </si>
+  <si>
+    <t>工作中要善于总结，做事要条理清晰</t>
+  </si>
+  <si>
+    <t>细心</t>
+  </si>
+  <si>
+    <t>细节决定成败</t>
+  </si>
+  <si>
+    <t>2020.5.22</t>
+  </si>
+  <si>
+    <t>顿悟</t>
+  </si>
+  <si>
+    <t>意会之美大语言表</t>
+  </si>
+  <si>
+    <t>律己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
+  </si>
+  <si>
+    <t>守时</t>
+  </si>
+  <si>
+    <t>养成做任何事情都提前15分钟的习惯。</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>一花独放不是春，善于分享，共同进步</t>
+  </si>
+  <si>
+    <t>自省</t>
+  </si>
+  <si>
+    <t>从自身出发，总结和规划</t>
+  </si>
+  <si>
+    <t>2020.5.25</t>
+  </si>
+  <si>
+    <t>九分努力</t>
+  </si>
+  <si>
+    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
+  </si>
+  <si>
+    <t>责任感</t>
+  </si>
+  <si>
+    <t>工作要有强烈的责任感，认真做好每一件事</t>
+  </si>
+  <si>
+    <t>进步</t>
+  </si>
+  <si>
+    <t>每天进一步，踏上成功路。</t>
+  </si>
+  <si>
+    <t>感恩</t>
+  </si>
+  <si>
+    <t>怀感恩之心，做感恩之事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自律 </t>
+  </si>
+  <si>
+    <t>严于律己，宽以待人</t>
+  </si>
+  <si>
+    <t>2020.5.26</t>
+  </si>
+  <si>
+    <t>谋定而后动</t>
+  </si>
+  <si>
+    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
+Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
+  </si>
+  <si>
+    <t>团队合作</t>
+  </si>
+  <si>
+    <t>注重团队合作，团体的力量永远大于个人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创造价值  </t>
+  </si>
+  <si>
+    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>乐观向上，迎难而上</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
+  </si>
+  <si>
+    <t>2020.5.27</t>
+  </si>
+  <si>
+    <t>利牝马之贞</t>
+  </si>
+  <si>
+    <t>做事不盲目顺从。</t>
+  </si>
+  <si>
+    <t>积极乐观</t>
+  </si>
+  <si>
+    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
+  </si>
+  <si>
+    <t>真诚</t>
+  </si>
+  <si>
+    <t>真实诚恳，真心实意</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>及时有效的沟通，可以让自己少走弯路。</t>
+  </si>
+  <si>
+    <t>多方位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
+  </si>
+  <si>
+    <t>2020.5.28</t>
+  </si>
+  <si>
+    <t>作事谋始</t>
+  </si>
+  <si>
+    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
+  </si>
+  <si>
+    <t>学以致用</t>
+  </si>
+  <si>
+    <t>学到的东西要使用出来才能发挥出它的价值</t>
+  </si>
+  <si>
+    <t>多思维</t>
+  </si>
+  <si>
+    <t>多种思维去考虑问题，去解决问题。</t>
+  </si>
+  <si>
+    <t>衡量</t>
+  </si>
+  <si>
+    <t>衡量事物的利与弊，做出最有价值的选择</t>
+  </si>
+  <si>
+    <t>独立思考</t>
+  </si>
+  <si>
+    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
+  </si>
+  <si>
+    <t>2020.5.29</t>
+  </si>
+  <si>
+    <t>师忧比乐</t>
+  </si>
+  <si>
+    <t>便是早日把竞争的观念改变为互助的观念。</t>
+  </si>
+  <si>
+    <t>高效</t>
+  </si>
+  <si>
+    <t>提高工作效率才能节省人力时间成本</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>细节决定成败，心态决定人生</t>
+  </si>
+  <si>
+    <t>双赢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
+  </si>
+  <si>
+    <t>笃行</t>
+  </si>
+  <si>
+    <t>明确目标、踏踏实实、学以致用</t>
+  </si>
+  <si>
+    <t>2020.6.1</t>
+  </si>
+  <si>
+    <t>小畜</t>
+  </si>
+  <si>
+    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
+  </si>
+  <si>
+    <t>沉着冷静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遇事不惊，沉着应对  </t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
+  </si>
+  <si>
+    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
+  </si>
+  <si>
+    <t>2020.6.2</t>
+  </si>
+  <si>
+    <t>一以贯之</t>
+  </si>
+  <si>
+    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推陈出新  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
+  </si>
+  <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>每一分每一秒做最有生产力的事情.</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
+  </si>
+  <si>
+    <t>夯实基础</t>
+  </si>
+  <si>
+    <t>好的基础是更快发展的基石</t>
+  </si>
+  <si>
+    <t>2020.6.3</t>
+  </si>
+  <si>
+    <t>不失己任</t>
+  </si>
+  <si>
+    <t>自己的责任不能推卸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">守信 </t>
+  </si>
+  <si>
+    <t>遵守承诺，按时按量完成工作</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>品质是企业的基石，专业是发展的动力。</t>
+  </si>
+  <si>
+    <t>耕耘</t>
+  </si>
+  <si>
+    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
+  </si>
+  <si>
+    <t>责任</t>
+  </si>
+  <si>
+    <t>身体力行，完成分内事</t>
+  </si>
+  <si>
+    <t>2020.6.4</t>
+  </si>
+  <si>
+    <t>反求诸己</t>
+  </si>
+  <si>
+    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业精于勤  </t>
+  </si>
+  <si>
+    <t>勤奋是获得成功必不可缺的要素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆流而上  </t>
+  </si>
+  <si>
+    <t>不怕困难，解决困难。</t>
+  </si>
+  <si>
+    <t>务实</t>
+  </si>
+  <si>
+    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
+  </si>
+  <si>
+    <t>行动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知行合一，实践出真知</t>
+  </si>
+  <si>
+    <t>2020.6.5</t>
+  </si>
+  <si>
+    <t>居安思危</t>
+  </si>
+  <si>
+    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
+  </si>
+  <si>
+    <t>反思</t>
+  </si>
+  <si>
+    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
+  </si>
+  <si>
+    <t>尽职尽责</t>
+  </si>
+  <si>
+    <t>尽自己最大的努力来完成自己的职责</t>
+  </si>
+  <si>
+    <t>不忘初心</t>
+  </si>
+  <si>
+    <t>不忘初心，方得始终！</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>定好目标做事才会更有方向、效率更高</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>1.5版本建床登记诊断保存问题测试、诊断记录问题测试、建床诊断相同问题验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1.对封面与基本信息表添加的v1.2质控规则进行测试_x000D_
+_x000D_
+	2.数据自造_x000D_
+_x000D__x000D_
+	3.提交bug/bug回归_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会议，讨论测试方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过核对患者历史的费用流水，发现2条异常记录，反馈给开发排查异常记录是如何产生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	熟悉SAAS需求文档及整体业务流转图_x000D_
+_x000D_
+_x000D_	1元素库-功能描述/界面样式_x000D_
+_x000D__x000D_
+	2表单设计-功能描述/界面样式_x000D_
+_x000D_
+_x000D_	3表单库列表-功能描述/界面样式_x000D_
+_x000D__x000D_
+	4随访方案-功能描述/界面样式_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1压疮/导管/跌倒/护理分级-数据维护-数据维护_x000D_
+_x000D__x000D_
+	2页面信息展示-空行显示/页码显示_x000D_
+_x000D__x000D_
+	3打印预览显示_x000D_
+_x000D__x000D_
+	4页面调整_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1公司核心价值观_x000D_
+_x000D__x000D_
+	2产品规划_x000D_
+_x000D__x000D_
+	3测试计划路线/培训_x000D_
+_x000D_
+_x000D_	4三人成组_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	无需配置（ip）版本测试，进行血压测量时，程序会崩掉_x000D_
+_x000D__x000D_
+	老版本（需要手动配置ip）功能正常_x000D_
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4542,11 +4690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H394"/>
+  <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E386" sqref="E386"/>
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H401" sqref="H401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.8"/>
@@ -13316,316 +13464,676 @@
         <v>798</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="27.6">
-      <c r="A382" t="s">
+    <row r="382" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A382" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C382"/>
-      <c r="D382" t="s">
+      <c r="C382" s="14"/>
+      <c r="D382" s="14" t="s">
         <v>799</v>
       </c>
       <c r="E382" s="26" t="s">
-        <v>994</v>
-      </c>
-      <c r="F382" t="s">
+        <v>799</v>
+      </c>
+      <c r="F382" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G382" t="s">
+      <c r="G382" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="H382" t="s">
+      <c r="H382" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="383" spans="1:8">
-      <c r="A383" t="s">
+      <c r="A383" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C383"/>
-      <c r="D383" t="s">
+      <c r="C383" s="14"/>
+      <c r="D383" s="14" t="s">
         <v>801</v>
       </c>
       <c r="E383" s="26" t="s">
         <v>801</v>
       </c>
-      <c r="F383" t="s">
+      <c r="F383" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G383" t="s">
+      <c r="G383" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="H383" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" ht="27.6">
-      <c r="A384" t="s">
+      <c r="H383" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A384" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C384"/>
-      <c r="D384" t="s">
+      <c r="C384" s="14"/>
+      <c r="D384" s="14" t="s">
         <v>803</v>
       </c>
       <c r="E384" s="26" t="s">
         <v>803</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F384" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G384" t="s">
+      <c r="G384" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="H384" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" ht="41.4">
-      <c r="A385" t="s">
+      <c r="H384" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="41.4" customHeight="1">
+      <c r="A385" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C385"/>
-      <c r="D385" t="s">
+      <c r="C385" s="14"/>
+      <c r="D385" s="14" t="s">
         <v>805</v>
       </c>
       <c r="E385" s="26" t="s">
         <v>806</v>
       </c>
-      <c r="F385" t="s">
+      <c r="F385" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G385" t="s">
+      <c r="G385" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="H385" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" ht="110.4">
-      <c r="A386" t="s">
+      <c r="H385" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="110.4" customHeight="1">
+      <c r="A386" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C386"/>
-      <c r="D386" t="s">
+      <c r="C386" s="14"/>
+      <c r="D386" s="14" t="s">
         <v>808</v>
       </c>
       <c r="E386" s="26" t="s">
-        <v>995</v>
-      </c>
-      <c r="F386" t="s">
+        <v>809</v>
+      </c>
+      <c r="F386" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G386" t="s">
-        <v>809</v>
-      </c>
-      <c r="H386" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="96.6">
-      <c r="A387" t="s">
+      <c r="G386" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="H386" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="96.6" customHeight="1">
+      <c r="A387" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C387"/>
-      <c r="D387" t="s">
-        <v>810</v>
+      <c r="C387" s="14"/>
+      <c r="D387" s="14" t="s">
+        <v>811</v>
       </c>
       <c r="E387" s="26" t="s">
-        <v>996</v>
-      </c>
-      <c r="F387" t="s">
+        <v>812</v>
+      </c>
+      <c r="F387" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="G387" t="s">
-        <v>811</v>
-      </c>
-      <c r="H387" t="s">
+      <c r="G387" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="H387" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="388" spans="1:8">
-      <c r="A388" t="s">
+      <c r="A388" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C388"/>
-      <c r="D388" t="s">
-        <v>812</v>
-      </c>
-      <c r="E388" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F388" t="s">
+      <c r="C388" s="14"/>
+      <c r="D388" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E388" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="F388" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="G388" t="s">
-        <v>813</v>
-      </c>
-      <c r="H388" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" ht="27.6">
-      <c r="A389" t="s">
+      <c r="G388" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="H388" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A389" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="C389"/>
-      <c r="D389" t="s">
-        <v>814</v>
+      <c r="C389" s="14"/>
+      <c r="D389" s="14" t="s">
+        <v>817</v>
       </c>
       <c r="E389" s="26" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F389" t="s">
+        <v>818</v>
+      </c>
+      <c r="F389" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="G389" t="s">
-        <v>815</v>
-      </c>
-      <c r="H389" t="s">
+      <c r="G389" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="H389" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="390" spans="1:8">
-      <c r="A390" t="s">
+      <c r="A390" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C390"/>
-      <c r="D390" t="s">
-        <v>816</v>
+      <c r="C390" s="14"/>
+      <c r="D390" s="14" t="s">
+        <v>820</v>
       </c>
       <c r="E390" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="F390" t="s">
+        <v>821</v>
+      </c>
+      <c r="F390" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="G390" t="s">
-        <v>818</v>
-      </c>
-      <c r="H390" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" ht="138">
-      <c r="A391" t="s">
+      <c r="G390" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="H390" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="138" customHeight="1">
+      <c r="A391" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C391"/>
-      <c r="D391" t="s">
-        <v>819</v>
+      <c r="C391" s="14"/>
+      <c r="D391" s="14" t="s">
+        <v>823</v>
       </c>
       <c r="E391" s="26" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F391" t="s">
+        <v>824</v>
+      </c>
+      <c r="F391" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G391" t="s">
-        <v>820</v>
-      </c>
-      <c r="H391" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" ht="110.4">
-      <c r="A392" t="s">
+      <c r="G391" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="H391" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="110.4" customHeight="1">
+      <c r="A392" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C392"/>
-      <c r="D392" t="s">
-        <v>821</v>
+      <c r="C392" s="14"/>
+      <c r="D392" s="14" t="s">
+        <v>826</v>
       </c>
       <c r="E392" s="26" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F392" t="s">
+        <v>827</v>
+      </c>
+      <c r="F392" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G392" t="s">
-        <v>822</v>
-      </c>
-      <c r="H392" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" ht="82.8">
-      <c r="A393" t="s">
+      <c r="G392" s="14" t="s">
+        <v>828</v>
+      </c>
+      <c r="H392" s="14" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="82.8" customHeight="1">
+      <c r="A393" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C393"/>
-      <c r="D393" t="s">
-        <v>823</v>
+      <c r="C393" s="14"/>
+      <c r="D393" s="14" t="s">
+        <v>830</v>
       </c>
       <c r="E393" s="26" t="s">
-        <v>998</v>
-      </c>
-      <c r="F393" t="s">
+        <v>831</v>
+      </c>
+      <c r="F393" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G393" t="s">
-        <v>824</v>
-      </c>
-      <c r="H393" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" ht="96.6">
-      <c r="A394" t="s">
+      <c r="G393" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="H393" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="96.6" customHeight="1">
+      <c r="A394" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C394"/>
-      <c r="D394" t="s">
-        <v>825</v>
+      <c r="C394" s="14"/>
+      <c r="D394" s="14" t="s">
+        <v>833</v>
       </c>
       <c r="E394" s="26" t="s">
-        <v>997</v>
-      </c>
-      <c r="F394" t="s">
+        <v>834</v>
+      </c>
+      <c r="F394" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G394" t="s">
-        <v>826</v>
+      <c r="G394" s="14" t="s">
+        <v>835</v>
       </c>
       <c r="H394" s="14" t="s">
-        <v>999</v>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" t="s">
+        <v>8</v>
+      </c>
+      <c r="B395" t="s">
+        <v>38</v>
+      </c>
+      <c r="C395"/>
+      <c r="D395" t="s">
+        <v>836</v>
+      </c>
+      <c r="E395" t="s">
+        <v>836</v>
+      </c>
+      <c r="F395" t="s">
+        <v>379</v>
+      </c>
+      <c r="G395" t="s">
+        <v>837</v>
+      </c>
+      <c r="H395" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="27.6">
+      <c r="A396" t="s">
+        <v>8</v>
+      </c>
+      <c r="B396" t="s">
+        <v>381</v>
+      </c>
+      <c r="C396"/>
+      <c r="D396" t="s">
+        <v>838</v>
+      </c>
+      <c r="E396" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F396" t="s">
+        <v>406</v>
+      </c>
+      <c r="G396" t="s">
+        <v>839</v>
+      </c>
+      <c r="H396" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="27.6">
+      <c r="A397" t="s">
+        <v>8</v>
+      </c>
+      <c r="B397" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397"/>
+      <c r="D397" t="s">
+        <v>840</v>
+      </c>
+      <c r="E397" s="26" t="s">
+        <v>840</v>
+      </c>
+      <c r="F397" t="s">
+        <v>379</v>
+      </c>
+      <c r="G397" t="s">
+        <v>841</v>
+      </c>
+      <c r="H397" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="27.6">
+      <c r="A398" t="s">
+        <v>8</v>
+      </c>
+      <c r="B398" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398"/>
+      <c r="D398" t="s">
+        <v>842</v>
+      </c>
+      <c r="E398" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="F398" t="s">
+        <v>379</v>
+      </c>
+      <c r="G398" t="s">
+        <v>843</v>
+      </c>
+      <c r="H398" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="A399" t="s">
+        <v>8</v>
+      </c>
+      <c r="B399" t="s">
+        <v>38</v>
+      </c>
+      <c r="C399"/>
+      <c r="D399" t="s">
+        <v>844</v>
+      </c>
+      <c r="E399" t="s">
+        <v>844</v>
+      </c>
+      <c r="F399" t="s">
+        <v>387</v>
+      </c>
+      <c r="G399" t="s">
+        <v>845</v>
+      </c>
+      <c r="H399" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="27.6">
+      <c r="A400" t="s">
+        <v>16</v>
+      </c>
+      <c r="B400" t="s">
+        <v>17</v>
+      </c>
+      <c r="C400"/>
+      <c r="D400" t="s">
+        <v>846</v>
+      </c>
+      <c r="E400" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="F400" t="s">
+        <v>383</v>
+      </c>
+      <c r="G400" t="s">
+        <v>848</v>
+      </c>
+      <c r="H400" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="96.6">
+      <c r="A401" t="s">
+        <v>16</v>
+      </c>
+      <c r="B401" t="s">
+        <v>17</v>
+      </c>
+      <c r="C401"/>
+      <c r="D401" t="s">
+        <v>849</v>
+      </c>
+      <c r="E401" s="26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F401" t="s">
+        <v>406</v>
+      </c>
+      <c r="G401" t="s">
+        <v>850</v>
+      </c>
+      <c r="H401" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="A402" t="s">
+        <v>16</v>
+      </c>
+      <c r="B402" t="s">
+        <v>38</v>
+      </c>
+      <c r="C402"/>
+      <c r="D402" t="s">
+        <v>851</v>
+      </c>
+      <c r="E402"/>
+      <c r="F402" t="s">
+        <v>379</v>
+      </c>
+      <c r="G402" t="s">
+        <v>852</v>
+      </c>
+      <c r="H402" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403" t="s">
+        <v>32</v>
+      </c>
+      <c r="B403" t="s">
+        <v>38</v>
+      </c>
+      <c r="C403"/>
+      <c r="D403" t="s">
+        <v>853</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F403" t="s">
+        <v>379</v>
+      </c>
+      <c r="G403" t="s">
+        <v>854</v>
+      </c>
+      <c r="H403" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="27.6">
+      <c r="A404" t="s">
+        <v>32</v>
+      </c>
+      <c r="B404" t="s">
+        <v>9</v>
+      </c>
+      <c r="C404"/>
+      <c r="D404" t="s">
+        <v>855</v>
+      </c>
+      <c r="E404" s="26" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F404" t="s">
+        <v>383</v>
+      </c>
+      <c r="G404" t="s">
+        <v>856</v>
+      </c>
+      <c r="H404" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="82.8">
+      <c r="A405" t="s">
+        <v>32</v>
+      </c>
+      <c r="B405" t="s">
+        <v>774</v>
+      </c>
+      <c r="C405"/>
+      <c r="D405" t="s">
+        <v>857</v>
+      </c>
+      <c r="E405" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F405" t="s">
+        <v>387</v>
+      </c>
+      <c r="G405" t="s">
+        <v>858</v>
+      </c>
+      <c r="H405" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="A406" t="s">
+        <v>32</v>
+      </c>
+      <c r="B406" t="s">
+        <v>38</v>
+      </c>
+      <c r="C406"/>
+      <c r="D406" t="s">
+        <v>859</v>
+      </c>
+      <c r="E406" t="s">
+        <v>860</v>
+      </c>
+      <c r="F406" t="s">
+        <v>379</v>
+      </c>
+      <c r="G406" t="s">
+        <v>861</v>
+      </c>
+      <c r="H406" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="124.2">
+      <c r="A407" t="s">
+        <v>22</v>
+      </c>
+      <c r="B407" t="s">
+        <v>38</v>
+      </c>
+      <c r="C407"/>
+      <c r="D407" t="s">
+        <v>851</v>
+      </c>
+      <c r="E407" s="26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F407" t="s">
+        <v>379</v>
+      </c>
+      <c r="G407" t="s">
+        <v>862</v>
+      </c>
+      <c r="H407" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="124.2">
+      <c r="A408" t="s">
+        <v>22</v>
+      </c>
+      <c r="B408" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408" t="s">
+        <v>30</v>
+      </c>
+      <c r="D408" t="s">
+        <v>863</v>
+      </c>
+      <c r="E408" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F408" t="s">
+        <v>406</v>
+      </c>
+      <c r="G408" t="s">
+        <v>864</v>
+      </c>
+      <c r="H408" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" ht="151.80000000000001">
+      <c r="A409" t="s">
+        <v>22</v>
+      </c>
+      <c r="B409" t="s">
+        <v>38</v>
+      </c>
+      <c r="C409"/>
+      <c r="D409" t="s">
+        <v>865</v>
+      </c>
+      <c r="E409" s="26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F409" t="s">
+        <v>383</v>
+      </c>
+      <c r="G409" t="s">
+        <v>866</v>
+      </c>
+      <c r="H409" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -13654,1057 +14162,1057 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>827</v>
+        <v>867</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>828</v>
+        <v>868</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>829</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>832</v>
+        <v>872</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>834</v>
+        <v>874</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>835</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>836</v>
+        <v>876</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>837</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>838</v>
+        <v>878</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>839</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>841</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>843</v>
+        <v>883</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>844</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>845</v>
+        <v>885</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>846</v>
+        <v>886</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>847</v>
+        <v>887</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>848</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>849</v>
+        <v>889</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>850</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>851</v>
+        <v>891</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>852</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>856</v>
+        <v>896</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>857</v>
+        <v>897</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>858</v>
+        <v>898</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>859</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>861</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>863</v>
+        <v>903</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>864</v>
+        <v>904</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>865</v>
+        <v>905</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>871</v>
+        <v>911</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>874</v>
+        <v>914</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>875</v>
+        <v>915</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>876</v>
+        <v>916</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>877</v>
+        <v>917</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>878</v>
+        <v>918</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>879</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>881</v>
+        <v>921</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>883</v>
+        <v>923</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>885</v>
+        <v>925</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>886</v>
+        <v>926</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>889</v>
+        <v>929</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>890</v>
+        <v>930</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>892</v>
+        <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>893</v>
+        <v>933</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>894</v>
+        <v>934</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>896</v>
+        <v>936</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>897</v>
+        <v>937</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>898</v>
+        <v>938</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>899</v>
+        <v>939</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>901</v>
+        <v>941</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>902</v>
+        <v>942</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>903</v>
+        <v>943</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>904</v>
+        <v>944</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>905</v>
+        <v>945</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>906</v>
+        <v>946</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>907</v>
+        <v>947</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>908</v>
+        <v>948</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>906</v>
+        <v>946</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>910</v>
+        <v>950</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>906</v>
+        <v>946</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>911</v>
+        <v>951</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>912</v>
+        <v>952</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>906</v>
+        <v>946</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>913</v>
+        <v>953</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>914</v>
+        <v>954</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>906</v>
+        <v>946</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>915</v>
+        <v>955</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>916</v>
+        <v>956</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>918</v>
+        <v>958</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>919</v>
+        <v>959</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>921</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>922</v>
+        <v>962</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>923</v>
+        <v>963</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>924</v>
+        <v>964</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>925</v>
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>926</v>
+        <v>966</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>927</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.4" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>929</v>
+        <v>969</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>930</v>
+        <v>970</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.4" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>931</v>
+        <v>971</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>932</v>
+        <v>972</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.4" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>933</v>
+        <v>973</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>934</v>
+        <v>974</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>935</v>
+        <v>975</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>936</v>
+        <v>976</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>937</v>
+        <v>977</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>938</v>
+        <v>978</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>939</v>
+        <v>979</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>941</v>
+        <v>981</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.4" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>939</v>
+        <v>979</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>942</v>
+        <v>982</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>943</v>
+        <v>983</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.4" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>939</v>
+        <v>979</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>944</v>
+        <v>984</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>945</v>
+        <v>985</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.4" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>939</v>
+        <v>979</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>946</v>
+        <v>986</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>947</v>
+        <v>987</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.4" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>939</v>
+        <v>979</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>935</v>
+        <v>975</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>948</v>
+        <v>988</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>951</v>
+        <v>991</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.4" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>952</v>
+        <v>992</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>953</v>
+        <v>993</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.4" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>954</v>
+        <v>994</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>955</v>
+        <v>995</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.4" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>956</v>
+        <v>996</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>957</v>
+        <v>997</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>958</v>
+        <v>998</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>959</v>
+        <v>999</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.4" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>961</v>
+        <v>1001</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>962</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.4" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>963</v>
+        <v>1003</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>964</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.4" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>965</v>
+        <v>1005</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>966</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>967</v>
+        <v>1007</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>968</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.4" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>969</v>
+        <v>1009</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>970</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.4" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>972</v>
+        <v>1012</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>973</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.4" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>974</v>
+        <v>1014</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>975</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.4" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>976</v>
+        <v>1016</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>977</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.4" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>978</v>
+        <v>1018</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>979</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="B70" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>981</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.4" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>982</v>
+        <v>1022</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>983</v>
+        <v>1023</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>984</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.4" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>982</v>
+        <v>1022</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>985</v>
+        <v>1025</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>986</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.4" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>982</v>
+        <v>1022</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>987</v>
+        <v>1027</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>988</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.4" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>982</v>
+        <v>1022</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>989</v>
+        <v>1029</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>990</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.4" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>982</v>
+        <v>1022</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>991</v>
+        <v>1031</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>992</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.4" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>993</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/zentao/禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/禅道每日审查_测试.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1094">
   <si>
     <t>姓名</t>
   </si>
@@ -3522,563 +3522,6 @@
     <t>质控规则v1.2规则测试、提交bug/bug回归</t>
   </si>
   <si>
-    <t>2020-06-22 18:06:56</t>
-  </si>
-  <si>
-    <t>测试小组学习计划分享会</t>
-  </si>
-  <si>
-    <t>2020-06-22 18:08:19</t>
-  </si>
-  <si>
-    <t>测试内部会议</t>
-  </si>
-  <si>
-    <t>2020-06-22 18:21:30</t>
-  </si>
-  <si>
-    <t>排查现场病案首页其他费用金额不对问题</t>
-  </si>
-  <si>
-    <t>2020-06-22 18:25:00</t>
-  </si>
-  <si>
-    <t>测试家床患者端无需配置版本生理测量功能是否正常</t>
-  </si>
-  <si>
-    <t>2020-06-22 18:29:23</t>
-  </si>
-  <si>
-    <t>熟悉SAAS功能</t>
-  </si>
-  <si>
-    <t>查看SAAS的功能结构图，熟悉SAAS的功能</t>
-  </si>
-  <si>
-    <t>2020-06-22 18:31:47</t>
-  </si>
-  <si>
-    <t>2020-06-22 18:10:16</t>
-  </si>
-  <si>
-    <t>护理工作站-压疮评估/跌到评估/导管评估/护理分级-空行填充（确定每行页数）/数据维护/打印预览测试</t>
-  </si>
-  <si>
-    <t>2020-06-22 18:19:47</t>
-  </si>
-  <si>
-    <t>熟悉SAAS云平台需求文档及相关方案设计</t>
-  </si>
-  <si>
-    <t>2020-06-22 18:32:46</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>每日一核</t>
-  </si>
-  <si>
-    <t>2020.5.18</t>
-  </si>
-  <si>
-    <t>金浩</t>
-  </si>
-  <si>
-    <t>新思维</t>
-  </si>
-  <si>
-    <t>善用新思维、多角度去思考与发现</t>
-  </si>
-  <si>
-    <t>脚踏实地</t>
-  </si>
-  <si>
-    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
-  </si>
-  <si>
-    <t>团队精神</t>
-  </si>
-  <si>
-    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>有价值的事，才是值得你做的事</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>把握重点多做有用功</t>
-  </si>
-  <si>
-    <t>2020.5.19</t>
-  </si>
-  <si>
-    <t>创造意义</t>
-  </si>
-  <si>
-    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
-  </si>
-  <si>
-    <t>要事优先</t>
-  </si>
-  <si>
-    <t>工作时，要分清主次，优先处理重要的事情</t>
-  </si>
-  <si>
-    <t>匠人匠心</t>
-  </si>
-  <si>
-    <t>专注、执着、细心的做好每件事情。</t>
-  </si>
-  <si>
-    <t>积累</t>
-  </si>
-  <si>
-    <t>冰冻三尺，非一日之寒，积少成多</t>
-  </si>
-  <si>
-    <t>坚持</t>
-  </si>
-  <si>
-    <t>不畏艰难终会达到目标</t>
-  </si>
-  <si>
-    <t>2020.5.20</t>
-  </si>
-  <si>
-    <t>培养习惯</t>
-  </si>
-  <si>
-    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
-  </si>
-  <si>
-    <t>求知</t>
-  </si>
-  <si>
-    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
-  </si>
-  <si>
-    <t>专注如一</t>
-  </si>
-  <si>
-    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
-  </si>
-  <si>
-    <t>勤奋</t>
-  </si>
-  <si>
-    <t>业精于勤荒于嬉，勤能补拙</t>
-  </si>
-  <si>
-    <t>2020.5.21</t>
-  </si>
-  <si>
-    <t>珍惜机会</t>
-  </si>
-  <si>
-    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
-  </si>
-  <si>
-    <t>换位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
-  </si>
-  <si>
-    <t>行动</t>
-  </si>
-  <si>
-    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">善于总结 </t>
-  </si>
-  <si>
-    <t>工作中要善于总结，做事要条理清晰</t>
-  </si>
-  <si>
-    <t>细心</t>
-  </si>
-  <si>
-    <t>细节决定成败</t>
-  </si>
-  <si>
-    <t>2020.5.22</t>
-  </si>
-  <si>
-    <t>顿悟</t>
-  </si>
-  <si>
-    <t>意会之美大语言表</t>
-  </si>
-  <si>
-    <t>律己</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
-  </si>
-  <si>
-    <t>守时</t>
-  </si>
-  <si>
-    <t>养成做任何事情都提前15分钟的习惯。</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>一花独放不是春，善于分享，共同进步</t>
-  </si>
-  <si>
-    <t>自省</t>
-  </si>
-  <si>
-    <t>从自身出发，总结和规划</t>
-  </si>
-  <si>
-    <t>2020.5.25</t>
-  </si>
-  <si>
-    <t>九分努力</t>
-  </si>
-  <si>
-    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
-  </si>
-  <si>
-    <t>责任感</t>
-  </si>
-  <si>
-    <t>工作要有强烈的责任感，认真做好每一件事</t>
-  </si>
-  <si>
-    <t>进步</t>
-  </si>
-  <si>
-    <t>每天进一步，踏上成功路。</t>
-  </si>
-  <si>
-    <t>感恩</t>
-  </si>
-  <si>
-    <t>怀感恩之心，做感恩之事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自律 </t>
-  </si>
-  <si>
-    <t>严于律己，宽以待人</t>
-  </si>
-  <si>
-    <t>2020.5.26</t>
-  </si>
-  <si>
-    <t>谋定而后动</t>
-  </si>
-  <si>
-    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
-Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
-  </si>
-  <si>
-    <t>团队合作</t>
-  </si>
-  <si>
-    <t>注重团队合作，团体的力量永远大于个人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创造价值  </t>
-  </si>
-  <si>
-    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
-    <t>乐观向上，迎难而上</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
-  </si>
-  <si>
-    <t>2020.5.27</t>
-  </si>
-  <si>
-    <t>利牝马之贞</t>
-  </si>
-  <si>
-    <t>做事不盲目顺从。</t>
-  </si>
-  <si>
-    <t>积极乐观</t>
-  </si>
-  <si>
-    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
-  </si>
-  <si>
-    <t>真诚</t>
-  </si>
-  <si>
-    <t>真实诚恳，真心实意</t>
-  </si>
-  <si>
-    <t>沟通</t>
-  </si>
-  <si>
-    <t>及时有效的沟通，可以让自己少走弯路。</t>
-  </si>
-  <si>
-    <t>多方位思考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
-  </si>
-  <si>
-    <t>2020.5.28</t>
-  </si>
-  <si>
-    <t>作事谋始</t>
-  </si>
-  <si>
-    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
-  </si>
-  <si>
-    <t>学以致用</t>
-  </si>
-  <si>
-    <t>学到的东西要使用出来才能发挥出它的价值</t>
-  </si>
-  <si>
-    <t>多思维</t>
-  </si>
-  <si>
-    <t>多种思维去考虑问题，去解决问题。</t>
-  </si>
-  <si>
-    <t>衡量</t>
-  </si>
-  <si>
-    <t>衡量事物的利与弊，做出最有价值的选择</t>
-  </si>
-  <si>
-    <t>独立思考</t>
-  </si>
-  <si>
-    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
-  </si>
-  <si>
-    <t>2020.5.29</t>
-  </si>
-  <si>
-    <t>师忧比乐</t>
-  </si>
-  <si>
-    <t>便是早日把竞争的观念改变为互助的观念。</t>
-  </si>
-  <si>
-    <t>高效</t>
-  </si>
-  <si>
-    <t>提高工作效率才能节省人力时间成本</t>
-  </si>
-  <si>
-    <t>细节</t>
-  </si>
-  <si>
-    <t>细节决定成败，心态决定人生</t>
-  </si>
-  <si>
-    <t>双赢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
-  </si>
-  <si>
-    <t>笃行</t>
-  </si>
-  <si>
-    <t>明确目标、踏踏实实、学以致用</t>
-  </si>
-  <si>
-    <t>2020.6.1</t>
-  </si>
-  <si>
-    <t>小畜</t>
-  </si>
-  <si>
-    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
-  </si>
-  <si>
-    <t>沉着冷静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遇事不惊，沉着应对  </t>
-  </si>
-  <si>
-    <t>努力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
-  </si>
-  <si>
-    <t>服从</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
-  </si>
-  <si>
-    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
-  </si>
-  <si>
-    <t>2020.6.2</t>
-  </si>
-  <si>
-    <t>一以贯之</t>
-  </si>
-  <si>
-    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推陈出新  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
-  </si>
-  <si>
-    <t>时间管理</t>
-  </si>
-  <si>
-    <t>每一分每一秒做最有生产力的事情.</t>
-  </si>
-  <si>
-    <t>平衡</t>
-  </si>
-  <si>
-    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
-  </si>
-  <si>
-    <t>夯实基础</t>
-  </si>
-  <si>
-    <t>好的基础是更快发展的基石</t>
-  </si>
-  <si>
-    <t>2020.6.3</t>
-  </si>
-  <si>
-    <t>不失己任</t>
-  </si>
-  <si>
-    <t>自己的责任不能推卸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">守信 </t>
-  </si>
-  <si>
-    <t>遵守承诺，按时按量完成工作</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>品质是企业的基石，专业是发展的动力。</t>
-  </si>
-  <si>
-    <t>耕耘</t>
-  </si>
-  <si>
-    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
-  </si>
-  <si>
-    <t>责任</t>
-  </si>
-  <si>
-    <t>身体力行，完成分内事</t>
-  </si>
-  <si>
-    <t>2020.6.4</t>
-  </si>
-  <si>
-    <t>反求诸己</t>
-  </si>
-  <si>
-    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业精于勤  </t>
-  </si>
-  <si>
-    <t>勤奋是获得成功必不可缺的要素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆流而上  </t>
-  </si>
-  <si>
-    <t>不怕困难，解决困难。</t>
-  </si>
-  <si>
-    <t>务实</t>
-  </si>
-  <si>
-    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
-  </si>
-  <si>
-    <t>行动力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 知行合一，实践出真知</t>
-  </si>
-  <si>
-    <t>2020.6.5</t>
-  </si>
-  <si>
-    <t>居安思危</t>
-  </si>
-  <si>
-    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
-  </si>
-  <si>
-    <t>反思</t>
-  </si>
-  <si>
-    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
-  </si>
-  <si>
-    <t>尽职尽责</t>
-  </si>
-  <si>
-    <t>尽自己最大的努力来完成自己的职责</t>
-  </si>
-  <si>
-    <t>不忘初心</t>
-  </si>
-  <si>
-    <t>不忘初心，方得始终！</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>定好目标做事才会更有方向、效率更高</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t>1.5版本建床登记诊断保存问题测试、诊断记录问题测试、建床诊断相同问题验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">_x000D_
 	1.对封面与基本信息表添加的v1.2质控规则进行测试_x000D_
 _x000D_
@@ -4086,29 +3529,72 @@
 _x000D__x000D_
 	3.提交bug/bug回归_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-22 18:06:56</t>
+  </si>
+  <si>
+    <t>测试小组学习计划分享会</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:08:19</t>
+  </si>
+  <si>
+    <t>测试内部会议</t>
   </si>
   <si>
     <t>内部会议，讨论测试方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-22 18:21:30</t>
+  </si>
+  <si>
+    <t>排查现场病案首页其他费用金额不对问题</t>
   </si>
   <si>
     <t>通过核对患者历史的费用流水，发现2条异常记录，反馈给开发排查异常记录是如何产生的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-22 18:25:00</t>
+  </si>
+  <si>
+    <t>测试家床患者端无需配置版本生理测量功能是否正常</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
-	熟悉SAAS需求文档及整体业务流转图_x000D_
-_x000D_
-_x000D_	1元素库-功能描述/界面样式_x000D_
+	无需配置（ip）版本测试，进行血压测量时，程序会崩掉_x000D_
 _x000D__x000D_
-	2表单设计-功能描述/界面样式_x000D_
-_x000D_
-_x000D_	3表单库列表-功能描述/界面样式_x000D_
+	老版本（需要手动配置ip）功能正常_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:29:23</t>
+  </si>
+  <si>
+    <t>熟悉SAAS功能</t>
+  </si>
+  <si>
+    <t>查看SAAS的功能结构图，熟悉SAAS的功能</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:31:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	1公司核心价值观_x000D_
 _x000D__x000D_
-	4随访方案-功能描述/界面样式_x000D_
+	2产品规划_x000D_
+_x000D__x000D_
+	3测试计划路线/培训_x000D_
+_x000D_
+_x000D_	4三人成组_x000D_
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-22 18:10:16</t>
+  </si>
+  <si>
+    <t>护理工作站-压疮评估/跌到评估/导管评估/护理分级-空行填充（确定每行页数）/数据维护/打印预览测试</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
@@ -4120,25 +3606,753 @@
 _x000D__x000D_
 	4页面调整_x000D_
 </t>
+  </si>
+  <si>
+    <t>2020-06-22 18:19:47</t>
+  </si>
+  <si>
+    <t>熟悉SAAS云平台需求文档及相关方案设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	熟悉SAAS需求文档及整体业务流转图_x000D_
+_x000D_
+_x000D_	1元素库-功能描述/界面样式_x000D_
+_x000D__x000D_
+	2表单设计-功能描述/界面样式_x000D_
+_x000D_
+_x000D_	3表单库列表-功能描述/界面样式_x000D_
+_x000D__x000D_
+	4随访方案-功能描述/界面样式_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:32:46</t>
+  </si>
+  <si>
+    <t>2.0合并1.5建床诊断保存代码和诊断记录查询代码、现有诊断查询代码后测试，病历打印图标及操作行按钮样式问题验证，诊断相同问题验证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	2.0合并1.5建床诊断保存代码和诊断记录查询代码、现有诊断查询代码后测试，病历内修改建床诊断测试-逻辑还未修改，病历打印图标及操作行按钮样式问题验证，诊断相同问题验证_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:12:11</t>
+  </si>
+  <si>
+    <t>验证住院预交金超过2100条数据同时操作问题，并与产品确认目前门诊等页面批量操作数据问题</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:15:14</t>
+  </si>
+  <si>
+    <t>python相关安装及基础数据类型等学习</t>
+  </si>
+  <si>
+    <t>python相关安装及基础数据类型学习</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:17:38</t>
+  </si>
+  <si>
+    <t>良好，7月份开始相关python培训</t>
+  </si>
+  <si>
+    <t>质控规则抽样测试</t>
+  </si>
+  <si>
+    <t>1。对已测试的规则进行抽样测试，反馈问题、自造数据。</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:01:27</t>
+  </si>
+  <si>
+    <t>办公用品申请单、固定资产/设备申请单申请流程测试</t>
+  </si>
+  <si>
+    <t>1.办公用品申请单、固定资产/设备申请单申请流程测试,提交bug 、bug回归</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:02:41</t>
+  </si>
+  <si>
+    <t>测试特殊频次，请药规则</t>
+  </si>
+  <si>
+    <t>测试特殊频次 两天一次、三天一次、一周一次、一周两次。的排药规则（修改时间，查看每天是否按规则生成排药记录）</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:07:39</t>
+  </si>
+  <si>
+    <t>检查家床视屏功能是否正常，配置安装护理白板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	检查家床移动端视频功能是否正常_x000D_
+_x000D_
+	协助产品安装护理白板app，检查功能_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:10:19</t>
+  </si>
+  <si>
+    <t>安装python，以及配置环境</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	安装python、pycharm，配置环境变量_x000D_
+_x000D_
+_x000D_	下载常用的包_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:12:38</t>
+  </si>
+  <si>
+    <t>pim-医生工作站-病危通知单/病重通知单/会诊单/主治医师第一次查房诊断/阶段性小结模板功能测试/打印预览/调整</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	pim-医生工作站：_x000D_
+_x000D__x000D_
+	1病危通知单_x000D_
+_x000D__x000D_
+	2病重通知单_x000D_
+_x000D__x000D_
+	3会诊单_x000D_
+_x000D__x000D_
+	4首次查房诊断_x000D_
+_x000D__x000D_
+	5小结功能 -- 5张单据新增/诊断记录增删查/页面信息比对/打印预览测试/样式调整校验_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-23 17:56:09</t>
+  </si>
+  <si>
+    <t>熟悉SAAS云心电系统-随访-功能介绍/页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	熟悉SAAS云平台随访功能详情/方案/页面_x000D_
+_x000D_
+	1随访方案_x000D_
+_x000D_
+	2方案表单/功能性情描述_x000D_
+_x000D_
+	3随访计划/功能描述/页面_x000D_
+	4随访方案列表/界面描述/功能详情_x000D_
+</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:24:08</t>
+  </si>
+  <si>
+    <t>2020-06-24 18:02:46</t>
+  </si>
+  <si>
+    <t>python元组、列表、字典等相关点熟悉学习</t>
+  </si>
+  <si>
+    <t>2020-06-24 18:04:26</t>
+  </si>
+  <si>
+    <t>大场三社区问题重现</t>
+  </si>
+  <si>
+    <t>2020-06-24 17:58:18</t>
+  </si>
+  <si>
+    <t>办公用品与固定资产申请单流程回归</t>
+  </si>
+  <si>
+    <t>2020-06-24 17:59:56</t>
+  </si>
+  <si>
+    <t>2020-06-24 18:03:01</t>
+  </si>
+  <si>
+    <t>2020-06-24 18:03:07</t>
+  </si>
+  <si>
+    <t>EMPI-主索引匹配规则功能测试/用例执行/问题反馈</t>
+  </si>
+  <si>
+    <t>2020-06-24 18:02:28</t>
+  </si>
+  <si>
+    <t>2020-06-24 18:06:27</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>每日一核</t>
+  </si>
+  <si>
+    <t>2020.5.18</t>
+  </si>
+  <si>
+    <t>金浩</t>
+  </si>
+  <si>
+    <t>新思维</t>
+  </si>
+  <si>
+    <t>善用新思维、多角度去思考与发现</t>
+  </si>
+  <si>
+    <t>脚踏实地</t>
+  </si>
+  <si>
+    <t>无论是工作，生活还是学习都需要脚踏实地，把每件事做好做实</t>
+  </si>
+  <si>
+    <t>团队精神</t>
+  </si>
+  <si>
+    <t>共同实现一个目标，相互信任，相互配合，相互支持，努力争取的奋斗精神</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>有价值的事，才是值得你做的事</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>把握重点多做有用功</t>
+  </si>
+  <si>
+    <t>2020.5.19</t>
+  </si>
+  <si>
+    <t>创造意义</t>
+  </si>
+  <si>
+    <t>每件事都有它存在的意义，为患者提供全生命周期的服务是我们坚定的目标。</t>
+  </si>
+  <si>
+    <t>要事优先</t>
+  </si>
+  <si>
+    <t>工作时，要分清主次，优先处理重要的事情</t>
+  </si>
+  <si>
+    <t>匠人匠心</t>
+  </si>
+  <si>
+    <t>专注、执着、细心的做好每件事情。</t>
+  </si>
+  <si>
+    <t>积累</t>
+  </si>
+  <si>
+    <t>冰冻三尺，非一日之寒，积少成多</t>
+  </si>
+  <si>
+    <t>坚持</t>
+  </si>
+  <si>
+    <t>不畏艰难终会达到目标</t>
+  </si>
+  <si>
+    <t>2020.5.20</t>
+  </si>
+  <si>
+    <t>培养习惯</t>
+  </si>
+  <si>
+    <t>注重养成好习惯，自然而然水到渠成。学而时习之的习绝不应该是温习，而是一种习惯（实践 练习 锻炼）</t>
+  </si>
+  <si>
+    <t>求知</t>
+  </si>
+  <si>
+    <t>做事要有一定的求知欲，遇到问题不光要知其然，还要知其所以然</t>
+  </si>
+  <si>
+    <t>专注如一</t>
+  </si>
+  <si>
+    <t>人一定要做自己喜欢且擅长的事情，认准了，就去做;不跟风，不动摇</t>
+  </si>
+  <si>
+    <t>勤奋</t>
+  </si>
+  <si>
+    <t>业精于勤荒于嬉，勤能补拙</t>
+  </si>
+  <si>
+    <t>2020.5.21</t>
+  </si>
+  <si>
+    <t>珍惜机会</t>
+  </si>
+  <si>
+    <t>请珍惜眼前做事的机会，最好的机会不在那里，就在你眼前。</t>
+  </si>
+  <si>
+    <t>换位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与人交流沟通时，要学会换位思考，从不同的角度考虑问题    </t>
+  </si>
+  <si>
+    <t>行动</t>
+  </si>
+  <si>
+    <t>义无反顾的坚决执行，快速行动。只有这样，决策才能落地，并朝着设定的目标前进。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">善于总结 </t>
+  </si>
+  <si>
+    <t>工作中要善于总结，做事要条理清晰</t>
+  </si>
+  <si>
+    <t>细心</t>
+  </si>
+  <si>
+    <t>细节决定成败</t>
+  </si>
+  <si>
+    <t>2020.5.22</t>
+  </si>
+  <si>
+    <t>顿悟</t>
+  </si>
+  <si>
+    <t>意会之美大语言表</t>
+  </si>
+  <si>
+    <t>律己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要养成好的工作生活习惯，严与律己 </t>
+  </si>
+  <si>
+    <t>守时</t>
+  </si>
+  <si>
+    <t>养成做任何事情都提前15分钟的习惯。</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>一花独放不是春，善于分享，共同进步</t>
+  </si>
+  <si>
+    <t>自省</t>
+  </si>
+  <si>
+    <t>从自身出发，总结和规划</t>
+  </si>
+  <si>
+    <t>2020.5.25</t>
+  </si>
+  <si>
+    <t>九分努力</t>
+  </si>
+  <si>
+    <t>做人是给别人看，做事是给自己看的，是否努力自己最清楚了</t>
+  </si>
+  <si>
+    <t>责任感</t>
+  </si>
+  <si>
+    <t>工作要有强烈的责任感，认真做好每一件事</t>
+  </si>
+  <si>
+    <t>进步</t>
+  </si>
+  <si>
+    <t>每天进一步，踏上成功路。</t>
+  </si>
+  <si>
+    <t>感恩</t>
+  </si>
+  <si>
+    <t>怀感恩之心，做感恩之事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自律 </t>
+  </si>
+  <si>
+    <t>严于律己，宽以待人</t>
+  </si>
+  <si>
+    <t>2020.5.26</t>
+  </si>
+  <si>
+    <t>谋定而后动</t>
+  </si>
+  <si>
+    <t>慎始，做事情前应准备一段前置时间，盘算盘算，计划计划，测试测试，
+Are u ready?如果你不加思索地回答yeah, 那你是真的还没准备好。</t>
+  </si>
+  <si>
+    <t>团队合作</t>
+  </si>
+  <si>
+    <t>注重团队合作，团体的力量永远大于个人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创造价值  </t>
+  </si>
+  <si>
+    <t>创造价值是企业的天职。只有持续创造价值，企业才能发展壮大，员工才能实现自我。</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>乐观向上，迎难而上</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习如逆水行舟，不进则退 </t>
+  </si>
+  <si>
+    <t>2020.5.27</t>
+  </si>
+  <si>
+    <t>利牝马之贞</t>
+  </si>
+  <si>
+    <t>做事不盲目顺从。</t>
+  </si>
+  <si>
+    <t>积极乐观</t>
+  </si>
+  <si>
+    <t>无论做什么事情都应该保持积极乐观的态度，应对工作中的每个挑战</t>
+  </si>
+  <si>
+    <t>真诚</t>
+  </si>
+  <si>
+    <t>真实诚恳，真心实意</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>及时有效的沟通，可以让自己少走弯路。</t>
+  </si>
+  <si>
+    <t>多方位思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  多多从各个不同角度、方向思考和看待问题</t>
+  </si>
+  <si>
+    <t>2020.5.28</t>
+  </si>
+  <si>
+    <t>作事谋始</t>
+  </si>
+  <si>
+    <t>做任何事情之前得充分的做准备，权衡利弊再做行动。</t>
+  </si>
+  <si>
+    <t>学以致用</t>
+  </si>
+  <si>
+    <t>学到的东西要使用出来才能发挥出它的价值</t>
+  </si>
+  <si>
+    <t>多思维</t>
+  </si>
+  <si>
+    <t>多种思维去考虑问题，去解决问题。</t>
+  </si>
+  <si>
+    <t>衡量</t>
+  </si>
+  <si>
+    <t>衡量事物的利与弊，做出最有价值的选择</t>
+  </si>
+  <si>
+    <t>独立思考</t>
+  </si>
+  <si>
+    <t>遇到问题先自我思考，寻找解决方法，培养自我解决问题的能力</t>
+  </si>
+  <si>
+    <t>2020.5.29</t>
+  </si>
+  <si>
+    <t>师忧比乐</t>
+  </si>
+  <si>
+    <t>便是早日把竞争的观念改变为互助的观念。</t>
+  </si>
+  <si>
+    <t>高效</t>
+  </si>
+  <si>
+    <t>提高工作效率才能节省人力时间成本</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>细节决定成败，心态决定人生</t>
+  </si>
+  <si>
+    <t>双赢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多站在对方的角度处理问题，会有事半功倍的效果    </t>
+  </si>
+  <si>
+    <t>笃行</t>
+  </si>
+  <si>
+    <t>明确目标、踏踏实实、学以致用</t>
+  </si>
+  <si>
+    <t>2020.6.1</t>
+  </si>
+  <si>
+    <t>小畜</t>
+  </si>
+  <si>
+    <t>我们总有还没有充分准备好以至于你的理想不能发挥的哪个节骨眼。</t>
+  </si>
+  <si>
+    <t>沉着冷静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遇事不惊，沉着应对  </t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一份耕耘，一份收获，努力越大，收获越多。</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遵从公司制度，服从领导安排     </t>
+  </si>
+  <si>
+    <t>不止是对内部平时工作，还有对外和客户的合作都应该是互利共赢的</t>
+  </si>
+  <si>
+    <t>2020.6.2</t>
+  </si>
+  <si>
+    <t>一以贯之</t>
+  </si>
+  <si>
+    <t>回归原点，不忘初心，这是非常难得的，每过一段时间回归原点，自问是不是又走偏了，时刻把自己拉回来。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推陈出新  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">去其槽粕取其精华，不断创新 </t>
+  </si>
+  <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>每一分每一秒做最有生产力的事情.</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>平衡"我愿意和我应该",多些担当，少些任性</t>
+  </si>
+  <si>
+    <t>夯实基础</t>
+  </si>
+  <si>
+    <t>好的基础是更快发展的基石</t>
+  </si>
+  <si>
+    <t>2020.6.3</t>
+  </si>
+  <si>
+    <t>不失己任</t>
+  </si>
+  <si>
+    <t>自己的责任不能推卸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">守信 </t>
+  </si>
+  <si>
+    <t>遵守承诺，按时按量完成工作</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>品质是企业的基石，专业是发展的动力。</t>
+  </si>
+  <si>
+    <t>耕耘</t>
+  </si>
+  <si>
+    <t>与其花时间应付不理想的现在，不如去耕耘和造就你想要的未来</t>
+  </si>
+  <si>
+    <t>责任</t>
+  </si>
+  <si>
+    <t>身体力行，完成分内事</t>
+  </si>
+  <si>
+    <t>2020.6.4</t>
+  </si>
+  <si>
+    <t>反求诸己</t>
+  </si>
+  <si>
+    <t>当工作没有达到预期效果时，应该先从自身问题上找原因，及时反省总结。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业精于勤  </t>
+  </si>
+  <si>
+    <t>勤奋是获得成功必不可缺的要素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆流而上  </t>
+  </si>
+  <si>
+    <t>不怕困难，解决困难。</t>
+  </si>
+  <si>
+    <t>务实</t>
+  </si>
+  <si>
+    <t>没有不劳而获的工作，更没有坐享其成的收获</t>
+  </si>
+  <si>
+    <t>行动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知行合一，实践出真知</t>
+  </si>
+  <si>
+    <t>2020.6.5</t>
+  </si>
+  <si>
+    <t>居安思危</t>
+  </si>
+  <si>
+    <t>时刻提高警觉，预防祸患，时刻保持头脑清醒，</t>
+  </si>
+  <si>
+    <t>反思</t>
+  </si>
+  <si>
+    <t>每日总结与反思自己，思考事情是否能够做的更好</t>
+  </si>
+  <si>
+    <t>尽职尽责</t>
+  </si>
+  <si>
+    <t>尽自己最大的努力来完成自己的职责</t>
+  </si>
+  <si>
+    <t>不忘初心</t>
+  </si>
+  <si>
+    <t>不忘初心，方得始终！</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>定好目标做事才会更有方向、效率更高</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>熟悉saas元素、表单、随访方案需求文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-	1公司核心价值观_x000D_
-_x000D__x000D_
-	2产品规划_x000D_
-_x000D__x000D_
-	3测试计划路线/培训_x000D_
-_x000D_
-_x000D_	4三人成组_x000D_
+    <t>测试empi合并主索引查看页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试empi匹配规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPI-匹配规则功能测试/权重分配/用例执行/问题反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	熟悉saas元素、表单、随访方案需求文档_x000D_
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>python元组、列表、字典等相关点熟悉学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对大场社区反馈的问题进行公司环境重现，部分bug已修改，开发提交版本2.0.8,现场版本为2.0.6，导致问题存在。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造各种类型的患者数据，检查主索引查看页面中显示的数据是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">_x000D_
-	无需配置（ip）版本测试，进行血压测量时，程序会崩掉_x000D_
+	主索引匹配规则_x000D_
 _x000D__x000D_
-	老版本（需要手动配置ip）功能正常_x000D_
+	1元素名称_x000D_
+_x000D__x000D_
+	2映射字段_x000D_
+_x000D__x000D_
+	3是否卡号_x000D_
+_x000D__x000D_
+	4卡类型 用例执行/功能测试/问题反馈_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	匹配规则_x000D_
+_x000D__x000D_
+	1权重-状态/开启/关闭_x000D_
+_x000D__x000D_
+	2操作-增删改功能测试_x000D_
+_x000D__x000D_
+	3权重范围设置_x000D_
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	测试empi主索引匹配规则_x000D_
+_x000D_
+	造患者数据，测试患者是否能按照不同的匹配规则进行打分_x000D_
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4690,11 +4904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H409"/>
+  <dimension ref="A1:H427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H401" sqref="H401"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D425" sqref="D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.8"/>
@@ -13777,362 +13991,800 @@
       </c>
     </row>
     <row r="395" spans="1:8">
-      <c r="A395" t="s">
+      <c r="A395" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C395"/>
-      <c r="D395" t="s">
+      <c r="C395" s="14"/>
+      <c r="D395" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="E395" t="s">
+      <c r="E395" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="F395" t="s">
+      <c r="F395" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G395" t="s">
+      <c r="G395" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="H395" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" ht="27.6">
-      <c r="A396" t="s">
+      <c r="H395" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A396" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C396"/>
-      <c r="D396" t="s">
+      <c r="C396" s="14"/>
+      <c r="D396" s="14" t="s">
         <v>838</v>
       </c>
       <c r="E396" s="26" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F396" t="s">
+        <v>838</v>
+      </c>
+      <c r="F396" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G396" t="s">
+      <c r="G396" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="H396" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" ht="27.6">
-      <c r="A397" t="s">
+      <c r="H396" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A397" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C397"/>
-      <c r="D397" t="s">
+      <c r="C397" s="14"/>
+      <c r="D397" s="14" t="s">
         <v>840</v>
       </c>
       <c r="E397" s="26" t="s">
         <v>840</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F397" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G397" t="s">
+      <c r="G397" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="H397" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" ht="27.6">
-      <c r="A398" t="s">
+      <c r="H397" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A398" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C398"/>
-      <c r="D398" t="s">
+      <c r="C398" s="14"/>
+      <c r="D398" s="14" t="s">
         <v>842</v>
       </c>
       <c r="E398" s="26" t="s">
         <v>842</v>
       </c>
-      <c r="F398" t="s">
+      <c r="F398" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G398" t="s">
+      <c r="G398" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="H398" t="s">
+      <c r="H398" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="399" spans="1:8">
-      <c r="A399" t="s">
+      <c r="A399" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C399"/>
-      <c r="D399" t="s">
+      <c r="C399" s="14"/>
+      <c r="D399" s="14" t="s">
         <v>844</v>
       </c>
-      <c r="E399" t="s">
+      <c r="E399" s="14" t="s">
         <v>844</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F399" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="G399" t="s">
+      <c r="G399" s="14" t="s">
         <v>845</v>
       </c>
-      <c r="H399" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" ht="27.6">
-      <c r="A400" t="s">
+      <c r="H399" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A400" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C400"/>
-      <c r="D400" t="s">
+      <c r="C400" s="14"/>
+      <c r="D400" s="14" t="s">
         <v>846</v>
       </c>
       <c r="E400" s="26" t="s">
         <v>847</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F400" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G400" t="s">
+      <c r="G400" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="H400" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" ht="96.6">
-      <c r="A401" t="s">
+      <c r="H400" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="96.6" customHeight="1">
+      <c r="A401" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C401"/>
-      <c r="D401" t="s">
+      <c r="C401" s="14"/>
+      <c r="D401" s="14" t="s">
         <v>849</v>
       </c>
       <c r="E401" s="26" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F401" t="s">
+        <v>850</v>
+      </c>
+      <c r="F401" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G401" t="s">
-        <v>850</v>
-      </c>
-      <c r="H401" t="s">
+      <c r="G401" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="H401" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="402" spans="1:8">
-      <c r="A402" t="s">
+      <c r="A402" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C402"/>
-      <c r="D402" t="s">
-        <v>851</v>
-      </c>
-      <c r="E402"/>
-      <c r="F402" t="s">
+      <c r="C402" s="14"/>
+      <c r="D402" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="E402" s="14"/>
+      <c r="F402" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G402" t="s">
+      <c r="G402" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="H402" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C403" s="14"/>
+      <c r="D403" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="E403" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="F403" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G403" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="H403" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A404" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B404" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C404" s="14"/>
+      <c r="D404" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="E404" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="F404" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G404" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="H404" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="82.8" customHeight="1">
+      <c r="A405" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B405" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C405" s="14"/>
+      <c r="D405" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="E405" s="26" t="s">
+        <v>861</v>
+      </c>
+      <c r="F405" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G405" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="H405" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="A406" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B406" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C406" s="14"/>
+      <c r="D406" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="E406" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="F406" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G406" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="H406" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="124.2" customHeight="1">
+      <c r="A407" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B407" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C407" s="14"/>
+      <c r="D407" s="14" t="s">
         <v>852</v>
       </c>
-      <c r="H402" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
-      <c r="A403" t="s">
+      <c r="E407" s="26" t="s">
+        <v>866</v>
+      </c>
+      <c r="F407" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G407" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="H407" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="124.2" customHeight="1">
+      <c r="A408" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D408" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="E408" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="F408" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G408" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="H408" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" ht="151.80000000000001" customHeight="1">
+      <c r="A409" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B409" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C409" s="14"/>
+      <c r="D409" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="E409" s="26" t="s">
+        <v>872</v>
+      </c>
+      <c r="F409" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G409" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="H409" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" ht="82.8" customHeight="1">
+      <c r="A410" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C410" s="14"/>
+      <c r="D410" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="E410" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="F410" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G410" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="H410" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A411" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411" s="14"/>
+      <c r="D411" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="E411" s="26" t="s">
+        <v>877</v>
+      </c>
+      <c r="F411" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G411" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="H411" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="A412" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C412" s="14"/>
+      <c r="D412" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="E412" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="F412" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G412" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="H412" s="14" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C413" s="14"/>
+      <c r="D413" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="F413" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G413" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="H413" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A414" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B414" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C414" s="14"/>
+      <c r="D414" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="E414" s="26" t="s">
+        <v>887</v>
+      </c>
+      <c r="F414" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G414" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="H414" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" ht="41.4" customHeight="1">
+      <c r="A415" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B415" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415" s="14"/>
+      <c r="D415" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="E415" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="F415" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G415" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="H415" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="69" customHeight="1">
+      <c r="A416" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B416" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C416" s="14"/>
+      <c r="D416" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="E416" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="F416" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G416" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="H416" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" ht="69" customHeight="1">
+      <c r="A417" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B417" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C403"/>
-      <c r="D403" t="s">
-        <v>853</v>
-      </c>
-      <c r="E403" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F403" t="s">
-        <v>379</v>
-      </c>
-      <c r="G403" t="s">
-        <v>854</v>
-      </c>
-      <c r="H403" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" ht="27.6">
-      <c r="A404" t="s">
+      <c r="C417" s="14"/>
+      <c r="D417" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="E417" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="F417" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="G417" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="H417" s="14" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" ht="193.2" customHeight="1">
+      <c r="A418" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B418" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C418" s="14"/>
+      <c r="D418" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="E418" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="F418" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G418" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="H418" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="151.80000000000001" customHeight="1">
+      <c r="A419" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B419" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C419" s="14"/>
+      <c r="D419" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="E419" s="26" t="s">
+        <v>902</v>
+      </c>
+      <c r="F419" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G419" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="H419" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" ht="41.4">
+      <c r="A420" t="s">
+        <v>8</v>
+      </c>
+      <c r="B420" t="s">
+        <v>38</v>
+      </c>
+      <c r="C420"/>
+      <c r="D420" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E420" s="26" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F420" t="s">
+        <v>383</v>
+      </c>
+      <c r="G420" t="s">
+        <v>904</v>
+      </c>
+      <c r="H420" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="A421" t="s">
+        <v>8</v>
+      </c>
+      <c r="B421" t="s">
+        <v>38</v>
+      </c>
+      <c r="C421"/>
+      <c r="D421" t="s">
+        <v>905</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F421" t="s">
+        <v>383</v>
+      </c>
+      <c r="G421" t="s">
+        <v>906</v>
+      </c>
+      <c r="H421" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="41.4">
+      <c r="A422" t="s">
+        <v>16</v>
+      </c>
+      <c r="B422" t="s">
+        <v>17</v>
+      </c>
+      <c r="C422"/>
+      <c r="D422" t="s">
+        <v>907</v>
+      </c>
+      <c r="E422" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F422" t="s">
+        <v>383</v>
+      </c>
+      <c r="G422" t="s">
+        <v>908</v>
+      </c>
+      <c r="H422" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" t="s">
+        <v>16</v>
+      </c>
+      <c r="B423" t="s">
+        <v>359</v>
+      </c>
+      <c r="C423"/>
+      <c r="D423" t="s">
+        <v>909</v>
+      </c>
+      <c r="E423"/>
+      <c r="F423" t="s">
+        <v>383</v>
+      </c>
+      <c r="G423" t="s">
+        <v>910</v>
+      </c>
+      <c r="H423" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="A424" t="s">
         <v>32</v>
       </c>
-      <c r="B404" t="s">
-        <v>9</v>
-      </c>
-      <c r="C404"/>
-      <c r="D404" t="s">
-        <v>855</v>
-      </c>
-      <c r="E404" s="26" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F404" t="s">
+      <c r="B424" t="s">
+        <v>23</v>
+      </c>
+      <c r="C424" t="s">
+        <v>363</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F424" t="s">
         <v>383</v>
       </c>
-      <c r="G404" t="s">
-        <v>856</v>
-      </c>
-      <c r="H404" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" ht="82.8">
-      <c r="A405" t="s">
+      <c r="G424" t="s">
+        <v>911</v>
+      </c>
+      <c r="H424" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" ht="82.8">
+      <c r="A425" t="s">
         <v>32</v>
       </c>
-      <c r="B405" t="s">
-        <v>774</v>
-      </c>
-      <c r="C405"/>
-      <c r="D405" t="s">
-        <v>857</v>
-      </c>
-      <c r="E405" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F405" t="s">
-        <v>387</v>
-      </c>
-      <c r="G405" t="s">
-        <v>858</v>
-      </c>
-      <c r="H405" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
-      <c r="A406" t="s">
-        <v>32</v>
-      </c>
-      <c r="B406" t="s">
-        <v>38</v>
-      </c>
-      <c r="C406"/>
-      <c r="D406" t="s">
-        <v>859</v>
-      </c>
-      <c r="E406" t="s">
-        <v>860</v>
-      </c>
-      <c r="F406" t="s">
-        <v>379</v>
-      </c>
-      <c r="G406" t="s">
-        <v>861</v>
-      </c>
-      <c r="H406" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" ht="124.2">
-      <c r="A407" t="s">
+      <c r="B425" t="s">
+        <v>23</v>
+      </c>
+      <c r="C425" t="s">
+        <v>363</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E425" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F425" t="s">
+        <v>383</v>
+      </c>
+      <c r="G425" t="s">
+        <v>912</v>
+      </c>
+      <c r="H425" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" ht="151.80000000000001">
+      <c r="A426" t="s">
         <v>22</v>
       </c>
-      <c r="B407" t="s">
-        <v>38</v>
-      </c>
-      <c r="C407"/>
-      <c r="D407" t="s">
-        <v>851</v>
-      </c>
-      <c r="E407" s="26" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F407" t="s">
-        <v>379</v>
-      </c>
-      <c r="G407" t="s">
-        <v>862</v>
-      </c>
-      <c r="H407" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" ht="124.2">
-      <c r="A408" t="s">
+      <c r="B426" t="s">
+        <v>23</v>
+      </c>
+      <c r="C426" t="s">
+        <v>363</v>
+      </c>
+      <c r="D426" t="s">
+        <v>913</v>
+      </c>
+      <c r="E426" s="26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F426" t="s">
+        <v>383</v>
+      </c>
+      <c r="G426" t="s">
+        <v>914</v>
+      </c>
+      <c r="H426" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" ht="124.2">
+      <c r="A427" t="s">
         <v>22</v>
       </c>
-      <c r="B408" t="s">
-        <v>9</v>
-      </c>
-      <c r="C408" t="s">
-        <v>30</v>
-      </c>
-      <c r="D408" t="s">
-        <v>863</v>
-      </c>
-      <c r="E408" s="26" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F408" t="s">
-        <v>406</v>
-      </c>
-      <c r="G408" t="s">
-        <v>864</v>
-      </c>
-      <c r="H408" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" ht="151.80000000000001">
-      <c r="A409" t="s">
-        <v>22</v>
-      </c>
-      <c r="B409" t="s">
-        <v>38</v>
-      </c>
-      <c r="C409"/>
-      <c r="D409" t="s">
-        <v>865</v>
-      </c>
-      <c r="E409" s="26" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F409" t="s">
+      <c r="B427" t="s">
+        <v>23</v>
+      </c>
+      <c r="C427" t="s">
+        <v>363</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E427" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F427" t="s">
         <v>383</v>
       </c>
-      <c r="G409" t="s">
-        <v>866</v>
-      </c>
-      <c r="H409" t="s">
+      <c r="G427" t="s">
+        <v>915</v>
+      </c>
+      <c r="H427" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14162,1057 +14814,1057 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>867</v>
+        <v>916</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>868</v>
+        <v>917</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>869</v>
+        <v>918</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>870</v>
+        <v>919</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>872</v>
+        <v>921</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>873</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>870</v>
+        <v>919</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>874</v>
+        <v>923</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>875</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>870</v>
+        <v>919</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>876</v>
+        <v>925</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>877</v>
+        <v>926</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>870</v>
+        <v>919</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>878</v>
+        <v>927</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>879</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>870</v>
+        <v>919</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>880</v>
+        <v>929</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>881</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>882</v>
+        <v>931</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>883</v>
+        <v>932</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>884</v>
+        <v>933</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>882</v>
+        <v>931</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>885</v>
+        <v>934</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>886</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>882</v>
+        <v>931</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>887</v>
+        <v>936</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>888</v>
+        <v>937</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>882</v>
+        <v>931</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>889</v>
+        <v>938</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>890</v>
+        <v>939</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>882</v>
+        <v>931</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>891</v>
+        <v>940</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>892</v>
+        <v>941</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>893</v>
+        <v>942</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>894</v>
+        <v>943</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>895</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>893</v>
+        <v>942</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>896</v>
+        <v>945</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>897</v>
+        <v>946</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>893</v>
+        <v>942</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>898</v>
+        <v>947</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>899</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>893</v>
+        <v>942</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>900</v>
+        <v>949</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>901</v>
+        <v>950</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>903</v>
+        <v>952</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>904</v>
+        <v>953</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>905</v>
+        <v>954</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>906</v>
+        <v>955</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>907</v>
+        <v>956</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>908</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>909</v>
+        <v>958</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>910</v>
+        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>911</v>
+        <v>960</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>912</v>
+        <v>961</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>913</v>
+        <v>962</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>914</v>
+        <v>963</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>915</v>
+        <v>964</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>913</v>
+        <v>962</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>916</v>
+        <v>965</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>917</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>913</v>
+        <v>962</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>918</v>
+        <v>967</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>919</v>
+        <v>968</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>913</v>
+        <v>962</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>920</v>
+        <v>969</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>921</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>913</v>
+        <v>962</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>922</v>
+        <v>971</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>923</v>
+        <v>972</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>924</v>
+        <v>973</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>925</v>
+        <v>974</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>926</v>
+        <v>975</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>924</v>
+        <v>973</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>927</v>
+        <v>976</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>928</v>
+        <v>977</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>924</v>
+        <v>973</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>929</v>
+        <v>978</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>930</v>
+        <v>979</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>924</v>
+        <v>973</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>931</v>
+        <v>980</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>932</v>
+        <v>981</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>924</v>
+        <v>973</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>933</v>
+        <v>982</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>934</v>
+        <v>983</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>935</v>
+        <v>984</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>936</v>
+        <v>985</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>937</v>
+        <v>986</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>935</v>
+        <v>984</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>938</v>
+        <v>987</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>939</v>
+        <v>988</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>935</v>
+        <v>984</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>940</v>
+        <v>989</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>941</v>
+        <v>990</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>935</v>
+        <v>984</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>942</v>
+        <v>991</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>943</v>
+        <v>992</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>935</v>
+        <v>984</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>944</v>
+        <v>993</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>945</v>
+        <v>994</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>946</v>
+        <v>995</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>947</v>
+        <v>996</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>948</v>
+        <v>997</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>946</v>
+        <v>995</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>949</v>
+        <v>998</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>950</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>946</v>
+        <v>995</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>951</v>
+        <v>1000</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>952</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>946</v>
+        <v>995</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>953</v>
+        <v>1002</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>954</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>946</v>
+        <v>995</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>955</v>
+        <v>1004</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>956</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>957</v>
+        <v>1006</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>958</v>
+        <v>1007</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>959</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>957</v>
+        <v>1006</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>960</v>
+        <v>1009</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>961</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>957</v>
+        <v>1006</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>962</v>
+        <v>1011</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>963</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>957</v>
+        <v>1006</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>964</v>
+        <v>1013</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>965</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>957</v>
+        <v>1006</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>966</v>
+        <v>1015</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>967</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.4" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>968</v>
+        <v>1017</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>969</v>
+        <v>1018</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>970</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.4" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>968</v>
+        <v>1017</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>971</v>
+        <v>1020</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>972</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.4" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>968</v>
+        <v>1017</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>973</v>
+        <v>1022</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>974</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>968</v>
+        <v>1017</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>975</v>
+        <v>1024</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>976</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>968</v>
+        <v>1017</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>977</v>
+        <v>1026</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>978</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>980</v>
+        <v>1029</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>981</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.4" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>982</v>
+        <v>1031</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>983</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.4" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>984</v>
+        <v>1033</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>985</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.4" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>986</v>
+        <v>1035</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>987</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.4" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>979</v>
+        <v>1028</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>975</v>
+        <v>1024</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>988</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>989</v>
+        <v>1038</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>990</v>
+        <v>1039</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>991</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.4" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>989</v>
+        <v>1038</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>992</v>
+        <v>1041</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>993</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.4" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>989</v>
+        <v>1038</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>994</v>
+        <v>1043</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>995</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.4" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>989</v>
+        <v>1038</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>996</v>
+        <v>1045</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>989</v>
+        <v>1038</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>999</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.4" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1001</v>
+        <v>1050</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>1002</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.4" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>1003</v>
+        <v>1052</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>1004</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.4" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>1005</v>
+        <v>1054</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>1006</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>1007</v>
+        <v>1056</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>1008</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.4" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>1009</v>
+        <v>1058</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>1010</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.4" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>1011</v>
+        <v>1060</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>1012</v>
+        <v>1061</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>1013</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.4" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>1011</v>
+        <v>1060</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1014</v>
+        <v>1063</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1015</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.4" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>1011</v>
+        <v>1060</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>1016</v>
+        <v>1065</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>1017</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.4" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>1011</v>
+        <v>1060</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>1018</v>
+        <v>1067</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>1019</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>1011</v>
+        <v>1060</v>
       </c>
       <c r="B70" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1020</v>
+        <v>1069</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>1021</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.4" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>1022</v>
+        <v>1071</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1023</v>
+        <v>1072</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>1024</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.4" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>1022</v>
+        <v>1071</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1025</v>
+        <v>1074</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>1026</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.4" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>1022</v>
+        <v>1071</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>1027</v>
+        <v>1076</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>1028</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.4" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>1022</v>
+        <v>1071</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>1029</v>
+        <v>1078</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>1030</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.4" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>1022</v>
+        <v>1071</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>1031</v>
+        <v>1080</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>1032</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.4" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>1033</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/zentao/禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/禅道每日审查_测试.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1096">
   <si>
     <t>姓名</t>
   </si>
@@ -4354,6 +4354,14 @@
 _x000D_
 	造患者数据，测试患者是否能按照不同的匹配规则进行打分_x000D_
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常，已完成70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常，已完成80%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4908,7 +4916,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D425" sqref="D425"/>
+      <selection pane="bottomLeft" activeCell="G422" sqref="G422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="13.8"/>
@@ -14684,7 +14692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" ht="27.6">
       <c r="A424" t="s">
         <v>32</v>
       </c>
@@ -14697,7 +14705,7 @@
       <c r="D424" t="s">
         <v>1084</v>
       </c>
-      <c r="E424" t="s">
+      <c r="E424" s="26" t="s">
         <v>1090</v>
       </c>
       <c r="F424" t="s">
@@ -14706,8 +14714,8 @@
       <c r="G424" t="s">
         <v>911</v>
       </c>
-      <c r="H424" t="s">
-        <v>50</v>
+      <c r="H424" s="14" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="82.8">
@@ -14759,7 +14767,7 @@
         <v>914</v>
       </c>
       <c r="H426" t="s">
-        <v>50</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="124.2">
@@ -14784,8 +14792,8 @@
       <c r="G427" t="s">
         <v>915</v>
       </c>
-      <c r="H427" t="s">
-        <v>50</v>
+      <c r="H427" s="14" t="s">
+        <v>1094</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/zentao/禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/禅道每日审查_测试.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="每日禅道审查" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="每日核心思想" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="每日禅道审查" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="每日核心思想" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'每日禅道审查'!$A$1:$H$227</definedName>
@@ -253,6 +253,74 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -557,7 +625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H444"/>
+  <dimension ref="A1:H468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
@@ -16504,718 +16572,1662 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
+      <c r="A428" s="14" t="inlineStr">
         <is>
           <t>胡小寒</t>
         </is>
       </c>
-      <c r="B428" t="inlineStr">
+      <c r="B428" s="14" t="inlineStr">
         <is>
           <t>普陀区中心医院远程心电项目</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr">
+      <c r="C428" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D428" t="inlineStr">
+      <c r="D428" s="14" t="inlineStr">
         <is>
           <t>saas随访方案页面用例编写（95%）</t>
         </is>
       </c>
-      <c r="E428" t="inlineStr">
+      <c r="E428" s="14" t="inlineStr">
         <is>
           <t>saas随访方案页面用例编写（95%）</t>
         </is>
       </c>
-      <c r="F428" t="inlineStr">
+      <c r="F428" s="14" t="inlineStr">
         <is>
           <t>1.5</t>
         </is>
       </c>
-      <c r="G428" t="inlineStr">
+      <c r="G428" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:16:57</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
+      <c r="H428" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr">
+      <c r="A429" s="14" t="inlineStr">
         <is>
           <t>胡小寒</t>
         </is>
       </c>
-      <c r="B429" t="inlineStr">
+      <c r="B429" s="14" t="inlineStr">
         <is>
           <t>家床-金山石化社区</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr">
+      <c r="C429" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D429" t="inlineStr">
+      <c r="D429" s="14" t="inlineStr">
         <is>
           <t>2.0版本电子病历保存诊断问题验证测试，人员信息bug验证、服务中心患者列表bug验证</t>
         </is>
       </c>
-      <c r="E429" t="inlineStr">
+      <c r="E429" s="14" t="inlineStr">
         <is>
           <t>2.0版本电子病历保存诊断问题验证测试，人员信息bug验证、服务中心患者列表bug验证</t>
         </is>
       </c>
-      <c r="F429" t="inlineStr">
+      <c r="F429" s="14" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="G429" t="inlineStr">
+      <c r="G429" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:21:18</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
+      <c r="H429" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
+      <c r="A430" s="14" t="inlineStr">
         <is>
           <t>胡小寒</t>
         </is>
       </c>
-      <c r="B430" t="inlineStr">
+      <c r="B430" s="14" t="inlineStr">
         <is>
           <t>普陀区中心医院远程心电项目</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr">
+      <c r="C430" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr">
+      <c r="D430" s="14" t="inlineStr">
         <is>
           <t>用户中心原型、UI等熟悉</t>
         </is>
       </c>
-      <c r="E430" t="inlineStr">
+      <c r="E430" s="14" t="inlineStr">
         <is>
           <t>用户中心原型、UI等熟悉</t>
         </is>
       </c>
-      <c r="F430" t="inlineStr">
+      <c r="F430" s="14" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="G430" t="inlineStr">
+      <c r="G430" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:22:45</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
+      <c r="H430" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
+      <c r="A431" s="14" t="inlineStr">
         <is>
           <t>胡小寒</t>
         </is>
       </c>
-      <c r="B431" t="inlineStr">
+      <c r="B431" s="14" t="inlineStr">
         <is>
           <t>测试日常工作</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr">
+      <c r="C431" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D431" t="inlineStr">
+      <c r="D431" s="14" t="inlineStr">
         <is>
           <t>selenium元素定位方法学习</t>
         </is>
       </c>
-      <c r="E431" t="inlineStr">
+      <c r="E431" s="14" t="inlineStr">
         <is>
           <t>selenium元素定位方法学习</t>
         </is>
       </c>
-      <c r="F431" t="inlineStr">
+      <c r="F431" s="14" t="inlineStr">
         <is>
           <t>1.5</t>
         </is>
       </c>
-      <c r="G431" t="inlineStr">
+      <c r="G431" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:25:23</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
+      <c r="H431" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
+      <c r="A432" s="14" t="inlineStr">
         <is>
           <t>胡小寒</t>
         </is>
       </c>
-      <c r="B432" t="inlineStr">
+      <c r="B432" s="14" t="inlineStr">
         <is>
           <t>测试日常工作</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr">
+      <c r="C432" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D432" t="inlineStr">
+      <c r="D432" s="14" t="inlineStr">
         <is>
           <t>python继承相关知识培训学习</t>
         </is>
       </c>
-      <c r="E432" t="inlineStr">
+      <c r="E432" s="14" t="inlineStr">
         <is>
           <t>python继承相关知识培训学习</t>
         </is>
       </c>
-      <c r="F432" t="inlineStr">
+      <c r="F432" s="14" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="G432" t="inlineStr">
+      <c r="G432" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:25:27</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
+      <c r="H432" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
+      <c r="A433" s="14" t="inlineStr">
         <is>
           <t>舒阳阳</t>
         </is>
       </c>
-      <c r="B433" t="inlineStr">
+      <c r="B433" s="14" t="inlineStr">
         <is>
           <t>电子健康档案数据管理平台产品研发项目</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr">
+      <c r="C433" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr">
+      <c r="D433" s="14" t="inlineStr">
         <is>
           <t>v2.1.0需求测试用例编写（1）</t>
         </is>
       </c>
-      <c r="E433" t="inlineStr">
+      <c r="E433" s="14" t="inlineStr">
         <is>
           <t>1.进行v2.1.0需求测试用例编写完成50%</t>
         </is>
       </c>
-      <c r="F433" t="inlineStr">
+      <c r="F433" s="14" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="G433" t="inlineStr">
+      <c r="G433" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:27:06</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
+      <c r="H433" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
+      <c r="A434" s="14" t="inlineStr">
         <is>
           <t>舒阳阳</t>
         </is>
       </c>
-      <c r="B434" t="inlineStr">
+      <c r="B434" s="14" t="inlineStr">
         <is>
           <t>电子健康档案数据管理平台产品研发项目</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr">
+      <c r="C434" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D434" t="inlineStr">
+      <c r="D434" s="14" t="inlineStr">
         <is>
           <t>v2.0.1需求测试用例编写（2）</t>
         </is>
       </c>
-      <c r="E434" t="inlineStr"/>
-      <c r="F434" t="inlineStr">
+      <c r="E434" s="14" t="inlineStr"/>
+      <c r="F434" s="14" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="G434" t="inlineStr">
+      <c r="G434" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:27:45</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
+      <c r="H434" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
+      <c r="A435" s="14" t="inlineStr">
         <is>
           <t>舒阳阳</t>
         </is>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B435" s="14" t="inlineStr">
         <is>
           <t>测试日常工作</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D435" t="inlineStr">
+      <c r="D435" s="14" t="inlineStr">
         <is>
           <t>python相关知识学习，继承、xpath定位方法学习</t>
         </is>
       </c>
-      <c r="E435" t="inlineStr"/>
-      <c r="F435" t="inlineStr">
+      <c r="E435" s="14" t="inlineStr"/>
+      <c r="F435" s="14" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="G435" t="inlineStr">
+      <c r="G435" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:29:19</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
+      <c r="H435" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
+      <c r="A436" s="14" t="inlineStr">
         <is>
           <t>赵云</t>
         </is>
       </c>
-      <c r="B436" t="inlineStr">
+      <c r="B436" s="14" t="inlineStr">
         <is>
           <t>医院信息集成平台产品研发项目</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
+      <c r="C436" s="14" t="inlineStr">
         <is>
           <t>empi</t>
         </is>
       </c>
-      <c r="D436" t="inlineStr">
+      <c r="D436" s="14" t="inlineStr">
         <is>
           <t>验证患者合并时，部分字段没有显示数据问题</t>
         </is>
       </c>
-      <c r="E436" t="inlineStr">
+      <c r="E436" s="14" t="inlineStr">
         <is>
           <t>造业务数据，验证bug 4687</t>
         </is>
       </c>
-      <c r="F436" t="inlineStr">
+      <c r="F436" s="14" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="G436" t="inlineStr">
+      <c r="G436" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:19:06</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
+      <c r="H436" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
+      <c r="A437" s="14" t="inlineStr">
         <is>
           <t>赵云</t>
         </is>
       </c>
-      <c r="B437" t="inlineStr">
+      <c r="B437" s="14" t="inlineStr">
         <is>
           <t>PIM白茅岭产品迭代</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
+      <c r="C437" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D437" t="inlineStr">
+      <c r="D437" s="14" t="inlineStr">
         <is>
           <t>测试医嘱请药时，小数剂量的药品，数量未取整问题</t>
         </is>
       </c>
-      <c r="E437" t="inlineStr">
+      <c r="E437" s="14" t="inlineStr">
         <is>
           <t>测试医嘱请药时，小数剂量的药品，数量未取整问题</t>
         </is>
       </c>
-      <c r="F437" t="inlineStr">
+      <c r="F437" s="14" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="G437" t="inlineStr">
+      <c r="G437" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:25:07</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
+      <c r="H437" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
+      <c r="A438" s="14" t="inlineStr">
         <is>
           <t>赵云</t>
         </is>
       </c>
-      <c r="B438" t="inlineStr">
+      <c r="B438" s="14" t="inlineStr">
         <is>
           <t>测试日常工作</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
+      <c r="C438" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D438" t="inlineStr">
+      <c r="D438" s="14" t="inlineStr">
         <is>
           <t>python培训，学习类的继承</t>
         </is>
       </c>
-      <c r="E438" t="inlineStr">
+      <c r="E438" s="14" t="inlineStr">
         <is>
           <t>python培训，学习类的继承</t>
         </is>
       </c>
-      <c r="F438" t="inlineStr">
+      <c r="F438" s="14" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="G438" t="inlineStr">
+      <c r="G438" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:26:21</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
+      <c r="H438" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
+      <c r="A439" s="14" t="inlineStr">
         <is>
           <t>赵云</t>
         </is>
       </c>
-      <c r="B439" t="inlineStr">
+      <c r="B439" s="14" t="inlineStr">
         <is>
           <t>测试日常工作</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
+      <c r="C439" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D439" t="inlineStr">
+      <c r="D439" s="14" t="inlineStr">
         <is>
           <t>学习python自动化，xpath定位元素</t>
         </is>
       </c>
-      <c r="E439" t="inlineStr">
+      <c r="E439" s="14" t="inlineStr">
         <is>
           <t>学习如何使用xpath定位元素</t>
         </is>
       </c>
-      <c r="F439" t="inlineStr">
+      <c r="F439" s="14" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="G439" t="inlineStr">
+      <c r="G439" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:28:14</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
+      <c r="H439" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
+      <c r="A440" s="14" t="inlineStr">
         <is>
           <t>赵云</t>
         </is>
       </c>
-      <c r="B440" t="inlineStr">
+      <c r="B440" s="14" t="inlineStr">
         <is>
           <t>PIM白茅岭产品迭代</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
+      <c r="C440" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D440" t="inlineStr">
+      <c r="D440" s="14" t="inlineStr">
         <is>
           <t>跟进现场ac频次问题</t>
         </is>
       </c>
-      <c r="E440" t="inlineStr">
+      <c r="E440" s="14" t="inlineStr">
         <is>
           <t>远程现场，查看ac频次（医生理解错误，开错频次）</t>
         </is>
       </c>
-      <c r="F440" t="inlineStr">
+      <c r="F440" s="14" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="G440" t="inlineStr">
+      <c r="G440" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:33:02</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
+      <c r="H440" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
+      <c r="A441" s="14" t="inlineStr">
         <is>
           <t>赵云</t>
         </is>
       </c>
-      <c r="B441" t="inlineStr">
+      <c r="B441" s="14" t="inlineStr">
         <is>
           <t>PIM白茅岭产品迭代</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr">
+      <c r="C441" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D441" t="inlineStr">
+      <c r="D441" s="14" t="inlineStr">
         <is>
           <t>跟进军天湖现场，请药数据不对问题</t>
         </is>
       </c>
-      <c r="E441" t="inlineStr">
+      <c r="E441" s="14" t="inlineStr">
         <is>
           <t>军天湖更新时，部分代码未更新到，导致数据有问题</t>
         </is>
       </c>
-      <c r="F441" t="inlineStr">
+      <c r="F441" s="14" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="G441" t="inlineStr">
+      <c r="G441" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:33:07</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
+      <c r="H441" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
+      <c r="A442" s="14" t="inlineStr">
         <is>
           <t>陈晓东</t>
         </is>
       </c>
-      <c r="B442" t="inlineStr">
+      <c r="B442" s="14" t="inlineStr">
         <is>
           <t>测试日常工作</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr">
+      <c r="C442" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr">
+      <c r="D442" s="14" t="inlineStr">
         <is>
           <t>python 培训课程5 -继承关系</t>
         </is>
       </c>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+      <c r="E442" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	</t>
         </is>
       </c>
-      <c r="F442" t="inlineStr">
+      <c r="F442" s="14" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="G442" t="inlineStr">
+      <c r="G442" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:13:52</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
+      <c r="H442" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
+      <c r="A443" s="14" t="inlineStr">
         <is>
           <t>陈晓东</t>
         </is>
       </c>
-      <c r="B443" t="inlineStr">
+      <c r="B443" s="14" t="inlineStr">
         <is>
           <t>测试日常工作</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr">
+      <c r="C443" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D443" t="inlineStr">
+      <c r="D443" s="14" t="inlineStr">
         <is>
           <t>学习元素定位方法/练习</t>
         </is>
       </c>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	学习常用四种元素定位方法
-	1by_name
-	2by_id
-	3by_xpath
-	4by_css_selector
+      <c r="E443" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	学习常用四种元素定位方法
+	1by_name
+	2by_id
+	3by_xpath
+	4by_css_selector
 </t>
         </is>
       </c>
-      <c r="F443" t="inlineStr">
+      <c r="F443" s="14" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="G443" t="inlineStr">
+      <c r="G443" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:17:54</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
+      <c r="H443" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
+      <c r="A444" s="14" t="inlineStr">
         <is>
           <t>陈晓东</t>
         </is>
       </c>
-      <c r="B444" t="inlineStr">
+      <c r="B444" s="14" t="inlineStr">
         <is>
           <t>普陀区中心医院远程心电项目</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
+      <c r="C444" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr">
+      <c r="D444" s="14" t="inlineStr">
         <is>
           <t>查看已编写心电平台-元素库/增删改查/引用，标签-增删改/层级关系/字符类型-用例设计</t>
         </is>
       </c>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1标签-增删改/边界值/字符类型/标签层级关系
-	2元素库-
-	新增数字类型元素/引用/数据类型校验/边界值
-	新增字符类型元素/新增./字符类型校验覆盖/
+      <c r="E444" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1标签-增删改/边界值/字符类型/标签层级关系
+	2元素库-
+	新增数字类型元素/引用/数据类型校验/边界值
+	新增字符类型元素/新增./字符类型校验覆盖/
 </t>
         </is>
       </c>
-      <c r="F444" t="inlineStr">
+      <c r="F444" s="14" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="G444" t="inlineStr">
+      <c r="G444" s="14" t="inlineStr">
         <is>
           <t>2020-07-07 18:30:34</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
+      <c r="H444" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B445" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C445" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D445" s="14" t="inlineStr">
+        <is>
+          <t>中心系统与定点医疗机构接口编写设计</t>
+        </is>
+      </c>
+      <c r="E445" s="14" t="inlineStr"/>
+      <c r="F445" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G445" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:11:10</t>
+        </is>
+      </c>
+      <c r="H445" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B446" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C446" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D446" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E446" s="14" t="inlineStr"/>
+      <c r="F446" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G446" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:09:34</t>
+        </is>
+      </c>
+      <c r="H446" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B447" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C447" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D447" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E447" s="14" t="inlineStr">
+        <is>
+          <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
+        </is>
+      </c>
+      <c r="F447" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G447" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:13:54</t>
+        </is>
+      </c>
+      <c r="H447" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B448" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C448" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D448" s="14" t="inlineStr">
+        <is>
+          <t>中心系统与定点医疗机构接口编写设计</t>
+        </is>
+      </c>
+      <c r="E448" s="14" t="inlineStr"/>
+      <c r="F448" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G448" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:11:10</t>
+        </is>
+      </c>
+      <c r="H448" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B449" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C449" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D449" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E449" s="14" t="inlineStr"/>
+      <c r="F449" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G449" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:09:34</t>
+        </is>
+      </c>
+      <c r="H449" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B450" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C450" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D450" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E450" s="14" t="inlineStr">
+        <is>
+          <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
+        </is>
+      </c>
+      <c r="F450" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G450" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:13:54</t>
+        </is>
+      </c>
+      <c r="H450" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B451" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C451" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D451" s="14" t="inlineStr">
+        <is>
+          <t>中心系统与定点医疗机构接口编写设计</t>
+        </is>
+      </c>
+      <c r="E451" s="14" t="inlineStr"/>
+      <c r="F451" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G451" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:11:10</t>
+        </is>
+      </c>
+      <c r="H451" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B452" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C452" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D452" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E452" s="14" t="inlineStr"/>
+      <c r="F452" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G452" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:09:34</t>
+        </is>
+      </c>
+      <c r="H452" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B453" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C453" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D453" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E453" s="14" t="inlineStr">
+        <is>
+          <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
+        </is>
+      </c>
+      <c r="F453" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G453" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:13:54</t>
+        </is>
+      </c>
+      <c r="H453" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B454" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C454" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D454" s="14" t="inlineStr">
+        <is>
+          <t>中心系统与定点医疗机构接口编写设计</t>
+        </is>
+      </c>
+      <c r="E454" s="14" t="inlineStr"/>
+      <c r="F454" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G454" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:11:10</t>
+        </is>
+      </c>
+      <c r="H454" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B455" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C455" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D455" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E455" s="14" t="inlineStr"/>
+      <c r="F455" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G455" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:09:34</t>
+        </is>
+      </c>
+      <c r="H455" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B456" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C456" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D456" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E456" s="14" t="inlineStr">
+        <is>
+          <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
+        </is>
+      </c>
+      <c r="F456" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G456" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:13:54</t>
+        </is>
+      </c>
+      <c r="H456" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B457" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C457" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D457" s="14" t="inlineStr">
+        <is>
+          <t>中心系统与定点医疗机构接口编写设计</t>
+        </is>
+      </c>
+      <c r="E457" s="14" t="inlineStr"/>
+      <c r="F457" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G457" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:11:10</t>
+        </is>
+      </c>
+      <c r="H457" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B458" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C458" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D458" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E458" s="14" t="inlineStr"/>
+      <c r="F458" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G458" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:09:34</t>
+        </is>
+      </c>
+      <c r="H458" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B459" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C459" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D459" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E459" s="14" t="inlineStr">
+        <is>
+          <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
+        </is>
+      </c>
+      <c r="F459" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G459" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:13:54</t>
+        </is>
+      </c>
+      <c r="H459" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B460" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C460" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D460" s="14" t="inlineStr">
+        <is>
+          <t>中心系统与定点医疗机构接口编写设计</t>
+        </is>
+      </c>
+      <c r="E460" s="14" t="inlineStr"/>
+      <c r="F460" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G460" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:11:10</t>
+        </is>
+      </c>
+      <c r="H460" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B461" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C461" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D461" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E461" s="14" t="inlineStr"/>
+      <c r="F461" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G461" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:09:34</t>
+        </is>
+      </c>
+      <c r="H461" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B462" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C462" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D462" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E462" s="14" t="inlineStr">
+        <is>
+          <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
+        </is>
+      </c>
+      <c r="F462" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G462" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:13:54</t>
+        </is>
+      </c>
+      <c r="H462" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B463" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C463" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D463" s="14" t="inlineStr">
+        <is>
+          <t>中心系统与定点医疗机构接口编写设计</t>
+        </is>
+      </c>
+      <c r="E463" s="14" t="inlineStr"/>
+      <c r="F463" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G463" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:11:10</t>
+        </is>
+      </c>
+      <c r="H463" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B464" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C464" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D464" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E464" s="14" t="inlineStr"/>
+      <c r="F464" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G464" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:09:34</t>
+        </is>
+      </c>
+      <c r="H464" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B465" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C465" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D465" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E465" s="14" t="inlineStr">
+        <is>
+          <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
+        </is>
+      </c>
+      <c r="F465" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G465" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:13:54</t>
+        </is>
+      </c>
+      <c r="H465" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>中心系统与定点医疗机构接口编写设计</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:11:10</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:09:34</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:13:54</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
         <is>
           <t>正常</t>
         </is>

--- a/instance/zyjk/zentao/禅道每日审查_测试.xlsx
+++ b/instance/zyjk/zentao/禅道每日审查_测试.xlsx
@@ -625,7 +625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H468"/>
+  <dimension ref="A1:H511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
@@ -18116,118 +18116,2012 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr">
+      <c r="A466" s="14" t="inlineStr">
         <is>
           <t>金浩</t>
         </is>
       </c>
-      <c r="B466" t="inlineStr">
+      <c r="B466" s="14" t="inlineStr">
         <is>
           <t>测试日常工作</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr">
+      <c r="C466" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D466" t="inlineStr">
+      <c r="D466" s="14" t="inlineStr">
         <is>
           <t>中心系统与定点医疗机构接口编写设计</t>
         </is>
       </c>
-      <c r="E466" t="inlineStr"/>
-      <c r="F466" t="inlineStr">
+      <c r="E466" s="14" t="inlineStr"/>
+      <c r="F466" s="14" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G466" t="inlineStr">
+      <c r="G466" s="14" t="inlineStr">
         <is>
           <t>2021-03-10 18:11:10</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
+      <c r="H466" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
+      <c r="A467" s="14" t="inlineStr">
         <is>
           <t>陈晓东</t>
         </is>
       </c>
-      <c r="B467" t="inlineStr">
+      <c r="B467" s="14" t="inlineStr">
         <is>
           <t>普陀区中心医院远程心电项目</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr">
+      <c r="C467" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D467" t="inlineStr">
+      <c r="D467" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
         </is>
       </c>
-      <c r="E467" t="inlineStr"/>
-      <c r="F467" t="inlineStr">
+      <c r="E467" s="14" t="inlineStr"/>
+      <c r="F467" s="14" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="G467" t="inlineStr">
+      <c r="G467" s="14" t="inlineStr">
         <is>
           <t>2021-03-10 18:09:34</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
+      <c r="H467" s="14" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
+      <c r="A468" s="14" t="inlineStr">
         <is>
           <t>陈晓东</t>
         </is>
       </c>
-      <c r="B468" t="inlineStr">
+      <c r="B468" s="14" t="inlineStr">
         <is>
           <t>普陀区中心医院远程心电项目</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
+      <c r="C468" s="14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D468" t="inlineStr">
+      <c r="D468" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
         </is>
       </c>
-      <c r="E468" t="inlineStr">
+      <c r="E468" s="14" t="inlineStr">
         <is>
           <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
         </is>
       </c>
-      <c r="F468" t="inlineStr">
+      <c r="F468" s="14" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="G468" t="inlineStr">
+      <c r="G468" s="14" t="inlineStr">
         <is>
           <t>2021-03-10 18:13:54</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
+      <c r="H468" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B469" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C469" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D469" s="14" t="inlineStr">
+        <is>
+          <t>中心系统与定点医疗机构接口编写设计</t>
+        </is>
+      </c>
+      <c r="E469" s="14" t="inlineStr"/>
+      <c r="F469" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G469" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:11:10</t>
+        </is>
+      </c>
+      <c r="H469" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B470" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C470" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D470" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者待处理+转入申请-数据维护+用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E470" s="14" t="inlineStr"/>
+      <c r="F470" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G470" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:09:34</t>
+        </is>
+      </c>
+      <c r="H470" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B471" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C471" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D471" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-患者转诊详情+随访方案流程讨论-用例执行/问题反馈</t>
+        </is>
+      </c>
+      <c r="E471" s="14" t="inlineStr">
+        <is>
+          <t>1随访-app端新增的患者要在pc端增加随访方案，但是pc端跟调的接口是心电的，查询不到app端的患者，讨论结果-待产品确认</t>
+        </is>
+      </c>
+      <c r="F471" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G471" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-10 18:13:54</t>
+        </is>
+      </c>
+      <c r="H471" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="14" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B472" s="14" t="inlineStr">
+        <is>
+          <t>电子健康档案数据管理平台产品研发项目</t>
+        </is>
+      </c>
+      <c r="C472" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D472" s="14" t="inlineStr">
+        <is>
+          <t>协助实施对田林社区进行质控与检测</t>
+        </is>
+      </c>
+      <c r="E472" s="14" t="inlineStr"/>
+      <c r="F472" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G472" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 07:25:47</t>
+        </is>
+      </c>
+      <c r="H472" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B473" s="14" t="inlineStr">
+        <is>
+          <t>PIM白茅岭产品迭代</t>
+        </is>
+      </c>
+      <c r="C473" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D473" s="14" t="inlineStr">
+        <is>
+          <t>复现检验医技确认时，申请单状态未改变情况</t>
+        </is>
+      </c>
+      <c r="E473" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	开发反馈现场去年12月有一条检验数据检验科的人进行医技确认后，申请单状态不对的问题（申请单表中状态未改变、明细表中状态改变了）
+	用公司81环境尝试复现该情况（推测可能是网络异常或服务器异常时操作系统引起的），暂未复现出该问题
+</t>
+        </is>
+      </c>
+      <c r="F473" s="14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G473" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 17:42:29</t>
+        </is>
+      </c>
+      <c r="H473" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B474" s="14" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C474" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D474" s="14" t="inlineStr">
+        <is>
+          <t>测试妇幼两癌筛查-宫颈癌筛查页面功能</t>
+        </is>
+      </c>
+      <c r="E474" s="14" t="inlineStr">
+        <is>
+          <t>测试宫颈癌筛查：宫颈细胞医学检查信息页面、VIA/VILI检查信息页面、阴道镜检查信息页面、组织病理检查信息页面、最后诊断信息页面、随访治疗情况页面</t>
+        </is>
+      </c>
+      <c r="F474" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G474" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 17:47:47</t>
+        </is>
+      </c>
+      <c r="H474" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B475" s="14" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C475" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D475" s="14" t="inlineStr">
+        <is>
+          <t>测试妇幼两癌筛查-乳腺癌筛查页面功能</t>
+        </is>
+      </c>
+      <c r="E475" s="14" t="inlineStr">
+        <is>
+          <t>测试乳腺癌筛查中的表单提交页面：病史情况信息页面、乳腺触诊信息页面、乳腺彩色超声检查信息页面、乳腺X线检查信息页面、最终随访结果页面</t>
+        </is>
+      </c>
+      <c r="F475" s="14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G475" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 17:51:21</t>
+        </is>
+      </c>
+      <c r="H475" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B476" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C476" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D476" s="14" t="inlineStr">
+        <is>
+          <t>下周工作计划文档整理及测试责任备课</t>
+        </is>
+      </c>
+      <c r="E476" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，整理组员的下周工作计划内容
+	2，整理禅道描述内容
+	3，测试责任课件的准备
+</t>
+        </is>
+      </c>
+      <c r="F476" s="14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G476" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 18:03:59</t>
+        </is>
+      </c>
+      <c r="H476" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B477" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C477" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D477" s="14" t="inlineStr">
+        <is>
+          <t>医保接口框架调整测试（2）</t>
+        </is>
+      </c>
+      <c r="E477" s="14" t="inlineStr">
+        <is>
+          <t>1，基于python自动化框架的优化，基于医保接口设计与调整</t>
+        </is>
+      </c>
+      <c r="F477" s="14" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G477" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 18:05:13</t>
+        </is>
+      </c>
+      <c r="H477" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="14" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B478" s="14" t="inlineStr">
+        <is>
+          <t>电子健康档案数据管理平台产品研发项目</t>
+        </is>
+      </c>
+      <c r="C478" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D478" s="14" t="inlineStr">
+        <is>
+          <t>协助实施对田林社区进行质控与检测</t>
+        </is>
+      </c>
+      <c r="E478" s="14" t="inlineStr"/>
+      <c r="F478" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G478" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 07:25:47</t>
+        </is>
+      </c>
+      <c r="H478" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B479" s="14" t="inlineStr">
+        <is>
+          <t>PIM白茅岭产品迭代</t>
+        </is>
+      </c>
+      <c r="C479" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D479" s="14" t="inlineStr">
+        <is>
+          <t>复现检验医技确认时，申请单状态未改变情况</t>
+        </is>
+      </c>
+      <c r="E479" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	开发反馈现场去年12月有一条检验数据检验科的人进行医技确认后，申请单状态不对的问题（申请单表中状态未改变、明细表中状态改变了）
+	用公司81环境尝试复现该情况（推测可能是网络异常或服务器异常时操作系统引起的），暂未复现出该问题
+</t>
+        </is>
+      </c>
+      <c r="F479" s="14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G479" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 17:42:29</t>
+        </is>
+      </c>
+      <c r="H479" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B480" s="14" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C480" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D480" s="14" t="inlineStr">
+        <is>
+          <t>测试妇幼两癌筛查-宫颈癌筛查页面功能</t>
+        </is>
+      </c>
+      <c r="E480" s="14" t="inlineStr">
+        <is>
+          <t>测试宫颈癌筛查：宫颈细胞医学检查信息页面、VIA/VILI检查信息页面、阴道镜检查信息页面、组织病理检查信息页面、最后诊断信息页面、随访治疗情况页面</t>
+        </is>
+      </c>
+      <c r="F480" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G480" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 17:47:47</t>
+        </is>
+      </c>
+      <c r="H480" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B481" s="14" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C481" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D481" s="14" t="inlineStr">
+        <is>
+          <t>测试妇幼两癌筛查-乳腺癌筛查页面功能</t>
+        </is>
+      </c>
+      <c r="E481" s="14" t="inlineStr">
+        <is>
+          <t>测试乳腺癌筛查中的表单提交页面：病史情况信息页面、乳腺触诊信息页面、乳腺彩色超声检查信息页面、乳腺X线检查信息页面、最终随访结果页面</t>
+        </is>
+      </c>
+      <c r="F481" s="14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G481" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 17:51:21</t>
+        </is>
+      </c>
+      <c r="H481" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B482" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C482" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D482" s="14" t="inlineStr">
+        <is>
+          <t>下周工作计划文档整理及测试责任备课</t>
+        </is>
+      </c>
+      <c r="E482" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，整理组员的下周工作计划内容
+	2，整理禅道描述内容
+	3，测试责任课件的准备
+</t>
+        </is>
+      </c>
+      <c r="F482" s="14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G482" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 18:03:59</t>
+        </is>
+      </c>
+      <c r="H482" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B483" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C483" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D483" s="14" t="inlineStr">
+        <is>
+          <t>医保接口框架调整测试（2）</t>
+        </is>
+      </c>
+      <c r="E483" s="14" t="inlineStr">
+        <is>
+          <t>1，基于python自动化框架的优化，基于医保接口设计与调整</t>
+        </is>
+      </c>
+      <c r="F483" s="14" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G483" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 18:05:13</t>
+        </is>
+      </c>
+      <c r="H483" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="14" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B484" s="14" t="inlineStr">
+        <is>
+          <t>电子健康档案数据管理平台产品研发项目</t>
+        </is>
+      </c>
+      <c r="C484" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D484" s="14" t="inlineStr">
+        <is>
+          <t>协助实施对田林社区进行质控与检测</t>
+        </is>
+      </c>
+      <c r="E484" s="14" t="inlineStr"/>
+      <c r="F484" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G484" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 07:25:47</t>
+        </is>
+      </c>
+      <c r="H484" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B485" s="14" t="inlineStr">
+        <is>
+          <t>PIM白茅岭产品迭代</t>
+        </is>
+      </c>
+      <c r="C485" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D485" s="14" t="inlineStr">
+        <is>
+          <t>复现检验医技确认时，申请单状态未改变情况</t>
+        </is>
+      </c>
+      <c r="E485" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	开发反馈现场去年12月有一条检验数据检验科的人进行医技确认后，申请单状态不对的问题（申请单表中状态未改变、明细表中状态改变了）
+	用公司81环境尝试复现该情况（推测可能是网络异常或服务器异常时操作系统引起的），暂未复现出该问题
+</t>
+        </is>
+      </c>
+      <c r="F485" s="14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G485" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 17:42:29</t>
+        </is>
+      </c>
+      <c r="H485" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B486" s="14" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C486" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D486" s="14" t="inlineStr">
+        <is>
+          <t>测试妇幼两癌筛查-宫颈癌筛查页面功能</t>
+        </is>
+      </c>
+      <c r="E486" s="14" t="inlineStr">
+        <is>
+          <t>测试宫颈癌筛查：宫颈细胞医学检查信息页面、VIA/VILI检查信息页面、阴道镜检查信息页面、组织病理检查信息页面、最后诊断信息页面、随访治疗情况页面</t>
+        </is>
+      </c>
+      <c r="F486" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G486" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 17:47:47</t>
+        </is>
+      </c>
+      <c r="H486" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B487" s="14" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C487" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D487" s="14" t="inlineStr">
+        <is>
+          <t>测试妇幼两癌筛查-乳腺癌筛查页面功能</t>
+        </is>
+      </c>
+      <c r="E487" s="14" t="inlineStr">
+        <is>
+          <t>测试乳腺癌筛查中的表单提交页面：病史情况信息页面、乳腺触诊信息页面、乳腺彩色超声检查信息页面、乳腺X线检查信息页面、最终随访结果页面</t>
+        </is>
+      </c>
+      <c r="F487" s="14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G487" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 17:51:21</t>
+        </is>
+      </c>
+      <c r="H487" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B488" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C488" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D488" s="14" t="inlineStr">
+        <is>
+          <t>下周工作计划文档整理及测试责任备课</t>
+        </is>
+      </c>
+      <c r="E488" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，整理组员的下周工作计划内容
+	2，整理禅道描述内容
+	3，测试责任课件的准备
+</t>
+        </is>
+      </c>
+      <c r="F488" s="14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G488" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 18:03:59</t>
+        </is>
+      </c>
+      <c r="H488" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="14" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B489" s="14" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C489" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D489" s="14" t="inlineStr">
+        <is>
+          <t>医保接口框架调整测试（2）</t>
+        </is>
+      </c>
+      <c r="E489" s="14" t="inlineStr">
+        <is>
+          <t>1，基于python自动化框架的优化，基于医保接口设计与调整</t>
+        </is>
+      </c>
+      <c r="F489" s="14" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G489" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-11 18:05:13</t>
+        </is>
+      </c>
+      <c r="H489" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="14" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B490" s="14" t="inlineStr">
+        <is>
+          <t>电子健康档案数据管理平台产品研发项目</t>
+        </is>
+      </c>
+      <c r="C490" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D490" s="14" t="inlineStr">
+        <is>
+          <t>田林现场发现问题反馈与解决</t>
+        </is>
+      </c>
+      <c r="E490" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.默认页面跳转问题，反馈给开发并修改，验证
+	2.页面适配问题反馈
+	3.质控问题详情问题验证，数据维护
+</t>
+        </is>
+      </c>
+      <c r="F490" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G490" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 17:59:00</t>
+        </is>
+      </c>
+      <c r="H490" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B491" s="14" t="inlineStr">
+        <is>
+          <t>PIM白茅岭产品迭代</t>
+        </is>
+      </c>
+      <c r="C491" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D491" s="14" t="inlineStr">
+        <is>
+          <t>与开发实施确认白茅岭现场需求与问题</t>
+        </is>
+      </c>
+      <c r="E491" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.与开发确认之前现场提的。患者死亡后，能从出院的患者中查到哪些是死亡患者，进而查询患者的医技执行记录
+	2.与实施确认现场药房库存数据异常问题，核对药房库存数据
+	3.确认实施说的住院处方打印未显示数据问题（更新时没有更新模板）
+</t>
+        </is>
+      </c>
+      <c r="F491" s="14" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G491" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:06:31</t>
+        </is>
+      </c>
+      <c r="H491" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B492" s="14" t="inlineStr">
+        <is>
+          <t>家庭病床产品研发项目</t>
+        </is>
+      </c>
+      <c r="C492" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D492" s="14" t="inlineStr">
+        <is>
+          <t>测试新的一体机设备使用患者端是否正常</t>
+        </is>
+      </c>
+      <c r="E492" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.患者端无法获取到设备号问题--已解决
+	2.患者端无法连接到新的耳温枪和血糖仪蓝牙
+	3.患者端无法正常上传血氧血压的测量数据
+</t>
+        </is>
+      </c>
+      <c r="F492" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G492" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:17:42</t>
+        </is>
+      </c>
+      <c r="H492" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B493" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C493" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D493" s="14" t="inlineStr">
+        <is>
+          <t>验证高血压患者小程序开发修复的bug</t>
+        </is>
+      </c>
+      <c r="E493" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.确认患者端注：未验证姓名、身份证号、手机号一致性问题；验证码错误弹窗弹出2次问题；
+	2.添加血压数据，高压=低压时无提示问题
+	3.高压、低压、心率最大值不对问题
+	4.添加测量时间时，年份选第一个时月份显示异常问题
+	5.历史血压数据测量时间无法修改问题
+	6.历史血压数据统计中高压、低压平均值计算不对问题
+	7.患者注册后手机号未显示问题
+	8.添加血压页面按钮名称不对问题
+</t>
+        </is>
+      </c>
+      <c r="F493" s="14" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G493" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:22:48</t>
+        </is>
+      </c>
+      <c r="H493" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B494" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C494" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D494" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-功能测试</t>
+        </is>
+      </c>
+      <c r="E494" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1对-双项转诊-待处理
+	2已接收
+	3转诊记录
+	转出-接收-转回-接收-多次转诊流程测试 - 问题反馈
+	</t>
+        </is>
+      </c>
+      <c r="F494" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G494" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:05:32</t>
+        </is>
+      </c>
+      <c r="H494" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B495" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C495" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D495" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-高血压评估+管理级别功能测试</t>
+        </is>
+      </c>
+      <c r="E495" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1高血压评估数据录入-功能测试
+	2高血压与管理级别联动
+	3问题反馈-配合开发确认高血压与管理级别不联动问题
+</t>
+        </is>
+      </c>
+      <c r="F495" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G495" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:08:03</t>
+        </is>
+      </c>
+      <c r="H495" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="14" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B496" s="14" t="inlineStr">
+        <is>
+          <t>电子健康档案数据管理平台产品研发项目</t>
+        </is>
+      </c>
+      <c r="C496" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D496" s="14" t="inlineStr">
+        <is>
+          <t>田林现场发现问题反馈与解决</t>
+        </is>
+      </c>
+      <c r="E496" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.默认页面跳转问题，反馈给开发并修改，验证
+	2.页面适配问题反馈
+	3.质控问题详情问题验证，数据维护
+</t>
+        </is>
+      </c>
+      <c r="F496" s="14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G496" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 17:59:00</t>
+        </is>
+      </c>
+      <c r="H496" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B497" s="14" t="inlineStr">
+        <is>
+          <t>PIM白茅岭产品迭代</t>
+        </is>
+      </c>
+      <c r="C497" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D497" s="14" t="inlineStr">
+        <is>
+          <t>与开发实施确认白茅岭现场需求与问题</t>
+        </is>
+      </c>
+      <c r="E497" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.与开发确认之前现场提的。患者死亡后，能从出院的患者中查到哪些是死亡患者，进而查询患者的医技执行记录
+	2.与实施确认现场药房库存数据异常问题，核对药房库存数据
+	3.确认实施说的住院处方打印未显示数据问题（更新时没有更新模板）
+</t>
+        </is>
+      </c>
+      <c r="F497" s="14" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G497" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:06:31</t>
+        </is>
+      </c>
+      <c r="H497" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B498" s="14" t="inlineStr">
+        <is>
+          <t>家庭病床产品研发项目</t>
+        </is>
+      </c>
+      <c r="C498" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D498" s="14" t="inlineStr">
+        <is>
+          <t>测试新的一体机设备使用患者端是否正常</t>
+        </is>
+      </c>
+      <c r="E498" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.患者端无法获取到设备号问题--已解决
+	2.患者端无法连接到新的耳温枪和血糖仪蓝牙
+	3.患者端无法正常上传血氧血压的测量数据
+</t>
+        </is>
+      </c>
+      <c r="F498" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G498" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:17:42</t>
+        </is>
+      </c>
+      <c r="H498" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="14" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B499" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C499" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D499" s="14" t="inlineStr">
+        <is>
+          <t>验证高血压患者小程序开发修复的bug</t>
+        </is>
+      </c>
+      <c r="E499" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.确认患者端注：未验证姓名、身份证号、手机号一致性问题；验证码错误弹窗弹出2次问题；
+	2.添加血压数据，高压=低压时无提示问题
+	3.高压、低压、心率最大值不对问题
+	4.添加测量时间时，年份选第一个时月份显示异常问题
+	5.历史血压数据测量时间无法修改问题
+	6.历史血压数据统计中高压、低压平均值计算不对问题
+	7.患者注册后手机号未显示问题
+	8.添加血压页面按钮名称不对问题
+</t>
+        </is>
+      </c>
+      <c r="F499" s="14" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G499" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:22:48</t>
+        </is>
+      </c>
+      <c r="H499" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B500" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C500" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D500" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-双向转诊-功能测试</t>
+        </is>
+      </c>
+      <c r="E500" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1对-双项转诊-待处理
+	2已接收
+	3转诊记录
+	转出-接收-转回-接收-多次转诊流程测试 - 问题反馈
+	</t>
+        </is>
+      </c>
+      <c r="F500" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G500" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:05:32</t>
+        </is>
+      </c>
+      <c r="H500" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B501" s="14" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C501" s="14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D501" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> saas-高血压-医生端-高血压评估+管理级别功能测试</t>
+        </is>
+      </c>
+      <c r="E501" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1高血压评估数据录入-功能测试
+	2高血压与管理级别联动
+	3问题反馈-配合开发确认高血压与管理级别不联动问题
+</t>
+        </is>
+      </c>
+      <c r="F501" s="14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G501" s="14" t="inlineStr">
+        <is>
+          <t>2021-03-12 18:08:03</t>
+        </is>
+      </c>
+      <c r="H501" s="14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>电子健康档案数据管理平台产品研发项目</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>前往前天山社区医院问题准备，问题分析</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，对天山社区提出问题进行分析，
+	2，跟进现场实施情况
+	3，问题沟通
+</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>2021-03-16 18:00:56</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>jmter性能测试工具知识补充</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>2021-03-16 18:02:53</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>家庭病床产品研发项目</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>配合开发测试家床一体机功能</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.测试一体机上体温数据与血糖数据上传与显示功能，并与开发沟通遇到的问题（目前血糖数据显示与上传均正常了。体温数据无法正常显示）
+	2.造用药提醒业务数据（准备相应的患者添加医嘱信息并修改收费信息，生成用药提醒数据）
+	</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>2021-03-16 17:53:52</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>PIM白茅岭产品迭代</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>与开发沟通药品报表信息数据库字段取值问题</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	给开发讲解药房药库中，药品库存数量存放，界面显示方式，药品库存数量扣除逻辑
+	讲解需要用到数据库中哪些字段，以及字段意义
+</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>2021-03-16 17:56:40</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>验证血糖数据判定以及患者注册相关bug</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.验证血糖数据判定问题，开发反馈已修复，实际复测还是有问题
+	2.验证患者注册时，未在系统中登记过的患者注册报错问题--已修复
+	3.验证患者注册时，申请页面医生信息显示不全（核查接口，开发少传了年龄与医疗机构信息）--未解决
+</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>2021-03-16 18:00:40</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>测试妇幼妇女病普查辅助检查页面功能</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.测试妇幼妇女病普查辅助检查页面功能
+	2.验证两癌筛查-宫颈癌筛查-病史情况信息检查页面中，绝经年龄字段修改为空无法保存问题。开发反馈已修复，测试环境实测未解决
+	3.验证两癌筛查-乳腺癌筛查-乳腺彩色超声检查信息页面中部分输入框只能输入数字问题--已修复 
+</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>2021-03-16 18:05:05</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>电子健康档案数据管理平台产品研发项目</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>天山社区医院问题的讨论与跟进</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，安排明天去现场测试
+	2，将测试结果整理后反馈给实施。
+	3，重点检查我们引起的差错。
+	4，与实施沟通，推进万达重推过程。
+	5，再确认部分小数点与字典问题。
+</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>2021-03-16 18:15:19</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>pandas数据构建深度学习（1）</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>2021-03-16 18:21:05</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>saas-高血压-医生和患者端-bug验证/功能测试</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1验证双向转诊-下拉数据不显示问题，与开发确认定位问题
+	2双向转诊下拉不显示-衍生新bug-待处理-已接收-转诊记录，数据都不显示
+	3验证并配合开发解决-分级管理与随访模块产生的bug，解决修复后的新问题-逾期和下次随访日期计算错误和不联动问题
+	4个人基本信息功能测试
+</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>2021-03-16 18:07:49</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>普陀区中心医院远程心电项目</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>saas-医生和患者端-验证高血压评估数据/患者报到bug和高血压数据维护功能测试</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1验证开发修复-高血压评估-高危评估错误bug
+	2反馈高血压评估修复后的新bug，配合开发定位问题
+	3验证患者端，被退组的患者重新加入时系统报异常的bug
+	4维护高血压数据，测试不同指标满足下的评估结果
+	5一期功能：基本信息-日程表/回复模板/项目切换功能测试
+</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>2021-03-16 18:15:33</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
